--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,7 +1253,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1261,107 +1261,93 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Viale Caduti in Guerra, 196</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
+          <t>2022-05-03T07:47:18+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+          <t>Esposizione interattiva</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>info@emiliaromagnateatro.com</t>
-        </is>
-      </c>
+          <t>2022-05-03T07:47:41+00:00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-05-09T22:00:00+00:00</t>
+          <t>2022-05-13T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2022-05-22T21:55:00+00:00</t>
+          <t>2022-09-20T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/blind-love/@@images/99ddeabc-7c6c-40a5-8cfd-0b3cca9f4b60.jpeg</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/illusion-niente-e-come-sembra/@@images/a90fcc28-9ba2-432e-b6a7-7e1aa65d6d93.jpeg</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Installazione "DELICATE BOUNDARIES di Chris Sugrue (US)</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2022-03-15T11:09:10+00:00</t>
+          <t>2022-05-13T14:22:43+00:00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Nuovo Diurno (piazza Mazzini) e Laboratorio Aperto (viale Buon Pastore, 43)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 10 al 13 e dal 17 al 20 maggio ore 20.30  14 e 21 maggio ore 19  15 e 22 maggio ore 16</t>
+          <t xml:space="preserve"> Inaugurazione venerdì 13 maggio e apertura al pubblico dalle ore 16 presso il Nuovo Diurno  Ex-Diurno, Piazza Mazzini: dal martedì alla domenica dalle 9 alle 20 Laboratorio aperto, viale Buon Pastore 43: dal lunedì al  venerdì, dalle 10 alle 13 e dalle 14 alle 18 </t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>059/2163021</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Blind Love</t>
+          <t>Illusion: niente è come sembra</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>http://www.emiliaromagnateatro.com</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="b">
         <v>0</v>
       </c>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>41123</v>
+      </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/blind-love</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/illusion-niente-e-come-sembra</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -1376,56 +1362,56 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>corso Canalgrande, 103</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-05-03T07:47:18+00:00</t>
+          <t>2022-05-09T09:20:03+00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Esposizione interattiva</t>
+          <t>Mostra delle tavole originali di Rocco Lombardi</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-05-03T07:47:41+00:00</t>
+          <t>2022-05-09T09:20:10+00:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-05-13T07:00:00+00:00</t>
+          <t>2022-05-13T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2022-09-20T08:00:00+00:00</t>
+          <t>2022-06-25T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/illusion-niente-e-come-sembra/@@images/a90fcc28-9ba2-432e-b6a7-7e1aa65d6d93.jpeg</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Installazione "DELICATE BOUNDARIES di Chris Sugrue (US)</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/cera-una-taiga-cera-un-incendio/@@images/ee309d65-a044-4f9f-9654-b7cd4cf48471.jpeg</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2022-05-13T14:22:43+00:00</t>
+          <t>2022-05-09T09:21:01+00:00</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Nuovo Diurno (piazza Mazzini) e Laboratorio Aperto (viale Buon Pastore, 43)</t>
+          <t>Biblioteca Delfini</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inaugurazione venerdì 13 maggio e apertura al pubblico dalle ore 16 presso il Nuovo Diurno  Ex-Diurno, Piazza Mazzini: dal martedì alla domenica dalle 9 alle 20 Laboratorio aperto, viale Buon Pastore 43: dal lunedì al  venerdì, dalle 10 alle 13 e dalle 14 alle 18 </t>
+          <t xml:space="preserve"> Venerdì 13 maggio, inaugurazione ore 18. Dal 14 maggio: lunedì 14:30-20:00, da martedì a sabato 9:30-20:00 </t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1434,7 +1420,7 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Illusion: niente è come sembra</t>
+          <t>C'era una taiga. C'era un incendio</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1447,7 +1433,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/illusion-niente-e-come-sembra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/cera-una-taiga-cera-un-incendio</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1479,54 +1465,50 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>corso Canalgrande, 103</t>
+          <t>piazza Grande, 17</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-05-09T09:20:03+00:00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Mostra delle tavole originali di Rocco Lombardi</t>
-        </is>
-      </c>
+          <t>2022-05-14T08:53:22+00:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2022-05-09T09:20:10+00:00</t>
+          <t>2022-05-14T08:53:32+00:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-05-13T09:00:00+00:00</t>
+          <t>2022-05-14T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2022-06-25T10:00:00+00:00</t>
+          <t>2022-06-03T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/cera-una-taiga-cera-un-incendio/@@images/ee309d65-a044-4f9f-9654-b7cd4cf48471.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/lue-zona-di-liberta-lgbtiq/@@images/3cc471ca-e6d6-43a6-b1cd-10e277757659.jpeg</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2022-05-09T09:21:01+00:00</t>
+          <t>2022-05-14T08:54:11+00:00</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Biblioteca Delfini</t>
+          <t>Galleria Europa</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 13 maggio, inaugurazione ore 18. Dal 14 maggio: lunedì 14:30-20:00, da martedì a sabato 9:30-20:00 </t>
+          <t xml:space="preserve"> lunedì e giovedì 9.00-13.00 e 14.00-18.00 martedì, mercoledì, venerdì e sabato 9.00–13.00  </t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1535,7 +1517,7 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
-          <t>C'era una taiga. C'era un incendio</t>
+          <t>L'UE zona di libertà LGBTIQ</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1548,7 +1530,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/cera-una-taiga-cera-un-incendio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/lue-zona-di-liberta-lgbtiq</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1570,7 +1552,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1580,50 +1562,50 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>vedi nel progrmma</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-05-10T14:23:08+00:00</t>
+          <t>2022-05-13T10:35:21+00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2022-05-10T14:24:19+00:00</t>
+          <t>2022-05-13T10:35:30+00:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-05-13T14:00:00+00:00</t>
+          <t>2022-05-14T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2022-05-22T15:00:00+00:00</t>
+          <t>2022-06-19T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/play-il-festival-del-gioco-invade-la-citta/@@images/eee0d3a9-1ac0-405a-8f9d-4a66d8ce7269.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dalle-cose-altri-miraggi-i-collage-di-gianni-valbonesi/@@images/2017dd44-6be2-4497-a46b-9005dcca2629.jpeg</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2022-05-10T14:24:19+00:00</t>
+          <t>2022-05-16T15:32:17+00:00</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Sedi varie</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari dettagliati nel programma sul sito: www.play-modena.it/2022/extra/fuori-salone</t>
+          <t xml:space="preserve"> Il venerdì 16-20  il sabato e la domenica 10-13 e 16-20. Sabato 14 maggio, in occasione della Notte Europea dei Musei, e sabato 18 giugno, per la Festa della musica, l’apertura sarà prolungata fino alle 22.30</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1632,7 +1614,7 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Play, il Festival del Gioco invade la città</t>
+          <t>Dalle cose altri miraggi - I collage di Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
@@ -1645,7 +1627,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/play-il-festival-del-gioco-invade-la-citta</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dalle-cose-altri-miraggi-i-collage-di-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1667,7 +1649,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1677,67 +1659,83 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>vari comuni della provincia di Modena</t>
+          <t>via L.A. Vincenzi, 2 angolo viale A.Tassoni, 6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-05-11T07:42:11+00:00</t>
+          <t>2022-05-19T08:37:40+00:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iniziative promosse dal Consorzio della Bonifica Burana </t>
+          <t>Personale di Michele Ferri</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-05-11T07:42:44+00:00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>2022-05-19T08:38:52+00:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>info@accademia-adac.it</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-05-14T07:00:00+00:00</t>
+          <t>2022-05-20T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2022-05-22T08:00:00+00:00</t>
+          <t>2022-06-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/settimana-della-bonifica-2022/@@images/987f2701-16f4-4622-88e8-eed105c45006.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/cacciacuore/@@images/c3becf44-09a6-448b-9405-846c99156b8c.jpeg</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2022-05-11T07:42:44+00:00</t>
+          <t>2022-05-19T08:38:52+00:00</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Sedi diverse</t>
+          <t>Adac - Accademia delle arti creative</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi sul programma</t>
+          <t xml:space="preserve"> inaugurazione venerdì 20 maggio ore 19. Orari mostra: dal lunedì al venerdì ore 10-19  sabato ore 10-18.30 </t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ingresso libero</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>328 5366455</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Settimana della Bonifica 2022</t>
+          <t>Cacciacuore</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>https://accademia-adac.it</t>
+        </is>
+      </c>
       <c r="V12" t="b">
         <v>0</v>
       </c>
@@ -1746,7 +1744,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/settimana-della-bonifica-2022</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/cacciacuore</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1768,7 +1766,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1778,50 +1776,50 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>piazza Grande, 17</t>
+          <t>via Pio la Torre, 61</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-05-14T08:53:22+00:00</t>
+          <t>2022-03-09T08:45:48+00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-05-14T08:53:32+00:00</t>
+          <t>2022-03-09T08:46:01+00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-05-14T08:00:00+00:00</t>
+          <t>2022-05-01T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2022-06-03T09:00:00+00:00</t>
+          <t>2022-05-29T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/lue-zona-di-liberta-lgbtiq/@@images/3cc471ca-e6d6-43a6-b1cd-10e277757659.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_le-bancarelle-mercatino-delle-pulci/@@images/a63ccccb-06ba-46bd-91d1-d91429409bf3.jpeg</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2022-05-14T08:54:11+00:00</t>
+          <t>2022-03-09T10:40:46+00:00</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Galleria Europa</t>
+          <t>Polivalente 87 &amp; Gino Pini</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> lunedì e giovedì 9.00-13.00 e 14.00-18.00 martedì, mercoledì, venerdì e sabato 9.00–13.00  </t>
+          <t xml:space="preserve"> Domenica dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1830,11 +1828,15 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
-          <t>L'UE zona di libertà LGBTIQ</t>
+          <t>Le bancarelle - Mercatino delle pulci</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/littlemarketitalia/</t>
+        </is>
+      </c>
       <c r="V13" t="b">
         <v>0</v>
       </c>
@@ -1843,7 +1845,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/lue-zona-di-liberta-lgbtiq</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_le-bancarelle-mercatino-delle-pulci</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1865,7 +1867,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1875,50 +1877,54 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Via San Carlo, 5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-05-13T10:35:21+00:00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>2022-05-11T10:57:24+00:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Seminario in presenza e anche online</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-05-13T10:35:30+00:00</t>
+          <t>2022-05-11T10:57:31+00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-05-14T10:00:00+00:00</t>
+          <t>2022-05-23T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022-06-19T11:00:00+00:00</t>
+          <t>2022-05-23T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dalle-cose-altri-miraggi-i-collage-di-gianni-valbonesi/@@images/2017dd44-6be2-4497-a46b-9005dcca2629.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/ripensare-la-scuola-sergio-neri-e-il-tempo-pieno/@@images/ab73114a-4698-40cd-a91c-939e7c30f450.jpeg</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2022-05-16T15:32:17+00:00</t>
+          <t>2022-05-12T12:39:29+00:00</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Sala conferenze Fondazione San Carlo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il venerdì 16-20  il sabato e la domenica 10-13 e 16-20. Sabato 14 maggio, in occasione della Notte Europea dei Musei, e sabato 18 giugno, per la Festa della musica, l’apertura sarà prolungata fino alle 22.30</t>
+          <t xml:space="preserve"> dalle ore 15.30 alle 18.30</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1927,7 +1933,7 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Dalle cose altri miraggi - I collage di Gianni Valbonesi</t>
+          <t>Ripensare la scuola: Sergio Neri e il tempo pieno</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1940,7 +1946,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dalle-cose-altri-miraggi-i-collage-di-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/ripensare-la-scuola-sergio-neri-e-il-tempo-pieno</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1962,7 +1968,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1972,54 +1978,50 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>corso Canalgrande, 103</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-05-16T11:26:18+00:00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Una settimana di giochi per tutti </t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-05-16T11:54:34+00:00</t>
+          <t>2020-12-29T15:05:00+00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-05-14T11:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022-05-22T12:00:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/play-in-biblioteca/@@images/369b0f2b-46b3-4814-a7b5-d29bf0428db1.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2022-05-16T11:55:19+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Biblioteca Delfini</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari nel programma</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -2028,20 +2030,26 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Play in Biblioteca</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.com/</t>
+        </is>
+      </c>
       <c r="V15" t="b">
         <v>0</v>
       </c>
-      <c r="W15" t="n">
-        <v>41123</v>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/play-in-biblioteca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2063,7 +2071,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Musica,Spettacoli,Concerti</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2073,65 +2081,77 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>via Pio la Torre, 61</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-03-09T08:45:48+00:00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Stagione sinfonica del Teatro comunale Pavarotti-Freni</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-03-09T08:46:01+00:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-05-01T07:00:00+00:00</t>
+          <t>2022-05-24T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022-05-29T08:00:00+00:00</t>
+          <t>2022-05-24T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_le-bancarelle-mercatino-delle-pulci/@@images/a63ccccb-06ba-46bd-91d1-d91429409bf3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/spira-mirabilis/@@images/d03f1ad6-ae7f-40b6-908c-bad72cf37db9.jpeg</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2022-03-09T10:40:46+00:00</t>
+          <t>2022-05-21T07:28:23+00:00</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Polivalente 87 &amp; Gino Pini</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domenica dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> Alle ore 20.30</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Le bancarelle - Mercatino delle pulci</t>
+          <t>Spira Mirabilis</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/littlemarketitalia/</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V16" t="b">
@@ -2142,7 +2162,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_le-bancarelle-mercatino-delle-pulci</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/spira-mirabilis</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2164,7 +2184,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Musica</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2174,83 +2194,67 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>via L.A. Vincenzi, 2 angolo viale A.Tassoni, 6</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-05-19T08:37:40+00:00</t>
+          <t>2022-05-20T10:02:04+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Personale di Michele Ferri</t>
+          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-05-19T08:38:52+00:00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>info@accademia-adac.it</t>
-        </is>
-      </c>
+          <t>2022-05-20T10:02:34+00:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-05-20T08:00:00+00:00</t>
+          <t>2022-05-12T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-06-18T09:00:00+00:00</t>
+          <t>2022-06-30T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/cacciacuore/@@images/c3becf44-09a6-448b-9405-846c99156b8c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2022-05-19T08:38:52+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Adac - Accademia delle arti creative</t>
+          <t>Piazzetta Pomposa</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> inaugurazione venerdì 20 maggio ore 19. Orari mostra: dal lunedì al venerdì ore 10-19  sabato ore 10-18.30 </t>
+          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ingresso libero</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>328 5366455</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Cacciacuore</t>
+          <t>Serate in Pomposa - 1° edizione</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>https://accademia-adac.it</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="b">
         <v>0</v>
       </c>
@@ -2259,7 +2263,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/cacciacuore</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2281,7 +2285,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Altri eventi,Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2292,71 +2296,85 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-05-16T10:34:25+00:00</t>
+          <t>2021-05-18T13:18:17+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Modena, Carpi, Sassuolo e Pavullo</t>
+          <t>Quattro iniziative rivolte a bambini e famiglie</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-05-16T10:34:31+00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>2021-05-18T13:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>info@modenamoremio.it</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-05-20T10:00:00+00:00</t>
+          <t>2022-05-04T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-05-22T11:00:00+00:00</t>
+          <t>2022-05-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/festival-della-giustizia-penale/@@images/40198344-ff76-4bdc-ae0b-c3b7e10f4698.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/i-mercoledi-di-maggio/@@images/9dabb3cb-8df7-4a66-a959-2d9e8db832a9.jpeg</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-05-20T09:09:44+00:00</t>
+          <t>2022-04-22T13:36:36+00:00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>sedi varie</t>
+          <t>Piazze del centro storico, vedi nel programma</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari sul sito https://festivalgiustiziapenale.it/</t>
+          <t xml:space="preserve"> mercoledì 4, 11, 18 e 25 maggio alle ore 17.00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>340 2884443</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Festival della Giustizia penale</t>
+          <t>I mercoledì di maggio</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>www.modenamoremio.it</t>
+        </is>
+      </c>
       <c r="V18" t="b">
         <v>0</v>
       </c>
-      <c r="W18" t="n">
-        <v>41123</v>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/festival-della-giustizia-penale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/i-mercoledi-di-maggio</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2378,7 +2396,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2388,63 +2406,87 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>viale Virgilio 70/90</t>
+          <t>Viale Jacopo Barozzi, 31</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-05-10T13:52:37+00:00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>2021-05-13T08:16:32+00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-05-10T13:52:44+00:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>2021-05-13T08:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>info@planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-20T13:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-05-22T14:00:00+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/play-il-festival-del-gioco/@@images/8c385b43-2d4e-4ed9-9d91-52bb1d660dd7.jpeg</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-10T13:52:44+00:00</t>
+          <t>2022-05-17T08:44:09+00:00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Modena Fiere</t>
+          <t>Civico Planetario</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 20 sabato 21 maggio dalle 9 alle 20  domenica 22 maggio dalle 9 alle 19 </t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>059 224726</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Play, il Festival del Gioco</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://www.planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="V19" t="b">
         <v>0</v>
       </c>
@@ -2453,29 +2495,29 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/play-il-festival-del-gioco</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2483,85 +2525,61 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Centro storico</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2022-05-17T09:05:44+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2022-05-17T09:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-21T16:00:00+00:00</t>
+          <t>2022-05-26T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-05-22T17:00:00+00:00</t>
+          <t>2022-05-29T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy8_of_lantico-in-piazza-grande/@@images/358a5eed-57bb-4625-9a7b-d5b57c42d0c7.jpeg</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-06T10:17:43+00:00</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
-        </is>
-      </c>
+          <t>2022-05-17T09:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>Motor Valley Fest - Quarta edizione</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="b">
         <v>0</v>
       </c>
@@ -2570,7 +2588,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy8_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2592,7 +2610,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2602,112 +2620,102 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>centro storico</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2022-04-29T10:05:46+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proiezione del film di Julie Lecoustre e Emmanuel Marre </t>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-20T06:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-05-22T06:44:31+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy3_of_generazione-low-cost/@@images/1579947d-4864-4d03-a998-738d596a1601.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Immagine della locandina del film</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-05-16T15:14:47+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Piazza Torre</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> venerdì ore 21.15  domenica ore 20.45</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Generazione low cost</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="b">
         <v>0</v>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W21" t="n">
+        <v>41123</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy3_of_generazione-low-cost</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2715,52 +2723,56 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Corso Canalgrande, 103</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021-09-29T07:24:39+00:00</t>
+          <t>2022-05-05T08:41:26+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di degustazione enogastronomica </t>
+          <t>Appuntamenti letterari al femminile</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-09-29T07:24:47+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-22T06:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/stuzzicagente/@@images/f1fe0df0-4e7f-40f5-bd99-147956336651.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-05-11T09:12:19+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Diversi locali del Centro storico</t>
+          <t>Chiostro di Palazzo Santa Margherita</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30</t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2769,7 +2781,7 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Stuzzicagente</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2782,7 +2794,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/stuzzicagente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2804,7 +2816,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2814,63 +2826,63 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>strada Canaletto sud 21, all’interno 211</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-05-13T07:36:11+00:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Il Collettivo MaBo porta la sua installazione fotografica nei corridoi dell’R-Nord</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-05-13T07:36:18+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-14T07:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-05-22T08:00:00+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nel-palazzo-che-vedi-dal-ponte/@@images/29fe4ac5-ee5a-408e-81c9-67aca2d6c93c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-13T07:54:46+00:00</t>
+          <t>2022-05-17T07:27:36+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>R-Nord palazzo di strada Canaletto sud 21, all’interno 211.</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 14 e sabato 21 maggio ore 16-20  domenica 15 e domenica 22 maggio ore 11-13 e 16-20</t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Nel palazzo che vedi dal ponte</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2883,7 +2895,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nel-palazzo-che-vedi-dal-ponte</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2905,7 +2917,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2915,87 +2927,63 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Viale Jacopo Barozzi, 31</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>info@planetariodimodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:03:13+00:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>059 224726</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>https://www.planetariodimodena.it</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="b">
         <v>0</v>
       </c>
@@ -3004,29 +2992,29 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3036,54 +3024,58 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-05-22T08:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-05-22T09:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_quale-percussione-museolaboratorio/@@images/5afe4865-09fa-4ce7-b53f-e3b6f2addf12.jpeg</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-03-31T08:56:32+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3092,7 +3084,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3105,7 +3097,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3137,58 +3129,50 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>centro storico</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Piazza Torre</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3197,7 +3181,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3210,7 +3194,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3232,7 +3216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spettacoli,Altri eventi</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3242,67 +3226,67 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>corso Canalgrande, 85</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-05-18T09:34:56+00:00</t>
+          <t>2022-05-10T10:04:48+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Spettacolo di danza</t>
+          <t>Diciottesima edizione</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-05-18T09:35:07+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-05-22T09:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-05-22T10:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/ri-e-voluzioni-novecento-oggetti-in-movimento/@@images/8ca9285b-06aa-4ed0-8f40-a70203f7b072.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-05-18T09:35:07+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21 - ingresso dalle ore 20.15</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingresso libero e gratuito</t>
+          <t xml:space="preserve"> Ingresso libero</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Ri(e)voluzioni Novecento. Oggetti in movimento</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3315,7 +3299,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/ri-e-voluzioni-novecento-oggetti-in-movimento</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3337,74 +3321,108 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Montale Rangone</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-05-09T09:32:31+00:00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-05-09T09:33:52+00:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-05-22T09:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-05-22T10:00:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/camminata-dei-9-parchi/@@images/468fbe98-7d96-4478-a2d5-65f81ca09f47.jpeg</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-05-09T09:35:05+00:00</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
+          <t>2022-03-28T14:43:35+00:00</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ritrovo ore 8.30 presso Novi Park</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Camminata dei 9 parchi</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>http://www.parcomontale.it/it</t>
+        </is>
+      </c>
       <c r="V28" t="b">
         <v>0</v>
       </c>
-      <c r="W28" t="n">
-        <v>41123</v>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/camminata-dei-9-parchi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3426,7 +3444,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spettacoli,Altri eventi</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3436,203 +3454,207 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Piazza Cittadella , 11</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-05-06T10:38:26+00:00</t>
+          <t>2020-09-17T12:45:54+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale in lingua inglese</t>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-05-06T10:40:38+00:00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>2014-09-30T12:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>info@emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-05-22T10:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-05-22T11:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/canterville/@@images/a7c7f385-58ea-43a6-8e6c-f76ee61ccc64.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-05-19T10:44:26+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>059/2163021</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Canterville</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>http://www.emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="V29" t="b">
         <v>0</v>
       </c>
-      <c r="W29" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/canterville</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
+          <t>2021-10-04T15:31:48+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
+          <t>2021-10-04T15:31:55+00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>museo@parcomontale.it</t>
+          <t>info@teatrocomunalemodena.it</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+          <t xml:space="preserve"> gratuito</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+          <t>059 2033010</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>http://www.parcomontale.it/it</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
+      <c r="W30" t="n">
+        <v>41123</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3654,7 +3676,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3664,67 +3686,79 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Via San Carlo, 5</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-05-11T10:57:24+00:00</t>
+          <t>2021-10-04T15:31:48+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Seminario in presenza e anche online</t>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-05-11T10:57:31+00:00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-05-23T10:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-05-23T11:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/ripensare-la-scuola-sergio-neri-e-il-tempo-pieno/@@images/ab73114a-4698-40cd-a91c-939e7c30f450.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-05-12T12:39:29+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Sala conferenze Fondazione San Carlo</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 15.30 alle 18.30</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Ripensare la scuola: Sergio Neri e il tempo pieno</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V31" t="b">
         <v>0</v>
       </c>
@@ -3733,7 +3767,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/ripensare-la-scuola-sergio-neri-e-il-tempo-pieno</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3755,7 +3789,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3765,50 +3799,50 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
+          <t>2022-05-11T07:00:46+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -3817,26 +3851,20 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.com/</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="b">
         <v>0</v>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W32" t="n">
+        <v>41123</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3858,7 +3886,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Concerti</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3868,110 +3896,104 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Stagione sinfonica del Teatro comunale Pavarotti-Freni</t>
-        </is>
-      </c>
+          <t>2021-08-25T12:27:55+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2021-08-25T12:28:08+00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-05-24T15:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-05-24T16:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/spira-mirabilis/@@images/d03f1ad6-ae7f-40b6-908c-bad72cf37db9.jpeg</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Immagine di una precedente edizione del mercato</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-05-21T07:28:23+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alle ore 20.30</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Spira Mirabilis</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>http://www.mercatieuropei.com</t>
         </is>
       </c>
       <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="W33" t="n">
-        <v>41123</v>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/spira-mirabilis</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3981,54 +4003,54 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:04+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:50:51+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-05-12T09:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-06-30T10:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Piazzetta Pomposa</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -4037,7 +4059,7 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Serate in Pomposa - 1° edizione</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -4050,7 +4072,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4072,7 +4094,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4080,75 +4102,79 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-05-18T13:18:17+00:00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Quattro iniziative rivolte a bambini e famiglie</t>
-        </is>
-      </c>
+          <t>2021-09-09T10:12:02+00:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-05-18T13:19:13+00:00</t>
+          <t>2021-09-09T10:12:26+00:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>info@modenamoremio.it</t>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-05-04T13:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-05-25T14:00:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/i-mercoledi-di-maggio/@@images/9dabb3cb-8df7-4a66-a959-2d9e8db832a9.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-04-22T13:36:36+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Piazze del centro storico, vedi nel programma</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mercoledì 4, 11, 18 e 25 maggio alle ore 17.00</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>340 2884443</t>
+          <t>059 2033166</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>I mercoledì di maggio</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>www.modenamoremio.it</t>
+          <t>https://www.fmav.org</t>
         </is>
       </c>
       <c r="V35" t="b">
@@ -4161,7 +4187,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/i-mercoledi-di-maggio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4183,7 +4209,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4191,57 +4217,65 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>via Selmi, 63</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:44+00:00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-05-26T08:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-05-29T09:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
+          <t>2022-05-17T07:25:56+00:00</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Complesso San Paolo</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Motor Valley Fest - Quarta edizione</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -4254,7 +4288,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4276,7 +4310,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4286,54 +4320,50 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Appuntamenti letterari al femminile</t>
-        </is>
-      </c>
+          <t>2022-05-21T10:32:36+00:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -4342,7 +4372,7 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -4355,7 +4385,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4377,7 +4407,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4387,98 +4417,96 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-17T07:27:36+00:00</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Complesso San Paolo</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V38" t="b">
         <v>0</v>
       </c>
-      <c r="W38" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4488,63 +4516,75 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
+          <t>2021-08-06T11:34:26+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-02-08T10:09:23+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+        </is>
+      </c>
       <c r="V39" t="b">
         <v>0</v>
       </c>
@@ -4553,7 +4593,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4575,7 +4615,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4585,58 +4625,50 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4645,7 +4677,7 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -4658,7 +4690,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4680,7 +4712,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4690,59 +4722,67 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>2022-03-19T09:15:00+00:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Commedia brillante</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-03-19T09:32:45+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -4755,7 +4795,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4777,7 +4817,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4787,102 +4827,96 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Diciottesima edizione</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Chiesa di San Francesco</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso libero</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V42" t="b">
         <v>0</v>
       </c>
-      <c r="W42" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4892,112 +4926,98 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>info@emiliaromagnateatro.com</t>
-        </is>
-      </c>
+          <t>2022-03-31T08:55:39+00:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>059/2163021</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>http://www.emiliaromagnateatro.com</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="b">
         <v>0</v>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>41123</v>
+      </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5007,83 +5027,71 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-03-19T09:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-03-19T09:28:51+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gratuito</t>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="b">
         <v>0</v>
       </c>
@@ -5092,7 +5100,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5114,7 +5122,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5124,79 +5132,71 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-02-25T14:15:33+00:00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-02-28T15:13:23+00:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="b">
         <v>0</v>
       </c>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5227,7 +5227,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5237,63 +5237,83 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>2021-06-10T16:47:55+00:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-06T10:18:45+00:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>https://www.anticoinpiazzagrande.com/</t>
+        </is>
+      </c>
       <c r="V46" t="b">
         <v>0</v>
       </c>
@@ -5302,7 +5322,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5324,7 +5344,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5334,54 +5354,50 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Immagine di una precedente edizione del mercato</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:24:06+00:00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -5390,48 +5406,44 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>http://www.mercatieuropei.com</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V47" t="b">
         <v>0</v>
       </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
-      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5441,54 +5453,50 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Parco Novi Sad</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5497,42 +5505,44 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V48" t="b">
         <v>0</v>
       </c>
-      <c r="W48" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5542,90 +5552,84 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
+          <t>2022-04-07T09:03:31+00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
+          <t>2022-04-07T09:06:38+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
+          <t>traborghiecontrade@libero.it</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-04-07T09:10:43+00:00</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
-        </is>
-      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>059 2033166</t>
+          <t>333/9103351</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>https://www.fmav.org</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V49" t="b">
         <v>0</v>
       </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W49" t="n">
+        <v>41123</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5647,7 +5651,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5657,98 +5661,96 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Complesso San Paolo</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:26:55+00:00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V50" t="b">
         <v>0</v>
       </c>
-      <c r="W50" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5758,50 +5760,50 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-10-15T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-10-16T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Piazza Matteotti</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:27:35+00:00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -5810,35 +5812,37 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V51" t="b">
         <v>0</v>
       </c>
-      <c r="W51" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -5865,40 +5869,40 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-11-19T23:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-11-20T22:55:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
+          <t>2022-05-10T08:28:15+00:00</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -5907,7 +5911,7 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -5922,7 +5926,7 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -5936,1448 +5940,6 @@
         </is>
       </c>
       <c r="AA52" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Mercati,Iniziative per bambini</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2021-08-06T11:34:26+00:00</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2021-08-06T11:36:33+00:00</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2022-06-12T11:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2022-06-12T12:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>2022-02-08T10:09:23+00:00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Polisportiva Madonnina</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
-        </is>
-      </c>
-      <c r="V53" t="b">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>41123</v>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>44,64582</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>10,92572</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>POINT (10.92572 44.64582)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Altri eventi</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Centro storico</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2022-05-06T09:12:13+00:00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2022-05-06T09:12:25+00:00</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2022-06-16T09:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2022-06-16T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>2022-05-06T09:12:25+00:00</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Piazza Roma</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Rosse e non solo di sera</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="b">
-        <v>0</v>
-      </c>
-      <c r="W54" t="n">
-        <v>41123</v>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>44,64582</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>10,92572</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>POINT (10.92572 44.64582)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Spettacoli,Teatro</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Piazza della Cittadella, 11</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2022-03-19T09:15:00+00:00</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Commedia brillante</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2022-03-19T09:19:36+00:00</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2022-06-17T08:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2022-06-19T09:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2022-03-19T09:32:45+00:00</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Teatro Cittadella</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Il Penitenziere</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="b">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
-        <v>41123</v>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>44,64582</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>10,92572</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>POINT (10.92572 44.64582)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2022-06-18T22:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2022-06-19T21:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V56" t="b">
-        <v>0</v>
-      </c>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Visite guidate,Iniziative per bambini</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Via Canaletto Sud, 17/A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2022-03-31T08:53:45+00:00</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2022-03-31T08:55:39+00:00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2022-06-19T08:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2022-06-19T09:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2022-03-31T08:57:09+00:00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Quale percussione? - Museolaboratorio</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="b">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>41123</v>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>44,64582</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>10,92572</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>POINT (10.92572 44.64582)</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Spettacoli,Teatro</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Piazza della Cittadella, 11</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2022-03-19T09:15:00+00:00</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Spettacolo teatrale</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2022-03-19T09:19:36+00:00</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2022-06-25T08:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2022-06-25T09:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2022-03-19T09:28:51+00:00</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Teatro Cittadella</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ore 21</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>L'uomo dal fiore in bocca</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="b">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>41123</v>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>44,64582</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>10,92572</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>POINT (10.92572 44.64582)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Visite guidate</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2022-02-25T14:15:15+00:00</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2022-02-25T14:15:33+00:00</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2022-06-25T13:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2022-06-25T14:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2022-02-28T15:13:23+00:00</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ore 19.00</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="b">
-        <v>0</v>
-      </c>
-      <c r="W59" t="n">
-        <v>41123</v>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>44,64582</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>10,92572</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>POINT (10.92572 44.64582)</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Centro storico</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2021-06-10T16:47:55+00:00</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2022-06-25T16:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2022-06-26T17:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2022-05-06T10:18:45+00:00</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>L'antico in Piazza Grande</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
-        </is>
-      </c>
-      <c r="V60" t="b">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
-        <v>41123</v>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>44,64582</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>10,92572</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>POINT (10.92572 44.64582)</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2022-07-16T22:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2022-07-17T21:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V61" t="b">
-        <v>0</v>
-      </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2022-08-20T22:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2022-08-21T21:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:26:10+00:00</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V62" t="b">
-        <v>0</v>
-      </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2022-09-17T08:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2022-09-18T09:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
-        </is>
-      </c>
-      <c r="V63" t="b">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>41123</v>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>44,64582</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>10,92572</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>POINT (10.92572 44.64582)</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2022-09-17T22:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2022-09-18T21:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:26:55+00:00</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V64" t="b">
-        <v>0</v>
-      </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2022-10-15T22:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2022-10-16T21:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:27:35+00:00</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2022-11-19T23:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2022-11-20T22:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:28:15+00:00</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V66" t="b">
-        <v>0</v>
-      </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2396,7 +2396,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2406,87 +2406,67 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Viale Jacopo Barozzi, 31</t>
+          <t>Piazza della Manifattura Tabacchi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>info@planetariodimodena.it</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-25T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-05-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche/@@images/3423aebc-8b5e-4d1d-8f35-b2dce36dab21.jpeg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-05-23T10:18:25+00:00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Ritrovo e partenza: Piazza della Manifattura Tabacchi</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>059 224726</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>https://www.planetariodimodena.it</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="b">
         <v>0</v>
       </c>
@@ -2495,29 +2475,29 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2525,61 +2505,89 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Viale Jacopo Barozzi, 31</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:44+00:00</t>
+          <t>2021-05-13T08:16:32+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>2021-05-13T08:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>info@planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-26T08:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-05-29T09:00:00+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
+          <t>2022-05-17T08:44:09+00:00</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Civico Planetario</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>059 224726</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Motor Valley Fest - Quarta edizione</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>https://www.planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="V20" t="b">
         <v>0</v>
       </c>
@@ -2588,29 +2596,29 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2618,60 +2626,48 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>centro storico</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
+          <t>2022-05-17T09:05:44+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
+          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-17T09:05:52+00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-05-26T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-05-29T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Piazza Torre</t>
-        </is>
-      </c>
+          <t>2022-05-17T09:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2680,7 +2676,7 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>Motor Valley Fest - Quarta edizione</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -2693,7 +2689,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2715,7 +2711,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2725,54 +2721,58 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>centro storico</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
+          <t>2022-04-29T10:05:46+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Appuntamenti letterari al femminile</t>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Piazza Torre</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2781,7 +2781,7 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2816,7 +2816,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2826,63 +2826,63 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Corso Canalgrande, 103</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>2022-05-05T08:41:26+00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Appuntamenti letterari al femminile</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-17T07:27:36+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Chiostro di Palazzo Santa Margherita</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2917,7 +2917,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2927,59 +2927,63 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-05-17T07:27:36+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -2992,7 +2996,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3014,7 +3018,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3024,58 +3028,50 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3084,7 +3080,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3097,7 +3093,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3129,50 +3125,58 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>2022-02-25T14:15:15+00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3181,7 +3185,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3194,7 +3198,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3216,7 +3220,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3226,67 +3230,59 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Diciottesima edizione</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso libero</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3299,7 +3295,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3321,108 +3317,90 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
+          <t>2022-05-10T10:04:48+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+          <t>Diciottesima edizione</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>museo@parcomontale.it</t>
-        </is>
-      </c>
+          <t>2022-05-10T10:08:30+00:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+          <t xml:space="preserve"> Ingresso libero</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>http://www.parcomontale.it/it</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="b">
         <v>0</v>
       </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
+      <c r="W28" t="n">
+        <v>41123</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3444,122 +3422,130 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
+          <t>2021-04-26T15:03:43+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
+          <t>2021-04-26T15:06:06+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>info@emiliaromagnateatro.com</t>
+          <t>museo@parcomontale.it</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>059/2163021</t>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>http://www.emiliaromagnateatro.com</t>
+          <t>http://www.parcomontale.it/it</t>
         </is>
       </c>
       <c r="V29" t="b">
         <v>0</v>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3569,83 +3555,67 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gratuito</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="b">
         <v>0</v>
       </c>
@@ -3654,7 +3624,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3676,7 +3646,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3686,110 +3656,112 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2020-09-17T12:45:54+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
+          <t>2014-09-30T12:50:00+00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>info@teatrocomunalemodena.it</t>
+          <t>info@emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>059 2033010</t>
+          <t>059/2163021</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>http://www.emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="V31" t="b">
         <v>0</v>
       </c>
-      <c r="W31" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3799,63 +3771,83 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gratuito</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V32" t="b">
         <v>0</v>
       </c>
@@ -3864,7 +3856,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3886,7 +3878,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3896,104 +3888,98 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Immagine di una precedente edizione del mercato</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>http://www.mercatieuropei.com</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W33" t="n">
+        <v>41123</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4003,67 +3989,79 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V34" t="b">
         <v>0</v>
       </c>
@@ -4072,7 +4070,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4094,7 +4092,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4104,90 +4102,72 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
+          <t>2022-05-11T07:00:46+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
-        </is>
-      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>059 2033166</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>https://www.fmav.org</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W35" t="n">
+        <v>41123</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4209,7 +4189,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4219,98 +4199,104 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2021-08-25T12:27:55+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2021-08-25T12:28:08+00:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Immagine di una precedente edizione del mercato</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>http://www.mercatieuropei.com</t>
+        </is>
+      </c>
       <c r="V36" t="b">
         <v>0</v>
       </c>
-      <c r="W36" t="n">
-        <v>41123</v>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4320,50 +4306,54 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
+          <t>2022-05-11T07:50:51+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -4372,7 +4362,7 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -4385,7 +4375,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4407,7 +4397,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4417,96 +4407,112 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2021-09-09T10:12:02+00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr"/>
+          <t>2022-05-21T09:18:35+00:00</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>FMAV - Palazzina dei Giardini</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.fmav.org</t>
         </is>
       </c>
       <c r="V38" t="b">
         <v>0</v>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4516,75 +4522,67 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Polisportiva Madonnina</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="b">
         <v>0</v>
       </c>
@@ -4593,7 +4591,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4615,7 +4613,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4630,45 +4628,45 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
+          <t>2022-05-21T10:32:36+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4677,7 +4675,7 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -4690,7 +4688,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4712,7 +4710,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4722,102 +4720,96 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Commedia brillante</t>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Teatro Cittadella</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V41" t="b">
         <v>0</v>
       </c>
-      <c r="W41" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4827,96 +4819,106 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2021-08-06T11:34:26+00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr"/>
+          <t>2022-02-08T10:09:23+00:00</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Polisportiva Madonnina</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
         </is>
       </c>
       <c r="V42" t="b">
         <v>0</v>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="n">
+        <v>41123</v>
+      </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4926,54 +4928,50 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -4982,7 +4980,7 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -4995,7 +4993,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5037,7 +5035,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t>Commedia brillante</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5048,23 +5046,23 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
+          <t>2022-03-19T09:32:45+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -5074,7 +5072,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -5087,7 +5085,7 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -5100,7 +5098,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5122,7 +5120,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5132,58 +5130,50 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5192,42 +5182,44 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V45" t="b">
         <v>0</v>
       </c>
-      <c r="W45" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5237,83 +5229,67 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2022-03-31T08:55:39+00:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="b">
         <v>0</v>
       </c>
@@ -5322,7 +5298,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5344,7 +5320,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5354,96 +5330,102 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
+          <t>2022-03-19T09:28:51+00:00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Teatro Cittadella</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="b">
         <v>0</v>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>41123</v>
+      </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5453,50 +5435,58 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
+          <t>2022-02-28T15:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5505,37 +5495,35 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="b">
         <v>0</v>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="n">
+        <v>41123</v>
+      </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -5552,54 +5540,62 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>2021-06-10T16:47:55+00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
+          <t>2021-06-10T16:48:45+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>traborghiecontrade@libero.it</t>
+          <t>anticoinpiazzagrande@gmail.com</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
+          <t>2022-05-06T10:18:45+00:00</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -5607,18 +5603,18 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>333/9103351</t>
+          <t>340 6059686 oppure 338 2098995</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>https://www.anticoinpiazzagrande.com/</t>
         </is>
       </c>
       <c r="V49" t="b">
@@ -5629,7 +5625,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5682,23 +5678,23 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
+          <t>2022-05-10T08:24:06+00:00</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -5728,7 +5724,7 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5781,23 +5777,23 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-10-15T22:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-10-16T21:55:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-05-10T08:27:35+00:00</t>
+          <t>2022-05-10T08:26:10+00:00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -5827,7 +5823,7 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5849,7 +5845,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5859,87 +5855,394 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-11-19T23:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-11-20T22:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-05-10T08:28:15+00:00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V52" t="b">
         <v>0</v>
       </c>
-      <c r="W52" t="inlineStr"/>
+      <c r="W52" t="n">
+        <v>41123</v>
+      </c>
       <c r="X52" t="inlineStr">
         <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>44,64582</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>10,92572</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>POINT (10.92572 44.64582)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2022-09-17T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2022-09-18T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:26:55+00:00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V53" t="b">
+        <v>0</v>
+      </c>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2022-10-15T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2022-10-16T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:27:35+00:00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V54" t="b">
+        <v>0</v>
+      </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2022-11-19T23:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2022-11-20T22:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:28:15+00:00</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V55" t="b">
+        <v>0</v>
+      </c>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
           <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="Y55" t="inlineStr">
         <is>
           <t>44,65137034620577</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="Z55" t="inlineStr">
         <is>
           <t>10,921029194828652</t>
         </is>
       </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AA55" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,7 +1867,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Musica,Spettacoli,Concerti</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1877,67 +1877,79 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Via San Carlo, 5</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-05-11T10:57:24+00:00</t>
+          <t>2021-10-04T15:31:48+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Seminario in presenza e anche online</t>
+          <t>Stagione sinfonica del Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-05-11T10:57:31+00:00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-05-23T10:00:00+00:00</t>
+          <t>2022-05-24T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022-05-23T11:00:00+00:00</t>
+          <t>2022-05-24T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/ripensare-la-scuola-sergio-neri-e-il-tempo-pieno/@@images/ab73114a-4698-40cd-a91c-939e7c30f450.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/spira-mirabilis/@@images/d03f1ad6-ae7f-40b6-908c-bad72cf37db9.jpeg</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2022-05-12T12:39:29+00:00</t>
+          <t>2022-05-21T07:28:23+00:00</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Sala conferenze Fondazione San Carlo</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 15.30 alle 18.30</t>
+          <t xml:space="preserve"> Alle ore 20.30</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Ripensare la scuola: Sergio Neri e il tempo pieno</t>
+          <t>Spira Mirabilis</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V14" t="b">
         <v>0</v>
       </c>
@@ -1946,7 +1958,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/ripensare-la-scuola-sergio-neri-e-il-tempo-pieno</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/spira-mirabilis</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1968,7 +1980,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Altri eventi,Musica</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1978,50 +1990,54 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>2022-05-20T10:02:04+00:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-05-12T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-06-30T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Piazzetta Pomposa</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -2030,26 +2046,20 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>Serate in Pomposa - 1° edizione</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.com/</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="b">
         <v>0</v>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W15" t="n">
+        <v>41123</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2071,7 +2081,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Concerti</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2079,60 +2089,56 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Corso Canalgrande, 85</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2021-05-18T13:18:17+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stagione sinfonica del Teatro comunale Pavarotti-Freni</t>
+          <t>Quattro iniziative rivolte a bambini e famiglie</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
+          <t>2021-05-18T13:19:13+00:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>info@teatrocomunalemodena.it</t>
+          <t>info@modenamoremio.it</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-05-24T15:00:00+00:00</t>
+          <t>2022-05-04T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022-05-24T16:00:00+00:00</t>
+          <t>2022-05-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/spira-mirabilis/@@images/d03f1ad6-ae7f-40b6-908c-bad72cf37db9.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/i-mercoledi-di-maggio/@@images/9dabb3cb-8df7-4a66-a959-2d9e8db832a9.jpeg</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2022-05-21T07:28:23+00:00</t>
+          <t>2022-04-22T13:36:36+00:00</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Piazze del centro storico, vedi nel programma</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alle ore 20.30</t>
+          <t xml:space="preserve"> mercoledì 4, 11, 18 e 25 maggio alle ore 17.00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2140,29 +2146,31 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>059 2033010</t>
+          <t>340 2884443</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Spira Mirabilis</t>
+          <t>I mercoledì di maggio</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>www.modenamoremio.it</t>
         </is>
       </c>
       <c r="V16" t="b">
         <v>0</v>
       </c>
-      <c r="W16" t="n">
-        <v>41123</v>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/spira-mirabilis</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/i-mercoledi-di-maggio</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2184,7 +2192,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2194,63 +2202,63 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Piazza della Manifattura Tabacchi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:04+00:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-05-12T09:00:00+00:00</t>
+          <t>2022-05-25T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-06-30T10:00:00+00:00</t>
+          <t>2022-05-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche/@@images/3423aebc-8b5e-4d1d-8f35-b2dce36dab21.jpeg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-23T10:18:25+00:00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Piazzetta Pomposa</t>
+          <t>Ritrovo e partenza: Piazza della Manifattura Tabacchi</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Serate in Pomposa - 1° edizione</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2263,7 +2271,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2285,7 +2293,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2293,110 +2301,120 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Viale Jacopo Barozzi, 31</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-05-18T13:18:17+00:00</t>
+          <t>2021-05-13T08:16:32+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Quattro iniziative rivolte a bambini e famiglie</t>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-05-18T13:19:13+00:00</t>
+          <t>2021-05-13T08:16:59+00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>info@modenamoremio.it</t>
+          <t>info@planetariodimodena.it</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-05-04T13:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-05-25T14:00:00+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/i-mercoledi-di-maggio/@@images/9dabb3cb-8df7-4a66-a959-2d9e8db832a9.jpeg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-04-22T13:36:36+00:00</t>
+          <t>2022-05-17T08:44:09+00:00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Piazze del centro storico, vedi nel programma</t>
+          <t>Civico Planetario</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mercoledì 4, 11, 18 e 25 maggio alle ore 17.00</t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>340 2884443</t>
+          <t>059 224726</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>I mercoledì di maggio</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>www.modenamoremio.it</t>
+          <t>https://www.planetariodimodena.it</t>
         </is>
       </c>
       <c r="V18" t="b">
         <v>0</v>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W18" t="n">
+        <v>41123</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/i-mercoledi-di-maggio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2404,65 +2422,57 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Piazza della Manifattura Tabacchi</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>2022-05-17T09:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-17T09:05:52+00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-25T15:00:00+00:00</t>
+          <t>2022-05-26T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-05-25T16:00:00+00:00</t>
+          <t>2022-05-29T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche/@@images/3423aebc-8b5e-4d1d-8f35-b2dce36dab21.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-23T10:18:25+00:00</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Ritrovo e partenza: Piazza della Manifattura Tabacchi</t>
-        </is>
-      </c>
+          <t>2022-05-17T09:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Motor Valley Fest - Quarta edizione</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2475,7 +2485,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2497,7 +2507,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2507,87 +2517,71 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Viale Jacopo Barozzi, 31</t>
+          <t>centro storico</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
+          <t>2022-04-29T10:05:46+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>info@planetariodimodena.it</t>
-        </is>
-      </c>
+          <t>2022-04-29T10:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Piazza Torre</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>059 224726</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>https://www.planetariodimodena.it</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="b">
         <v>0</v>
       </c>
@@ -2596,29 +2590,29 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2626,48 +2620,56 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Corso Canalgrande, 103</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:44+00:00</t>
+          <t>2022-05-05T08:41:26+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
+          <t>Appuntamenti letterari al femminile</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-26T08:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-05-29T09:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
+          <t>2022-05-05T09:23:17+00:00</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Chiostro di Palazzo Santa Margherita</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2676,7 +2678,7 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Motor Valley Fest - Quarta edizione</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -2689,7 +2691,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2711,7 +2713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2721,67 +2723,63 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>centro storico</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-17T07:27:36+00:00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Piazza Torre</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2794,7 +2792,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2816,7 +2814,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2826,54 +2824,50 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Appuntamenti letterari al femminile</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -2882,7 +2876,7 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2895,7 +2889,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2917,7 +2911,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2927,63 +2921,67 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>2022-02-25T14:15:15+00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-05-17T07:27:36+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -2996,7 +2994,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3018,7 +3016,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3028,50 +3026,50 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3080,7 +3078,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3093,7 +3091,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3115,7 +3113,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3125,67 +3123,67 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-05-10T10:04:48+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Diciottesima edizione</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso libero</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3198,7 +3196,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3220,82 +3218,108 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>http://www.parcomontale.it/it</t>
+        </is>
+      </c>
       <c r="V27" t="b">
         <v>0</v>
       </c>
-      <c r="W27" t="n">
-        <v>41123</v>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3317,7 +3341,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3327,67 +3351,63 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Diciottesima edizione</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingresso libero</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -3400,7 +3420,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3422,95 +3442,75 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>museo@parcomontale.it</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:05:00+00:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>http://www.parcomontale.it/it</t>
+          <t>http://www.consorzioilmercato.com/</t>
         </is>
       </c>
       <c r="V29" t="b">
@@ -3518,12 +3518,12 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>41050</t>
+          <t>41121</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3545,7 +3545,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3555,98 +3555,112 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>2020-09-17T12:45:54+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>2014-09-30T12:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>info@emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>059/2163021</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>http://www.emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3656,112 +3670,114 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
+          <t>2021-10-04T15:31:48+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
+          <t>2021-10-04T15:31:55+00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>info@emiliaromagnateatro.com</t>
+          <t>info@teatrocomunalemodena.it</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+          <t xml:space="preserve"> gratuito</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>059/2163021</t>
+          <t>059 2033010</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>http://www.emiliaromagnateatro.com</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V31" t="b">
         <v>0</v>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="n">
+        <v>41123</v>
+      </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3771,83 +3787,67 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gratuito</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="b">
         <v>0</v>
       </c>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3878,7 +3878,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3888,21 +3888,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>2022-06-01T15:00:00+00:00</t>
@@ -3915,40 +3923,44 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V33" t="b">
         <v>0</v>
       </c>
@@ -3957,7 +3969,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -3979,7 +3991,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3989,79 +4001,63 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:00:46+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="b">
         <v>0</v>
       </c>
@@ -4070,7 +4066,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4092,7 +4088,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4102,50 +4098,54 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
+          <t>2021-08-25T12:27:55+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2021-08-25T12:28:08+00:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Immagine di una precedente edizione del mercato</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -4154,42 +4154,48 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>http://www.mercatieuropei.com</t>
+        </is>
+      </c>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="n">
-        <v>41123</v>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4199,54 +4205,54 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
+          <t>2022-05-11T07:50:51+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Immagine di una precedente edizione del mercato</t>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -4255,48 +4261,42 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>http://www.mercatieuropei.com</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="b">
         <v>0</v>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W36" t="n">
+        <v>41123</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4306,76 +4306,90 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
+          <t>2021-09-09T10:12:02+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>https://www.fmav.org</t>
+        </is>
+      </c>
       <c r="V37" t="b">
         <v>0</v>
       </c>
-      <c r="W37" t="n">
-        <v>41123</v>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4397,7 +4411,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4407,90 +4421,76 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:25:56+00:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>059 2033166</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>https://www.fmav.org</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="b">
         <v>0</v>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W38" t="n">
+        <v>41123</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4512,7 +4512,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4522,63 +4522,59 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2022-05-21T10:32:36+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -4591,7 +4587,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4613,7 +4609,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4623,50 +4619,50 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Piazza Matteotti</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4675,42 +4671,44 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V40" t="b">
         <v>0</v>
       </c>
-      <c r="W40" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4720,96 +4718,106 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2021-08-06T11:34:26+00:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr"/>
+          <t>2022-02-08T10:09:23+00:00</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Polisportiva Madonnina</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
         </is>
       </c>
       <c r="V41" t="b">
         <v>0</v>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="n">
+        <v>41123</v>
+      </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4819,75 +4827,63 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
+          <t>2022-05-06T09:12:13+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Polisportiva Madonnina</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="b">
         <v>0</v>
       </c>
@@ -4896,7 +4892,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -4918,7 +4914,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4928,59 +4924,67 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>2022-03-19T09:15:00+00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Commedia brillante</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-03-19T09:32:45+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -4993,7 +4997,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5015,7 +5019,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5025,102 +5029,96 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Commedia brillante</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Teatro Cittadella</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V44" t="b">
         <v>0</v>
       </c>
-      <c r="W44" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5130,50 +5128,54 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
+          <t>2022-03-31T08:57:09+00:00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5182,44 +5184,42 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="b">
         <v>0</v>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>41123</v>
+      </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5229,63 +5229,67 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-03-19T09:28:51+00:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -5298,7 +5302,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5320,7 +5324,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5330,67 +5334,67 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
+          <t>2022-02-28T15:13:23+00:00</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -5403,7 +5407,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5425,7 +5429,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5435,71 +5439,83 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2021-06-10T16:47:55+00:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
+          <t>2022-05-06T10:18:45+00:00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>https://www.anticoinpiazzagrande.com/</t>
+        </is>
+      </c>
       <c r="V48" t="b">
         <v>0</v>
       </c>
@@ -5508,7 +5524,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5530,7 +5546,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5540,107 +5556,89 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:24:06+00:00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V49" t="b">
         <v>0</v>
       </c>
-      <c r="W49" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -5678,23 +5676,23 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
+          <t>2022-05-10T08:26:10+00:00</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -5724,7 +5722,7 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5746,7 +5744,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5756,96 +5754,106 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V51" t="b">
         <v>0</v>
       </c>
-      <c r="W51" t="inlineStr"/>
+      <c r="W51" t="n">
+        <v>41123</v>
+      </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5855,99 +5863,89 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:26:55+00:00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V52" t="b">
         <v>0</v>
       </c>
-      <c r="W52" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -5985,23 +5983,23 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-10-15T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-10-16T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
+          <t>2022-05-10T08:27:35+00:00</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -6031,7 +6029,7 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6084,23 +6082,23 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-10-15T22:00:00+00:00</t>
+          <t>2022-11-19T23:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-10-16T21:55:00+00:00</t>
+          <t>2022-11-20T22:55:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-05-10T08:27:35+00:00</t>
+          <t>2022-05-10T08:28:15+00:00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -6130,7 +6128,7 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6144,105 +6142,6 @@
         </is>
       </c>
       <c r="AA54" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2022-11-19T23:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2022-11-20T22:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:28:15+00:00</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V55" t="b">
-        <v>0</v>
-      </c>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA54"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,7 +1867,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Concerti</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1877,58 +1877,58 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Stagione sinfonica del Teatro comunale Pavarotti-Freni</t>
+          <t>Proiezione del film di Pier Paolo Pasolini</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-05-24T15:00:00+00:00</t>
+          <t>2022-05-24T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022-05-24T16:00:00+00:00</t>
+          <t>2022-05-24T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/spira-mirabilis/@@images/d03f1ad6-ae7f-40b6-908c-bad72cf37db9.jpeg</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-fiore-delle-mille-e-una-notte/@@images/1ee1a934-3c4b-401a-b505-2be65c9b6179.jpeg</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2022-05-21T07:28:23+00:00</t>
+          <t>2022-05-24T07:27:25+00:00</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alle ore 20.30</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1936,51 +1936,53 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>059 2033010</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Spira Mirabilis</t>
+          <t>Il fiore delle Mille e una notte</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V14" t="b">
         <v>0</v>
       </c>
-      <c r="W14" t="n">
-        <v>41123</v>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/spira-mirabilis</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-fiore-delle-mille-e-una-notte</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica</t>
+          <t>Musica,Spettacoli,Concerti</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1990,67 +1992,79 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:04+00:00</t>
+          <t>2021-10-04T15:31:48+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
+          <t>Stagione sinfonica del Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-05-12T09:00:00+00:00</t>
+          <t>2022-05-24T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022-06-30T10:00:00+00:00</t>
+          <t>2022-05-24T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/spira-mirabilis/@@images/d03f1ad6-ae7f-40b6-908c-bad72cf37db9.jpeg</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-21T07:28:23+00:00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Piazzetta Pomposa</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
+          <t xml:space="preserve"> Alle ore 20.30</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Serate in Pomposa - 1° edizione</t>
+          <t>Spira Mirabilis</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V15" t="b">
         <v>0</v>
       </c>
@@ -2059,7 +2073,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/spira-mirabilis</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2081,7 +2095,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2089,56 +2103,60 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>via degli Adelardi, 4</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-05-18T13:18:17+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Quattro iniziative rivolte a bambini e famiglie</t>
+          <t>Proiezione del film di Jonas Poher Rasmussen</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-05-18T13:19:13+00:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>info@modenamoremio.it</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-05-04T13:00:00+00:00</t>
+          <t>2022-05-25T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022-05-25T14:00:00+00:00</t>
+          <t>2022-05-25T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/i-mercoledi-di-maggio/@@images/9dabb3cb-8df7-4a66-a959-2d9e8db832a9.jpeg</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/flee-1/@@images/a9324550-f1f7-48d5-9da3-f242584eae7e.jpeg</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2022-04-22T13:36:36+00:00</t>
+          <t>2022-05-24T07:30:03+00:00</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Piazze del centro storico, vedi nel programma</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mercoledì 4, 11, 18 e 25 maggio alle ore 17.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2146,18 +2164,18 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>340 2884443</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>I mercoledì di maggio</t>
+          <t>Flee</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>www.modenamoremio.it</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V16" t="b">
@@ -2170,29 +2188,29 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/i-mercoledi-di-maggio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/flee-1</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Musica</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2202,63 +2220,63 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Piazza della Manifattura Tabacchi</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>2022-05-20T10:02:04+00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-05-25T15:00:00+00:00</t>
+          <t>2022-05-12T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-05-25T16:00:00+00:00</t>
+          <t>2022-06-30T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche/@@images/3423aebc-8b5e-4d1d-8f35-b2dce36dab21.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2022-05-23T10:18:25+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza della Manifattura Tabacchi</t>
+          <t>Piazzetta Pomposa</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Serate in Pomposa - 1° edizione</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2271,7 +2289,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2293,7 +2311,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2301,120 +2319,110 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Viale Jacopo Barozzi, 31</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
+          <t>2021-05-18T13:18:17+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+          <t>Quattro iniziative rivolte a bambini e famiglie</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
+          <t>2021-05-18T13:19:13+00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>info@planetariodimodena.it</t>
+          <t>info@modenamoremio.it</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-04T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-05-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/i-mercoledi-di-maggio/@@images/9dabb3cb-8df7-4a66-a959-2d9e8db832a9.jpeg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-04-22T13:36:36+00:00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Piazze del centro storico, vedi nel programma</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> mercoledì 4, 11, 18 e 25 maggio alle ore 17.00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>059 224726</t>
+          <t>340 2884443</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>I mercoledì di maggio</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>https://www.planetariodimodena.it</t>
+          <t>www.modenamoremio.it</t>
         </is>
       </c>
       <c r="V18" t="b">
         <v>0</v>
       </c>
-      <c r="W18" t="n">
-        <v>41123</v>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/i-mercoledi-di-maggio</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2422,57 +2430,65 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Piazza della Manifattura Tabacchi</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:44+00:00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-26T08:00:00+00:00</t>
+          <t>2022-05-25T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-05-29T09:00:00+00:00</t>
+          <t>2022-05-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche/@@images/3423aebc-8b5e-4d1d-8f35-b2dce36dab21.jpeg</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
+          <t>2022-05-23T10:18:25+00:00</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Ritrovo e partenza: Piazza della Manifattura Tabacchi</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Motor Valley Fest - Quarta edizione</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2485,7 +2501,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2507,7 +2523,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2517,102 +2533,112 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>centro storico</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
+          <t>Proiezione del film di Federica Biondi</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-05-26T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-05-26T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-ballata-dei-gusci-infranti/@@images/347b3d2a-3685-4df2-8c74-673b8e42b1d0.jpeg</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Immagine della locandina del film</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-24T07:32:05+00:00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Piazza Torre</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>La ballata dei gusci infranti</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V20" t="b">
         <v>0</v>
       </c>
-      <c r="W20" t="n">
-        <v>41123</v>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-ballata-dei-gusci-infranti</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2622,67 +2648,87 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>Viale Jacopo Barozzi, 31</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
+          <t>2021-05-13T08:16:32+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Appuntamenti letterari al femminile</t>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>2021-05-13T08:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>info@planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-17T08:44:09+00:00</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Civico Planetario</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>059 224726</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>https://www.planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="V21" t="b">
         <v>0</v>
       </c>
@@ -2691,29 +2737,29 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2721,65 +2767,57 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>via Selmi, 63</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>2022-05-17T09:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-17T09:05:52+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-26T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-29T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-05-17T07:27:36+00:00</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Complesso San Paolo</t>
-        </is>
-      </c>
+          <t>2022-05-17T09:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Motor Valley Fest - Quarta edizione</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2792,7 +2830,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2814,7 +2852,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2824,87 +2862,105 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-05-27T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-05-27T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-05-24T07:37:25+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Il naso o la cospirazione degli anticonformisti</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V23" t="b">
         <v>0</v>
       </c>
-      <c r="W23" t="n">
-        <v>41123</v>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
@@ -2921,38 +2977,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>centro storico</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-04-29T10:05:46+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2962,17 +3018,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Piazza Torre</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -2981,7 +3037,7 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -2994,7 +3050,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3016,7 +3072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3026,94 +3082,112 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Alejandro Amenábar</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-05-28T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-05-29T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-05-24T07:35:24+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Lettera a Franco</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V25" t="b">
         <v>0</v>
       </c>
-      <c r="W25" t="n">
-        <v>41123</v>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3123,67 +3197,63 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>Corso Canalgrande, 103</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
+          <t>2022-05-05T08:41:26+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Diciottesima edizione</t>
+          <t>Appuntamenti letterari al femminile</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Chiostro di Palazzo Santa Margherita</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso libero</t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3196,7 +3266,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3218,108 +3288,86 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>museo@parcomontale.it</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:25:56+00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-05-17T07:27:36+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>http://www.parcomontale.it/it</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="b">
         <v>0</v>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
+      <c r="W27" t="n">
+        <v>41123</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3341,7 +3389,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3351,63 +3399,59 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
+          <t>2022-05-13T10:01:30+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -3420,7 +3464,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3442,7 +3486,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3452,50 +3496,58 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>2022-02-25T14:15:15+00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3504,26 +3556,20 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.com/</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="b">
         <v>0</v>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W29" t="n">
+        <v>41123</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3545,7 +3591,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3555,112 +3601,94 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>info@emiliaromagnateatro.com</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
-        </is>
-      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>059/2163021</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>http://www.emiliaromagnateatro.com</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="n">
+        <v>41123</v>
+      </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3670,83 +3698,71 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2022-05-10T10:04:48+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+          <t>Diciottesima edizione</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-10T10:08:30+00:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gratuito</t>
+          <t xml:space="preserve"> Ingresso libero</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="b">
         <v>0</v>
       </c>
@@ -3755,7 +3771,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3777,86 +3793,108 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>http://www.parcomontale.it/it</t>
+        </is>
+      </c>
       <c r="V32" t="b">
         <v>0</v>
       </c>
-      <c r="W32" t="n">
-        <v>41123</v>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3878,7 +3916,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3888,79 +3926,67 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="b">
         <v>0</v>
       </c>
@@ -3969,7 +3995,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -3991,7 +4017,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4001,50 +4027,50 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
+          <t>2020-12-29T15:02:32+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2020-12-29T15:05:00+00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -4053,20 +4079,26 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.com/</t>
+        </is>
+      </c>
       <c r="V34" t="b">
         <v>0</v>
       </c>
-      <c r="W34" t="n">
-        <v>41123</v>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4088,7 +4120,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4098,104 +4130,112 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>2020-09-17T12:45:54+00:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>2014-09-30T12:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>info@emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Immagine di una precedente edizione del mercato</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>059/2163021</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>http://www.mercatieuropei.com</t>
+          <t>http://www.emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4205,98 +4245,112 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+          <t>Immagine della locandina del film</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Paisan, Ciao</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V36" t="b">
         <v>0</v>
       </c>
-      <c r="W36" t="n">
-        <v>41123</v>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4306,90 +4360,92 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
+          <t>2021-10-04T15:31:55+00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
+          <t>info@teatrocomunalemodena.it</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+          <t xml:space="preserve"> gratuito</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>059 2033166</t>
+          <t>059 2033010</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>https://www.fmav.org</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V37" t="b">
         <v>0</v>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W37" t="n">
+        <v>41123</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4411,7 +4467,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4421,63 +4477,63 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -4490,7 +4546,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4512,7 +4568,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4522,63 +4578,79 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V39" t="b">
         <v>0</v>
       </c>
@@ -4587,7 +4659,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4609,7 +4681,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4619,50 +4691,50 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:00:46+00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
+          <t>2022-05-11T07:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Autodromo di Modena</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4671,44 +4743,42 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="b">
         <v>0</v>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="n">
+        <v>41123</v>
+      </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4718,106 +4788,104 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
+          <t>2021-08-25T12:27:55+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2021-08-25T12:28:08+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>logo del mercatino</t>
+          <t>Immagine di una precedente edizione del mercato</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Polisportiva Madonnina</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+          <t>http://www.mercatieuropei.com</t>
         </is>
       </c>
       <c r="V41" t="b">
         <v>0</v>
       </c>
-      <c r="W41" t="n">
-        <v>41123</v>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4827,50 +4895,54 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
+          <t>2022-05-11T07:50:51+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -4879,7 +4951,7 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -4892,7 +4964,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -4914,7 +4986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4924,102 +4996,112 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Commedia brillante</t>
+          <t>Proiezione del film di Marco Pollini</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-04T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-04T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
+          <t>2022-05-24T07:43:55+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>La grande guerra del Salento</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V43" t="b">
         <v>0</v>
       </c>
-      <c r="W43" t="n">
-        <v>41123</v>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5029,96 +5111,112 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2021-09-09T10:12:02+00:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
+          <t>2022-05-21T09:18:35+00:00</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>FMAV - Palazzina dei Giardini</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.fmav.org</t>
         </is>
       </c>
       <c r="V44" t="b">
         <v>0</v>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5128,63 +5226,63 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -5197,7 +5295,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5219,7 +5317,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5229,67 +5327,59 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Spettacolo teatrale</t>
-        </is>
-      </c>
+          <t>2022-05-21T10:32:36+00:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -5302,7 +5392,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5324,7 +5414,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5334,58 +5424,50 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -5394,42 +5476,44 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V47" t="b">
         <v>0</v>
       </c>
-      <c r="W47" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5439,62 +5523,54 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
-        </is>
-      </c>
+          <t>2021-08-06T11:34:26+00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2021-08-06T11:36:33+00:00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+          <t>logo del mercatino</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
+          <t>2022-02-08T10:09:23+00:00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+          <t>Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5502,18 +5578,18 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>340 6059686 oppure 338 2098995</t>
+          <t>340 2607164 Luisa</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
         </is>
       </c>
       <c r="V48" t="b">
@@ -5524,7 +5600,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5546,7 +5622,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5556,50 +5632,50 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+          <t>2022-05-06T09:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Piazza Roma</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -5608,44 +5684,42 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="b">
         <v>0</v>
       </c>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>41123</v>
+      </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5655,96 +5729,102 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Commedia brillante</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
+          <t>2022-03-19T09:32:45+00:00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Teatro Cittadella</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="b">
         <v>0</v>
       </c>
-      <c r="W50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>41123</v>
+      </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5754,106 +5834,96 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V51" t="b">
         <v>0</v>
       </c>
-      <c r="W51" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5863,50 +5933,54 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+          <t>2022-03-31T08:57:09+00:00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -5915,44 +5989,42 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="b">
         <v>0</v>
       </c>
-      <c r="W52" t="inlineStr"/>
+      <c r="W52" t="n">
+        <v>41123</v>
+      </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5962,96 +6034,102 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-10-15T22:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-10-16T21:55:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-05-10T08:27:35+00:00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
+          <t>2022-03-19T09:28:51+00:00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Teatro Cittadella</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="b">
         <v>0</v>
       </c>
-      <c r="W53" t="inlineStr"/>
+      <c r="W53" t="n">
+        <v>41123</v>
+      </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6061,50 +6139,58 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-11-19T23:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-11-20T22:55:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-05-10T08:28:15+00:00</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr"/>
+          <t>2022-02-28T15:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -6113,35 +6199,754 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="b">
         <v>0</v>
       </c>
-      <c r="W54" t="inlineStr"/>
+      <c r="W54" t="n">
+        <v>41123</v>
+      </c>
       <c r="X54" t="inlineStr">
         <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>44,64582</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>10,92572</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>POINT (10.92572 44.64582)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Centro storico</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2021-06-10T16:47:55+00:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2022-06-25T16:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2022-06-26T17:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2022-05-06T10:18:45+00:00</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>L'antico in Piazza Grande</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>https://www.anticoinpiazzagrande.com/</t>
+        </is>
+      </c>
+      <c r="V55" t="b">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>41123</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>44,64582</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>10,92572</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>POINT (10.92572 44.64582)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2022-07-16T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2022-07-17T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:24:06+00:00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V56" t="b">
+        <v>0</v>
+      </c>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2022-08-20T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2022-08-21T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Via Sant'Eufemia e Via Carteria</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2022-09-17T08:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2022-09-18T09:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
+        </is>
+      </c>
+      <c r="V58" t="b">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>41123</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>44,64582</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>10,92572</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>POINT (10.92572 44.64582)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2022-09-17T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2022-09-18T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:26:55+00:00</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V59" t="b">
+        <v>0</v>
+      </c>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2022-10-15T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2022-10-16T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:27:35+00:00</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2022-11-19T23:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2022-11-20T22:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:28:15+00:00</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V61" t="b">
+        <v>0</v>
+      </c>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
           <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="Y61" t="inlineStr">
         <is>
           <t>44,65137034620577</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="Z61" t="inlineStr">
         <is>
           <t>10,921029194828652</t>
         </is>
       </c>
-      <c r="AA54" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Proiezione del film di Pier Paolo Pasolini</t>
+          <t>Proiezione del film di Jonas Poher Rasmussen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1898,17 +1898,17 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-05-24T06:00:00+00:00</t>
+          <t>2022-05-25T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022-05-24T06:44:31+00:00</t>
+          <t>2022-05-25T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-fiore-delle-mille-e-una-notte/@@images/1ee1a934-3c4b-401a-b505-2be65c9b6179.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/flee-1/@@images/a9324550-f1f7-48d5-9da3-f242584eae7e.jpeg</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2022-05-24T07:27:25+00:00</t>
+          <t>2022-05-24T07:30:03+00:00</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Il fiore delle Mille e una notte</t>
+          <t>Flee</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-fiore-delle-mille-e-una-notte</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/flee-1</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1982,7 +1982,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Concerti</t>
+          <t>Altri eventi,Musica</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1992,79 +1992,67 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2022-05-20T10:02:04+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Stagione sinfonica del Teatro comunale Pavarotti-Freni</t>
+          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-20T10:02:34+00:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-05-24T15:00:00+00:00</t>
+          <t>2022-05-12T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022-05-24T16:00:00+00:00</t>
+          <t>2022-06-30T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/spira-mirabilis/@@images/d03f1ad6-ae7f-40b6-908c-bad72cf37db9.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2022-05-21T07:28:23+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Piazzetta Pomposa</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alle ore 20.30</t>
+          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Spira Mirabilis</t>
+          <t>Serate in Pomposa - 1° edizione</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="b">
         <v>0</v>
       </c>
@@ -2073,7 +2061,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/spira-mirabilis</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2095,7 +2083,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2103,60 +2091,56 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>via degli Adelardi, 4</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2021-05-18T13:18:17+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Proiezione del film di Jonas Poher Rasmussen</t>
+          <t>Quattro iniziative rivolte a bambini e famiglie</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>2021-05-18T13:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>info@modenamoremio.it</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-05-25T06:00:00+00:00</t>
+          <t>2022-05-04T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022-05-25T06:44:31+00:00</t>
+          <t>2022-05-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/flee-1/@@images/a9324550-f1f7-48d5-9da3-f242584eae7e.jpeg</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/i-mercoledi-di-maggio/@@images/9dabb3cb-8df7-4a66-a959-2d9e8db832a9.jpeg</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2022-05-24T07:30:03+00:00</t>
+          <t>2022-04-22T13:36:36+00:00</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Piazze del centro storico, vedi nel programma</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> mercoledì 4, 11, 18 e 25 maggio alle ore 17.00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2164,18 +2148,18 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>059 236288</t>
+          <t>340 2884443</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Flee</t>
+          <t>I mercoledì di maggio</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>www.modenamoremio.it</t>
         </is>
       </c>
       <c r="V16" t="b">
@@ -2188,29 +2172,29 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/flee-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/i-mercoledi-di-maggio</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2220,63 +2204,63 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Piazza della Manifattura Tabacchi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:04+00:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-05-12T09:00:00+00:00</t>
+          <t>2022-05-25T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-06-30T10:00:00+00:00</t>
+          <t>2022-05-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche/@@images/3423aebc-8b5e-4d1d-8f35-b2dce36dab21.jpeg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-23T10:18:25+00:00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Piazzetta Pomposa</t>
+          <t>Ritrovo e partenza: Piazza della Manifattura Tabacchi</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Serate in Pomposa - 1° edizione</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2289,7 +2273,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2311,7 +2295,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2319,56 +2303,60 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>via degli Adelardi, 4</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-05-18T13:18:17+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Quattro iniziative rivolte a bambini e famiglie</t>
+          <t>Proiezione del film di Federica Biondi</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-05-18T13:19:13+00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>info@modenamoremio.it</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-05-04T13:00:00+00:00</t>
+          <t>2022-05-26T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-05-25T14:00:00+00:00</t>
+          <t>2022-05-26T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/i-mercoledi-di-maggio/@@images/9dabb3cb-8df7-4a66-a959-2d9e8db832a9.jpeg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-ballata-dei-gusci-infranti/@@images/347b3d2a-3685-4df2-8c74-673b8e42b1d0.jpeg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-04-22T13:36:36+00:00</t>
+          <t>2022-05-24T07:32:05+00:00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Piazze del centro storico, vedi nel programma</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mercoledì 4, 11, 18 e 25 maggio alle ore 17.00</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -2376,18 +2364,18 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>340 2884443</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>I mercoledì di maggio</t>
+          <t>La ballata dei gusci infranti</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>www.modenamoremio.it</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V18" t="b">
@@ -2400,29 +2388,29 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/i-mercoledi-di-maggio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-ballata-dei-gusci-infranti</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2432,67 +2420,87 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Piazza della Manifattura Tabacchi</t>
+          <t>Viale Jacopo Barozzi, 31</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>2021-05-13T08:16:32+00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>2021-05-13T08:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>info@planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-25T15:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-05-25T16:00:00+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche/@@images/3423aebc-8b5e-4d1d-8f35-b2dce36dab21.jpeg</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-23T10:18:25+00:00</t>
+          <t>2022-05-17T08:44:09+00:00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza della Manifattura Tabacchi</t>
+          <t>Civico Planetario</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>059 224726</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://www.planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="V19" t="b">
         <v>0</v>
       </c>
@@ -2501,29 +2509,29 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2531,114 +2539,92 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>via degli Adelardi, 4</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2022-05-17T09:05:44+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Proiezione del film di Federica Biondi</t>
+          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-17T09:05:52+00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-26T06:00:00+00:00</t>
+          <t>2022-05-26T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-05-26T06:44:31+00:00</t>
+          <t>2022-05-29T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-ballata-dei-gusci-infranti/@@images/347b3d2a-3685-4df2-8c74-673b8e42b1d0.jpeg</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-24T07:32:05+00:00</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Sala Truffaut</t>
-        </is>
-      </c>
+          <t>2022-05-17T09:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>La ballata dei gusci infranti</t>
+          <t>Motor Valley Fest - Quarta edizione</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="b">
         <v>0</v>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W20" t="n">
+        <v>41123</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-ballata-dei-gusci-infranti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2648,118 +2634,112 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Viale Jacopo Barozzi, 31</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>info@planetariodimodena.it</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-27T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-05-27T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
+          <t>Immagine della locandina del film</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-05-24T07:37:25+00:00</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>059 224726</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>Il naso o la cospirazione degli anticonformisti</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>https://www.planetariodimodena.it</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V21" t="b">
         <v>0</v>
       </c>
-      <c r="W21" t="n">
-        <v>41123</v>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2767,48 +2747,60 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>centro storico</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:44+00:00</t>
+          <t>2022-04-29T10:05:46+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-26T08:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-05-29T09:00:00+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+          <t>2022-04-29T10:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Piazza Torre</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2817,7 +2809,7 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Motor Valley Fest - Quarta edizione</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2830,7 +2822,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2872,7 +2864,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
+          <t>Proiezione del film di Alejandro Amenábar</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2883,17 +2875,17 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-27T06:00:00+00:00</t>
+          <t>2022-05-28T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-05-27T06:44:31+00:00</t>
+          <t>2022-05-29T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2903,7 +2895,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-24T07:37:25+00:00</t>
+          <t>2022-05-24T07:35:24+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2913,7 +2905,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -2926,7 +2918,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Il naso o la cospirazione degli anticonformisti</t>
+          <t>Lettera a Franco</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2945,7 +2937,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2967,7 +2959,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2977,58 +2969,54 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>centro storico</t>
+          <t>Corso Canalgrande, 103</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
+          <t>2022-05-05T08:41:26+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
+          <t>Appuntamenti letterari al femminile</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Piazza Torre</t>
+          <t>Chiostro di Palazzo Santa Margherita</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -3037,7 +3025,7 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -3050,7 +3038,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3072,7 +3060,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3082,112 +3070,98 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Alejandro Amenábar</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-05-28T06:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-05-29T06:44:31+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-05-24T07:35:24+00:00</t>
+          <t>2022-05-17T07:27:36+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Lettera a Franco</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="b">
         <v>0</v>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W25" t="n">
+        <v>41123</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3197,54 +3171,50 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Appuntamenti letterari al femminile</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3253,7 +3223,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3266,7 +3236,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3288,7 +3258,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3298,63 +3268,67 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>2022-02-25T14:15:15+00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-05-17T07:27:36+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3367,7 +3341,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3389,7 +3363,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3399,50 +3373,50 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3451,7 +3425,7 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -3464,7 +3438,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3486,7 +3460,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3496,67 +3470,67 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-05-10T10:04:48+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Diciottesima edizione</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso libero</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3569,7 +3543,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3591,82 +3565,108 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>http://www.parcomontale.it/it</t>
+        </is>
+      </c>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="n">
-        <v>41123</v>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3698,67 +3698,63 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Diciottesima edizione</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingresso libero</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -3771,7 +3767,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3793,95 +3789,75 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>museo@parcomontale.it</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:05:00+00:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>http://www.parcomontale.it/it</t>
+          <t>http://www.consorzioilmercato.com/</t>
         </is>
       </c>
       <c r="V32" t="b">
@@ -3889,12 +3865,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>41050</t>
+          <t>41121</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3916,7 +3892,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3926,98 +3902,112 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>2020-09-17T12:45:54+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>2014-09-30T12:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>info@emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>059/2163021</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>http://www.emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="W33" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4027,65 +4017,77 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>Paisan, Ciao</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.com/</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V34" t="b">
@@ -4098,29 +4100,29 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4130,112 +4132,114 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
+          <t>2021-10-04T15:31:48+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
+          <t>2021-10-04T15:31:55+00:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>info@emiliaromagnateatro.com</t>
+          <t>info@teatrocomunalemodena.it</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+          <t xml:space="preserve"> gratuito</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>059/2163021</t>
+          <t>059 2033010</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>http://www.emiliaromagnateatro.com</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="n">
+        <v>41123</v>
+      </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4245,112 +4249,98 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-05-31T06:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-05-31T06:44:31+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-05-24T07:41:04+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Paisan, Ciao</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="b">
         <v>0</v>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W36" t="n">
+        <v>41123</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4370,7 +4360,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4385,23 +4375,23 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4415,11 +4405,7 @@
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gratuito</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
@@ -4428,7 +4414,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -4445,7 +4431,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4467,7 +4453,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4477,63 +4463,59 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
+          <t>2022-05-11T07:00:46+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -4546,7 +4528,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4568,7 +4550,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4578,110 +4560,104 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
-        </is>
-      </c>
+          <t>2021-08-25T12:27:55+00:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2021-08-25T12:28:08+00:00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Immagine di una precedente edizione del mercato</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>http://www.mercatieuropei.com</t>
         </is>
       </c>
       <c r="V39" t="b">
         <v>0</v>
       </c>
-      <c r="W39" t="n">
-        <v>41123</v>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4691,50 +4667,54 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
+          <t>2022-05-11T07:50:51+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4743,7 +4723,7 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -4756,7 +4736,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4778,7 +4758,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4788,69 +4768,77 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Marco Pollini</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-04T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-04T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Immagine di una precedente edizione del mercato</t>
+          <t>Immagine della locandina del film</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-24T07:43:55+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>La grande guerra del Salento</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>http://www.mercatieuropei.com</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V41" t="b">
@@ -4863,29 +4851,29 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4895,76 +4883,90 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
+          <t>2021-09-09T10:12:02+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>https://www.fmav.org</t>
+        </is>
+      </c>
       <c r="V42" t="b">
         <v>0</v>
       </c>
-      <c r="W42" t="n">
-        <v>41123</v>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -4986,7 +4988,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4996,112 +4998,98 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Marco Pollini</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-04T06:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-04T06:44:31+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-24T07:43:55+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>La grande guerra del Salento</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="b">
         <v>0</v>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W43" t="n">
+        <v>41123</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5111,90 +5099,72 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
+          <t>2022-05-21T10:32:36+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2022-05-21T10:32:42+00:00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>059 2033166</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>https://www.fmav.org</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="b">
         <v>0</v>
       </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W44" t="n">
+        <v>41123</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5216,7 +5186,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5226,98 +5196,96 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Complesso San Paolo</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V45" t="b">
         <v>0</v>
       </c>
-      <c r="W45" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5327,63 +5295,75 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
+          <t>2021-08-06T11:34:26+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-02-08T10:09:23+00:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+        </is>
+      </c>
       <c r="V46" t="b">
         <v>0</v>
       </c>
@@ -5392,7 +5372,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5414,7 +5394,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5424,50 +5404,50 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
+          <t>2022-05-06T09:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Piazza Roma</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -5476,44 +5456,42 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="b">
         <v>0</v>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>41123</v>
+      </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5523,75 +5501,71 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>2022-03-19T09:15:00+00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Commedia brillante</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
+          <t>2022-03-19T09:32:45+00:00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Polisportiva Madonnina</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="b">
         <v>0</v>
       </c>
@@ -5600,7 +5574,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5622,7 +5596,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5632,50 +5606,50 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Piazza Roma</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -5684,42 +5658,44 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V49" t="b">
         <v>0</v>
       </c>
-      <c r="W49" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5729,28 +5705,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Commedia brillante</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -5760,36 +5736,32 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -5802,7 +5774,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5824,7 +5796,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5834,96 +5806,102 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
+          <t>2022-03-19T09:28:51+00:00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Teatro Cittadella</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="b">
         <v>0</v>
       </c>
-      <c r="W51" t="inlineStr"/>
+      <c r="W51" t="n">
+        <v>41123</v>
+      </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5933,54 +5911,58 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-02-28T15:13:23+00:00</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -5989,7 +5971,7 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -6002,7 +5984,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6024,7 +6006,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6034,71 +6016,83 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2021-06-10T16:47:55+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
+          <t>2022-05-06T10:18:45+00:00</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>https://www.anticoinpiazzagrande.com/</t>
+        </is>
+      </c>
       <c r="V53" t="b">
         <v>0</v>
       </c>
@@ -6107,7 +6101,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6129,7 +6123,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6139,58 +6133,50 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:24:06+00:00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -6199,42 +6185,44 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V54" t="b">
         <v>0</v>
       </c>
-      <c r="W54" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6244,114 +6232,96 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V55" t="b">
         <v>0</v>
       </c>
-      <c r="W55" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6361,89 +6331,99 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V56" t="b">
         <v>0</v>
       </c>
-      <c r="W56" t="inlineStr"/>
+      <c r="W56" t="n">
+        <v>41123</v>
+      </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -6481,23 +6461,23 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
+          <t>2022-05-10T08:26:55+00:00</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
@@ -6527,7 +6507,7 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6549,7 +6529,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6559,99 +6539,89 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-10-15T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-10-16T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:27:35+00:00</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V58" t="b">
         <v>0</v>
       </c>
-      <c r="W58" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -6689,23 +6659,23 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-11-19T23:00:00+00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-11-20T22:55:00+00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
+          <t>2022-05-10T08:28:15+00:00</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -6735,7 +6705,7 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -6749,204 +6719,6 @@
         </is>
       </c>
       <c r="AA59" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2022-10-15T22:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2022-10-16T21:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:27:35+00:00</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V60" t="b">
-        <v>0</v>
-      </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2022-11-19T23:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2022-11-20T22:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:28:15+00:00</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V61" t="b">
-        <v>0</v>
-      </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -5031,7 +5031,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-25T07:44:29+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3460,7 +3460,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3470,67 +3470,71 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>piazza Matteotti, 17</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
+          <t>2022-05-25T09:39:41+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Diciottesima edizione</t>
+          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
+          <t>2022-05-29T08:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2022-05-29T11:00:00+00:00</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Centro per l'infanzia Mo.Mo</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> Ore 10.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingresso libero</t>
+          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>059 235320</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Un viaggio alla scoperta della musica</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3543,130 +3547,112 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,648090007085386</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925069996586558</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925069996586558 44.648090007085386)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
+          <t>2022-05-10T10:04:48+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+          <t>Diciottesima edizione</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>museo@parcomontale.it</t>
-        </is>
-      </c>
+          <t>2022-05-10T10:08:30+00:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+          <t xml:space="preserve"> Ingresso libero</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>http://www.parcomontale.it/it</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
+      <c r="W30" t="n">
+        <v>41123</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3688,86 +3674,108 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>http://www.parcomontale.it/it</t>
+        </is>
+      </c>
       <c r="V31" t="b">
         <v>0</v>
       </c>
-      <c r="W31" t="n">
-        <v>41123</v>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3789,7 +3797,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3799,78 +3807,76 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.com/</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="b">
         <v>0</v>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W32" t="n">
+        <v>41123</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3892,7 +3898,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3902,112 +3908,100 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>info@emiliaromagnateatro.com</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:05:00+00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>059/2163021</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>http://www.emiliaromagnateatro.com</t>
+          <t>http://www.consorzioilmercato.com/</t>
         </is>
       </c>
       <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4017,112 +4011,112 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2020-09-17T12:45:54+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>2014-09-30T12:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>info@emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-05-31T06:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-05-31T06:44:31+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-05-24T07:41:04+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>059 236288</t>
+          <t>059/2163021</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Paisan, Ciao</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>http://www.emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="V34" t="b">
         <v>0</v>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4132,114 +4126,112 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gratuito</t>
-        </is>
-      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>059 2033010</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Paisan, Ciao</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="n">
-        <v>41123</v>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4249,67 +4241,83 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> gratuito</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V36" t="b">
         <v>0</v>
       </c>
@@ -4318,7 +4326,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4340,7 +4348,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4350,29 +4358,21 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>2022-06-01T15:00:00+00:00</t>
@@ -4385,44 +4385,40 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="b">
         <v>0</v>
       </c>
@@ -4431,7 +4427,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4453,7 +4449,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4463,63 +4459,79 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V38" t="b">
         <v>0</v>
       </c>
@@ -4528,7 +4540,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4550,7 +4562,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4560,54 +4572,50 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
+          <t>2022-05-11T07:00:46+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Immagine di una precedente edizione del mercato</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -4616,48 +4624,42 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>http://www.mercatieuropei.com</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="b">
         <v>0</v>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W39" t="n">
+        <v>41123</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4667,54 +4669,54 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
+          <t>2021-08-25T12:27:55+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2021-08-25T12:28:08+00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+          <t>Immagine di una precedente edizione del mercato</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -4723,42 +4725,48 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>http://www.mercatieuropei.com</t>
+        </is>
+      </c>
       <c r="V40" t="b">
         <v>0</v>
       </c>
-      <c r="W40" t="n">
-        <v>41123</v>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4768,112 +4776,98 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Marco Pollini</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:50:51+00:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-04T06:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-04T06:44:31+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Immagine della locandina del film</t>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-05-24T07:43:55+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>La grande guerra del Salento</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="b">
         <v>0</v>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W41" t="n">
+        <v>41123</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4883,77 +4877,77 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Marco Pollini</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-04T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-04T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-24T07:43:55+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>059 2033166</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>La grande guerra del Salento</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>https://www.fmav.org</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V42" t="b">
@@ -4966,29 +4960,29 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4998,76 +4992,90 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2021-09-09T10:12:02+00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-25T07:44:29+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>https://www.fmav.org</t>
+        </is>
+      </c>
       <c r="V43" t="b">
         <v>0</v>
       </c>
-      <c r="W43" t="n">
-        <v>41123</v>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5089,7 +5097,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5099,59 +5107,63 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-05-25T07:44:29+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -5164,7 +5176,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5186,7 +5198,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5196,50 +5208,50 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-21T10:32:36+00:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
+          <t>2022-05-21T10:36:00+00:00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Piazza Matteotti</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5248,44 +5260,42 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="b">
         <v>0</v>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>41123</v>
+      </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5295,106 +5305,96 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Polisportiva Madonnina</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V46" t="b">
         <v>0</v>
       </c>
-      <c r="W46" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5404,63 +5404,75 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
+          <t>2021-08-06T11:34:26+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-02-08T10:09:23+00:00</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+        </is>
+      </c>
       <c r="V47" t="b">
         <v>0</v>
       </c>
@@ -5469,7 +5481,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5491,7 +5503,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5501,67 +5513,59 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Commedia brillante</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -5574,7 +5578,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5596,7 +5600,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5606,96 +5610,102 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Commedia brillante</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+          <t>2022-03-19T09:32:45+00:00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Teatro Cittadella</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="b">
         <v>0</v>
       </c>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>41123</v>
+      </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5705,54 +5715,50 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -5761,42 +5767,44 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V50" t="b">
         <v>0</v>
       </c>
-      <c r="W50" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5806,67 +5814,63 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -5879,7 +5883,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5901,7 +5905,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5911,67 +5915,67 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
+          <t>2022-03-19T09:28:51+00:00</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -5984,7 +5988,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6006,7 +6010,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6016,83 +6020,71 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2022-02-25T14:15:33+00:00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
+          <t>2022-02-28T15:13:23+00:00</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="b">
         <v>0</v>
       </c>
@@ -6101,7 +6093,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6123,7 +6115,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6133,89 +6125,107 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2021-06-10T16:47:55+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr"/>
+          <t>2022-05-06T10:18:45+00:00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.anticoinpiazzagrande.com/</t>
         </is>
       </c>
       <c r="V54" t="b">
         <v>0</v>
       </c>
-      <c r="W54" t="inlineStr"/>
+      <c r="W54" t="n">
+        <v>41123</v>
+      </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -6253,23 +6263,23 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
+          <t>2022-05-10T08:24:06+00:00</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -6299,7 +6309,7 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6321,7 +6331,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6331,106 +6341,96 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V56" t="b">
         <v>0</v>
       </c>
-      <c r="W56" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6440,89 +6440,99 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V57" t="b">
         <v>0</v>
       </c>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>41123</v>
+      </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -6560,23 +6570,23 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-10-15T22:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-10-16T21:55:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2022-05-10T08:27:35+00:00</t>
+          <t>2022-05-10T08:26:55+00:00</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -6606,7 +6616,7 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -6659,23 +6669,23 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-11-19T23:00:00+00:00</t>
+          <t>2022-10-15T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-11-20T22:55:00+00:00</t>
+          <t>2022-10-16T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2022-05-10T08:28:15+00:00</t>
+          <t>2022-05-10T08:27:35+00:00</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -6705,20 +6715,119 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2022-11-19T23:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2022-11-20T22:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:28:15+00:00</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
           <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="Y60" t="inlineStr">
         <is>
           <t>44,65137034620577</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
+      <c r="Z60" t="inlineStr">
         <is>
           <t>10,921029194828652</t>
         </is>
       </c>
-      <c r="AA59" t="inlineStr">
+      <c r="AA60" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Proiezione del film di Jonas Poher Rasmussen</t>
+          <t>Proiezione del film di Federica Biondi</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1898,17 +1898,17 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-05-25T06:00:00+00:00</t>
+          <t>2022-05-26T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022-05-25T06:44:31+00:00</t>
+          <t>2022-05-26T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/flee-1/@@images/a9324550-f1f7-48d5-9da3-f242584eae7e.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-ballata-dei-gusci-infranti/@@images/347b3d2a-3685-4df2-8c74-673b8e42b1d0.jpeg</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2022-05-24T07:30:03+00:00</t>
+          <t>2022-05-24T07:32:05+00:00</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Flee</t>
+          <t>La ballata dei gusci infranti</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/flee-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-ballata-dei-gusci-infranti</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1982,7 +1982,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1992,67 +1992,87 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Viale Jacopo Barozzi, 31</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:04+00:00</t>
+          <t>2021-05-13T08:16:32+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>2021-05-13T08:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>info@planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-05-12T09:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022-06-30T10:00:00+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-17T08:44:09+00:00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Piazzetta Pomposa</t>
+          <t>Civico Planetario</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>059 224726</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Serate in Pomposa - 1° edizione</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>https://www.planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="V15" t="b">
         <v>0</v>
       </c>
@@ -2061,29 +2081,29 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2094,85 +2114,67 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-05-18T13:18:17+00:00</t>
+          <t>2022-05-17T09:05:44+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Quattro iniziative rivolte a bambini e famiglie</t>
+          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-05-18T13:19:13+00:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>info@modenamoremio.it</t>
-        </is>
-      </c>
+          <t>2022-05-17T09:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-05-04T13:00:00+00:00</t>
+          <t>2022-05-26T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022-05-25T14:00:00+00:00</t>
+          <t>2022-05-29T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/i-mercoledi-di-maggio/@@images/9dabb3cb-8df7-4a66-a959-2d9e8db832a9.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2022-04-22T13:36:36+00:00</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Piazze del centro storico, vedi nel programma</t>
-        </is>
-      </c>
+          <t>2022-05-17T09:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mercoledì 4, 11, 18 e 25 maggio alle ore 17.00</t>
+          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>340 2884443</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
-          <t>I mercoledì di maggio</t>
+          <t>Motor Valley Fest - Quarta edizione</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>www.modenamoremio.it</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="b">
         <v>0</v>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W16" t="n">
+        <v>41123</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/i-mercoledi-di-maggio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2194,7 +2196,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Musica</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2204,63 +2206,63 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Piazza della Manifattura Tabacchi</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>2022-05-20T10:02:04+00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-05-25T15:00:00+00:00</t>
+          <t>2022-05-12T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-05-25T16:00:00+00:00</t>
+          <t>2022-06-30T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche/@@images/3423aebc-8b5e-4d1d-8f35-b2dce36dab21.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2022-05-23T10:18:25+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza della Manifattura Tabacchi</t>
+          <t>Piazzetta Pomposa</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Serate in Pomposa - 1° edizione</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2273,7 +2275,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy6_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2315,7 +2317,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Proiezione del film di Federica Biondi</t>
+          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2326,17 +2328,17 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-05-26T06:00:00+00:00</t>
+          <t>2022-05-27T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-05-26T06:44:31+00:00</t>
+          <t>2022-05-27T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-ballata-dei-gusci-infranti/@@images/347b3d2a-3685-4df2-8c74-673b8e42b1d0.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2346,7 +2348,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-05-24T07:32:05+00:00</t>
+          <t>2022-05-24T07:37:25+00:00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2356,7 +2358,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -2369,7 +2371,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>La ballata dei gusci infranti</t>
+          <t>Il naso o la cospirazione degli anticonformisti</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2388,7 +2390,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-ballata-dei-gusci-infranti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2410,7 +2412,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2420,87 +2422,71 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Viale Jacopo Barozzi, 31</t>
+          <t>centro storico</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
+          <t>2022-04-29T10:05:46+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>info@planetariodimodena.it</t>
-        </is>
-      </c>
+          <t>2022-04-29T10:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Piazza Torre</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>059 224726</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>https://www.planetariodimodena.it</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="b">
         <v>0</v>
       </c>
@@ -2509,29 +2495,29 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2539,92 +2525,114 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>via degli Adelardi, 4</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:44+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
+          <t>Proiezione del film di Alejandro Amenábar</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-26T08:00:00+00:00</t>
+          <t>2022-05-28T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-05-29T09:00:00+00:00</t>
+          <t>2022-05-29T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
+          <t>2022-05-24T07:35:24+00:00</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Sala Truffaut</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
+          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Motor Valley Fest - Quarta edizione</t>
+          <t>Lettera a Franco</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V20" t="b">
         <v>0</v>
       </c>
-      <c r="W20" t="n">
-        <v>41123</v>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2634,112 +2642,98 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Corso Canalgrande, 103</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2022-05-05T08:41:26+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
+          <t>Appuntamenti letterari al femminile</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-27T06:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-05-27T06:44:31+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-05-24T07:37:25+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Chiostro di Palazzo Santa Margherita</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Il naso o la cospirazione degli anticonformisti</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="b">
         <v>0</v>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W21" t="n">
+        <v>41123</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2749,67 +2743,63 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>centro storico</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-17T07:27:36+00:00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Piazza Torre</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2822,7 +2812,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2844,7 +2834,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2854,112 +2844,94 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Alejandro Amenábar</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-28T06:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-05-29T06:44:31+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-24T07:35:24+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Lettera a Franco</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="b">
         <v>0</v>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W23" t="n">
+        <v>41123</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2969,54 +2941,58 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Appuntamenti letterari al femminile</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -3025,7 +3001,7 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -3038,7 +3014,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3060,7 +3036,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3070,63 +3046,59 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-05-17T07:27:36+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3139,7 +3111,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3161,7 +3133,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3171,59 +3143,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>piazza Matteotti, 17</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>2022-05-25T09:39:41+00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-05-29T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Centro per l'infanzia Mo.Mo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> Ore 10.00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>059 235320</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Un viaggio alla scoperta della musica</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3236,29 +3220,29 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,648090007085386</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925069996586558</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925069996586558 44.648090007085386)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3268,67 +3252,67 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-05-10T10:04:48+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Diciottesima edizione</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso libero</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3341,7 +3325,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3363,82 +3347,108 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>http://www.parcomontale.it/it</t>
+        </is>
+      </c>
       <c r="V28" t="b">
         <v>0</v>
       </c>
-      <c r="W28" t="n">
-        <v>41123</v>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3460,7 +3470,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3470,71 +3480,63 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>piazza Matteotti, 17</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-05-25T09:39:41+00:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-05-29T08:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Centro per l'infanzia Mo.Mo</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ore 10.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>059 235320</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Un viaggio alla scoperta della musica</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3547,29 +3549,29 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>44,648090007085386</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10,925069996586558</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>POINT (10.925069996586558 44.648090007085386)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3579,80 +3581,78 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Diciottesima edizione</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2020-12-29T15:05:00+00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso libero</t>
-        </is>
-      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.com/</t>
+        </is>
+      </c>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="n">
-        <v>41123</v>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3674,130 +3674,122 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
+          <t>2020-09-17T12:45:54+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
+          <t>2014-09-30T12:50:00+00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>museo@parcomontale.it</t>
+          <t>info@emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+          <t>059/2163021</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>http://www.parcomontale.it/it</t>
+          <t>http://www.emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="V31" t="b">
         <v>0</v>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3807,98 +3799,112 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Paisan, Ciao</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V32" t="b">
         <v>0</v>
       </c>
-      <c r="W32" t="n">
-        <v>41123</v>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3908,78 +3914,92 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gratuito</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.com/</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W33" t="n">
+        <v>41123</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4001,7 +4021,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4011,112 +4031,98 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>info@emiliaromagnateatro.com</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>059/2163021</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>http://www.emiliaromagnateatro.com</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="b">
         <v>0</v>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>41123</v>
+      </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4126,58 +4132,58 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2021-10-04T15:31:48+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-05-31T06:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-05-31T06:44:31+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-05-24T07:41:04+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -4185,53 +4191,51 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>059 236288</t>
+          <t>059 2033010</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Paisan, Ciao</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W35" t="n">
+        <v>41123</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4241,83 +4245,63 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
-        </is>
-      </c>
+          <t>2022-05-11T07:00:46+00:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gratuito</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="b">
         <v>0</v>
       </c>
@@ -4326,7 +4310,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4348,7 +4332,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4358,98 +4342,104 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
+          <t>2021-08-25T12:27:55+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2021-08-25T12:28:08+00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Immagine di una precedente edizione del mercato</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>http://www.mercatieuropei.com</t>
+        </is>
+      </c>
       <c r="V37" t="b">
         <v>0</v>
       </c>
-      <c r="W37" t="n">
-        <v>41123</v>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4459,79 +4449,67 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:50:51+00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:51:19+00:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="b">
         <v>0</v>
       </c>
@@ -4540,7 +4518,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4562,7 +4540,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4572,94 +4550,112 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Marco Pollini</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-06-04T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-06-04T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-24T07:43:55+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>La grande guerra del Salento</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V39" t="b">
         <v>0</v>
       </c>
-      <c r="W39" t="n">
-        <v>41123</v>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4669,69 +4665,77 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
+          <t>2021-09-09T10:12:02+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Immagine di una precedente edizione del mercato</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>http://www.mercatieuropei.com</t>
+          <t>https://www.fmav.org</t>
         </is>
       </c>
       <c r="V40" t="b">
@@ -4744,29 +4748,29 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4776,63 +4780,63 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-25T07:44:29+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -4845,7 +4849,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4867,7 +4871,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4877,112 +4881,94 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Marco Pollini</t>
-        </is>
-      </c>
+          <t>2022-05-21T10:32:36+00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-04T06:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-04T06:44:31+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-24T07:43:55+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>La grande guerra del Salento</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="b">
         <v>0</v>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W42" t="n">
+        <v>41123</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4992,112 +4978,96 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2021-10-09T08:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>FMAV - Palazzina dei Giardini</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>059 2033166</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>https://www.fmav.org</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V43" t="b">
         <v>0</v>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5107,67 +5077,75 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2021-08-06T11:34:26+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-05-25T07:44:29+00:00</t>
+          <t>2022-02-08T10:09:23+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+        </is>
+      </c>
       <c r="V44" t="b">
         <v>0</v>
       </c>
@@ -5176,7 +5154,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5198,7 +5176,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5213,45 +5191,45 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
+          <t>2022-05-06T09:12:13+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5260,7 +5238,7 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -5273,7 +5251,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5295,7 +5273,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5305,96 +5283,102 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Commedia brillante</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr"/>
+          <t>2022-03-19T09:32:45+00:00</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Teatro Cittadella</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="b">
         <v>0</v>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="n">
+        <v>41123</v>
+      </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5404,106 +5388,96 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Polisportiva Madonnina</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V47" t="b">
         <v>0</v>
       </c>
-      <c r="W47" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5513,50 +5487,54 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>2022-03-31T08:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5565,7 +5543,7 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -5578,7 +5556,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5620,7 +5598,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Commedia brillante</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5631,23 +5609,23 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
+          <t>2022-03-19T09:28:51+00:00</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -5657,7 +5635,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -5670,7 +5648,7 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -5683,7 +5661,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5705,7 +5683,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5715,50 +5693,58 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
+          <t>2022-02-28T15:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -5767,44 +5753,42 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="b">
         <v>0</v>
       </c>
-      <c r="W50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>41123</v>
+      </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5814,67 +5798,83 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2021-06-10T16:47:55+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-05-06T10:18:45+00:00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>https://www.anticoinpiazzagrande.com/</t>
+        </is>
+      </c>
       <c r="V51" t="b">
         <v>0</v>
       </c>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5905,7 +5905,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5915,102 +5915,96 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Teatro Cittadella</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:24:06+00:00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V52" t="b">
         <v>0</v>
       </c>
-      <c r="W52" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6020,58 +6014,50 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -6080,35 +6066,37 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V53" t="b">
         <v>0</v>
       </c>
-      <c r="W53" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -6125,62 +6113,54 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
+          <t>2022-04-07T09:06:38+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
+          <t>traborghiecontrade@libero.it</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
+          <t>2022-04-07T09:10:43+00:00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -6188,18 +6168,18 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>340 6059686 oppure 338 2098995</t>
+          <t>333/9103351</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V54" t="b">
@@ -6210,7 +6190,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6263,23 +6243,23 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
+          <t>2022-05-10T08:26:55+00:00</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -6309,7 +6289,7 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6362,23 +6342,23 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-10-15T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-10-16T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
+          <t>2022-05-10T08:27:35+00:00</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -6408,7 +6388,7 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6430,7 +6410,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6440,394 +6420,87 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-11-19T23:00:00+00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-11-20T22:55:00+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:28:15+00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V57" t="b">
         <v>0</v>
       </c>
-      <c r="W57" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
-        <is>
-          <t>POINT (10.92572 44.64582)</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2022-09-17T22:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2022-09-18T21:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:26:55+00:00</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V58" t="b">
-        <v>0</v>
-      </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2022-10-15T22:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2022-10-16T21:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:27:35+00:00</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V59" t="b">
-        <v>0</v>
-      </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2022-11-19T23:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2022-11-20T22:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:28:15+00:00</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V60" t="b">
-        <v>0</v>
-      </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1595,7 +1595,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2022-05-16T15:32:17+00:00</t>
+          <t>2022-05-26T07:15:27+00:00</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1867,7 +1867,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1877,112 +1877,94 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>via Torre, 65</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Federica Biondi</t>
-        </is>
-      </c>
+          <t>2022-05-26T07:31:08+00:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-26T07:31:35+00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-05-26T06:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022-05-26T06:44:31+00:00</t>
+          <t>2022-06-04T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-ballata-dei-gusci-infranti/@@images/347b3d2a-3685-4df2-8c74-673b8e42b1d0.jpeg</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/facing-you-personale-di-ersilia-leonini/@@images/86fe7255-e33a-401b-9ab1-c673614beb11.jpeg</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2022-05-24T07:32:05+00:00</t>
+          <t>2022-05-26T07:31:35+00:00</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Artekyp</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> tutti i giorni 10-12.30 e 16.30-19</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
-          <t>La ballata dei gusci infranti</t>
+          <t>"Facing you" - personale di Ersilia Leonini</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="b">
         <v>0</v>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W14" t="n">
+        <v>41123</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-ballata-dei-gusci-infranti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/facing-you-personale-di-ersilia-leonini</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1992,118 +1974,112 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Viale Jacopo Barozzi, 31</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+          <t>Proiezione del film di Federica Biondi</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>info@planetariodimodena.it</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-26T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-05-26T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-ballata-dei-gusci-infranti/@@images/347b3d2a-3685-4df2-8c74-673b8e42b1d0.jpeg</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
+          <t>Immagine della locandina del film</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-05-24T07:32:05+00:00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>059 224726</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>La ballata dei gusci infranti</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>https://www.planetariodimodena.it</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V15" t="b">
         <v>0</v>
       </c>
-      <c r="W15" t="n">
-        <v>41123</v>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-ballata-dei-gusci-infranti</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2111,61 +2087,89 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Viale Jacopo Barozzi, 31</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:44+00:00</t>
+          <t>2021-05-13T08:16:32+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Esibizioni, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>2021-05-13T08:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>info@planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-05-26T08:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022-05-29T09:00:00+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
+          <t>2022-05-17T08:44:09+00:00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Civico Planetario</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>059 224726</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Motor Valley Fest - Quarta edizione</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>https://www.planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="V16" t="b">
         <v>0</v>
       </c>
@@ -2174,29 +2178,29 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2206,54 +2210,50 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via San Carlo, 7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:04+00:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
-        </is>
-      </c>
+          <t>2022-05-26T07:55:17+00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-26T07:55:24+00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-05-12T09:00:00+00:00</t>
+          <t>2022-05-26T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-06-30T10:00:00+00:00</t>
+          <t>2022-07-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/punti-incrociati-moda-motori-design/@@images/4d58d6b3-9a64-4d3d-bd6d-b8f4bad3ad1f.jpeg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-26T07:55:24+00:00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Piazzetta Pomposa</t>
+          <t>Chiesa di San Carlo</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
+          <t xml:space="preserve"> fino al 29 maggio ore 10-20. Dal 31 maggio al 10 luglio: dal martedì al venerdì ore 16-20  sabato e domenica ore 10-13 e 16-20</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -2262,7 +2262,7 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Serate in Pomposa - 1° edizione</t>
+          <t>Punti incrociati: moda, motori, design</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/punti-incrociati-moda-motori-design</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2297,7 +2297,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2305,114 +2305,92 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>via degli Adelardi, 4</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2022-05-17T09:05:44+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
+          <t>Esibizioni, karting per i bambini, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-17T09:05:52+00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-05-27T06:00:00+00:00</t>
+          <t>2022-05-26T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-05-27T06:44:31+00:00</t>
+          <t>2022-05-29T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-05-24T07:37:25+00:00</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Sala Truffaut</t>
-        </is>
-      </c>
+          <t>2022-05-26T08:03:12+00:00</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Il naso o la cospirazione degli anticonformisti</t>
+          <t>Motor Valley Fest - Quarta edizione</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="b">
         <v>0</v>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W18" t="n">
+        <v>41123</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Musica</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2422,58 +2400,54 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>centro storico</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
+          <t>2022-05-20T10:02:04+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
+          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-05-12T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-06-30T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Piazza Torre</t>
+          <t>Piazzetta Pomposa</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -2482,7 +2456,7 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>Serate in Pomposa - 1° edizione</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2495,7 +2469,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2537,7 +2511,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Proiezione del film di Alejandro Amenábar</t>
+          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2548,17 +2522,17 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-28T06:00:00+00:00</t>
+          <t>2022-05-27T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-05-29T06:44:31+00:00</t>
+          <t>2022-05-27T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2568,7 +2542,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-24T07:35:24+00:00</t>
+          <t>2022-05-24T07:37:25+00:00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2578,7 +2552,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -2591,7 +2565,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Lettera a Franco</t>
+          <t>Il naso o la cospirazione degli anticonformisti</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2610,7 +2584,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2632,7 +2606,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2642,54 +2616,58 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>centro storico</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
+          <t>2022-04-29T10:05:46+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Appuntamenti letterari al femminile</t>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Piazza Torre</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2698,7 +2676,7 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -2711,7 +2689,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2733,7 +2711,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2743,98 +2721,112 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Alejandro Amenábar</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-28T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-29T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-05-17T07:27:36+00:00</t>
+          <t>2022-05-24T07:35:24+00:00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Lettera a Franco</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V22" t="b">
         <v>0</v>
       </c>
-      <c r="W22" t="n">
-        <v>41123</v>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2844,50 +2836,54 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>Corso Canalgrande, 103</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>2022-05-05T08:41:26+00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Appuntamenti letterari al femminile</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Chiostro di Palazzo Santa Margherita</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -2896,7 +2892,7 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2909,7 +2905,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2931,7 +2927,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2941,67 +2937,71 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>via  San Pietro, 7</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-05-26T07:38:49+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Concerto della rassegna Vox Mutinae 2022</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-05-26T07:38:55+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov/@@images/d4a31c90-0423-433c-acbe-2cfbe2df77b8.jpeg</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Giorgi Manoshvili</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-26T07:39:15+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Auditorium Santa Scolastica, presso il Monastero di San Pietro</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 18.00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ingresso gratuito</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Recital lirico dei vincitori del Concorso Internazionale di canto lirico intitolato a Nicolaj Ghiaurov</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3036,7 +3036,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3046,59 +3046,63 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-05-26T07:20:15+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3111,7 +3115,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3133,7 +3137,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3143,71 +3147,59 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>piazza Matteotti, 17</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-05-25T09:39:41+00:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-05-29T08:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Centro per l'infanzia Mo.Mo</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ore 10.00</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>059 235320</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Un viaggio alla scoperta della musica</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3220,29 +3212,29 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>44,648090007085386</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10,925069996586558</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>POINT (10.925069996586558 44.648090007085386)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3252,67 +3244,67 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Diciottesima edizione</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso libero</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3325,7 +3317,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3347,108 +3339,82 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>museo@parcomontale.it</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>http://www.parcomontale.it/it</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="b">
         <v>0</v>
       </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
+      <c r="W28" t="n">
+        <v>41123</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3470,7 +3436,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3480,63 +3446,71 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>piazza Matteotti, 17</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>2022-05-25T09:39:41+00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-05-29T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Centro per l'infanzia Mo.Mo</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> Ore 10.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>059 235320</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Un viaggio alla scoperta della musica</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3549,29 +3523,29 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,648090007085386</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925069996586558</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925069996586558 44.648090007085386)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3581,78 +3555,80 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>2022-05-10T10:04:48+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Diciottesima edizione</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso libero</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.com/</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W30" t="n">
+        <v>41123</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3674,122 +3650,130 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
+          <t>2021-04-26T15:03:43+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
+          <t>2021-04-26T15:06:06+00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>info@emiliaromagnateatro.com</t>
+          <t>museo@parcomontale.it</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>059/2163021</t>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>http://www.emiliaromagnateatro.com</t>
+          <t>http://www.parcomontale.it/it</t>
         </is>
       </c>
       <c r="V31" t="b">
         <v>0</v>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3799,112 +3783,98 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-05-31T06:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-05-31T06:44:31+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-05-24T07:41:04+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Paisan, Ciao</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="b">
         <v>0</v>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W32" t="n">
+        <v>41123</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3914,92 +3884,78 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:05:00+00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gratuito</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>http://www.consorzioilmercato.com/</t>
         </is>
       </c>
       <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="W33" t="n">
-        <v>41123</v>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4021,7 +3977,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4031,98 +3987,112 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>2020-09-17T12:45:54+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>2014-09-30T12:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>info@emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>059/2163021</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>http://www.emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="V34" t="b">
         <v>0</v>
       </c>
-      <c r="W34" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4132,58 +4102,58 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -4191,51 +4161,53 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>059 2033010</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Paisan, Ciao</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="n">
-        <v>41123</v>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4245,63 +4217,83 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gratuito</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V36" t="b">
         <v>0</v>
       </c>
@@ -4310,7 +4302,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4332,7 +4324,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4342,104 +4334,98 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Immagine di una precedente edizione del mercato</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>http://www.mercatieuropei.com</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="b">
         <v>0</v>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W37" t="n">
+        <v>41123</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4449,67 +4435,79 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V38" t="b">
         <v>0</v>
       </c>
@@ -4518,7 +4516,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4540,7 +4538,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4550,112 +4548,94 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Marco Pollini</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:00:46+00:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-04T06:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-04T06:44:31+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-24T07:43:55+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>La grande guerra del Salento</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="b">
         <v>0</v>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W39" t="n">
+        <v>41123</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4665,77 +4645,69 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
+          <t>2021-08-25T12:27:55+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2021-08-25T12:28:08+00:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Immagine di una precedente edizione del mercato</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
-        </is>
-      </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>059 2033166</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>https://www.fmav.org</t>
+          <t>http://www.mercatieuropei.com</t>
         </is>
       </c>
       <c r="V40" t="b">
@@ -4748,29 +4720,29 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4780,63 +4752,63 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2022-05-11T07:50:51+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-05-25T07:44:29+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -4849,7 +4821,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4871,7 +4843,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4881,94 +4853,112 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Marco Pollini</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-04T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-04T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-05-24T07:43:55+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>La grande guerra del Salento</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V42" t="b">
         <v>0</v>
       </c>
-      <c r="W42" t="n">
-        <v>41123</v>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4978,96 +4968,112 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2021-09-09T10:12:02+00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr"/>
+          <t>2022-05-21T09:18:35+00:00</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>FMAV - Palazzina dei Giardini</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.fmav.org</t>
         </is>
       </c>
       <c r="V43" t="b">
         <v>0</v>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5077,75 +5083,67 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
+          <t>2022-05-26T07:16:41+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Polisportiva Madonnina</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="b">
         <v>0</v>
       </c>
@@ -5154,7 +5152,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5176,7 +5174,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5191,45 +5189,45 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
+          <t>2022-05-21T10:32:36+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5238,7 +5236,7 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -5251,7 +5249,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5273,7 +5271,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5283,102 +5281,96 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Commedia brillante</t>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Teatro Cittadella</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V46" t="b">
         <v>0</v>
       </c>
-      <c r="W46" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5388,96 +5380,106 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2021-08-06T11:34:26+00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
+          <t>2022-02-08T10:09:23+00:00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Polisportiva Madonnina</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
         </is>
       </c>
       <c r="V47" t="b">
         <v>0</v>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>41123</v>
+      </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5487,54 +5489,50 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5543,7 +5541,7 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -5556,7 +5554,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5598,7 +5596,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t>Commedia brillante</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5609,23 +5607,23 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
+          <t>2022-03-19T09:32:45+00:00</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -5635,7 +5633,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -5648,7 +5646,7 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -5661,7 +5659,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5683,7 +5681,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5693,58 +5691,50 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -5753,42 +5743,44 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V50" t="b">
         <v>0</v>
       </c>
-      <c r="W50" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5798,83 +5790,67 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2022-03-31T08:55:39+00:00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="b">
         <v>0</v>
       </c>
@@ -5883,7 +5859,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5905,7 +5881,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5915,96 +5891,102 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+          <t>2022-03-19T09:28:51+00:00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Teatro Cittadella</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="b">
         <v>0</v>
       </c>
-      <c r="W52" t="inlineStr"/>
+      <c r="W52" t="n">
+        <v>41123</v>
+      </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6014,50 +5996,58 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
+          <t>2022-02-28T15:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -6066,37 +6056,35 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="b">
         <v>0</v>
       </c>
-      <c r="W53" t="inlineStr"/>
+      <c r="W53" t="n">
+        <v>41123</v>
+      </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -6113,54 +6101,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>2021-06-10T16:47:55+00:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
+          <t>2021-06-10T16:48:45+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>traborghiecontrade@libero.it</t>
+          <t>anticoinpiazzagrande@gmail.com</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
+          <t>2022-05-06T10:18:45+00:00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -6168,18 +6164,18 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>333/9103351</t>
+          <t>340 6059686 oppure 338 2098995</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>https://www.anticoinpiazzagrande.com/</t>
         </is>
       </c>
       <c r="V54" t="b">
@@ -6190,7 +6186,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6243,23 +6239,23 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
+          <t>2022-05-10T08:24:06+00:00</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -6289,7 +6285,7 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6342,23 +6338,23 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-10-15T22:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-10-16T21:55:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-05-10T08:27:35+00:00</t>
+          <t>2022-05-10T08:26:10+00:00</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -6388,7 +6384,7 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6410,7 +6406,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6420,87 +6416,394 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-11-19T23:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-11-20T22:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-05-10T08:28:15+00:00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V57" t="b">
         <v>0</v>
       </c>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>41123</v>
+      </c>
       <c r="X57" t="inlineStr">
         <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>44,64582</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>10,92572</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>POINT (10.92572 44.64582)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2022-09-17T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2022-09-18T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:26:55+00:00</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V58" t="b">
+        <v>0</v>
+      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2022-10-15T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2022-10-16T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:27:35+00:00</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V59" t="b">
+        <v>0</v>
+      </c>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2022-11-19T23:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2022-11-20T22:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:28:15+00:00</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
           <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="Y60" t="inlineStr">
         <is>
           <t>44,65137034620577</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="Z60" t="inlineStr">
         <is>
           <t>10,921029194828652</t>
         </is>
       </c>
-      <c r="AA57" t="inlineStr">
+      <c r="AA60" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2491,7 +2491,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2501,112 +2501,106 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Largo Garibaldi, 15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2022-05-26T10:41:07+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
+          <t>Rassegna degli spettacoli degli studenti degli istituti scolastici superiori di Modena</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-26T10:43:09+00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-27T06:00:00+00:00</t>
+          <t>2022-05-25T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-05-27T06:44:31+00:00</t>
+          <t>2022-05-31T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/teatro-di-classe/@@images/e2c8fdee-bd18-4665-a203-859f06d4c9ae.jpeg</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Immagine della locandina del film</t>
+          <t>Teatro Storchi</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-24T07:37:25+00:00</t>
+          <t>2022-05-26T10:43:09+00:00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Teatro Storchi</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prezzi dei biglietti € 8 </t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Il naso o la cospirazione degli anticonformisti</t>
+          <t>Teatro di classe</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="b">
         <v>0</v>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W20" t="n">
+        <v>41123</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/teatro-di-classe</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2616,102 +2610,112 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>centro storico</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
+          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-05-27T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-05-27T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Immagine della locandina del film</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-24T07:37:25+00:00</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Piazza Torre</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>Il naso o la cospirazione degli anticonformisti</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V21" t="b">
         <v>0</v>
       </c>
-      <c r="W21" t="n">
-        <v>41123</v>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2721,112 +2725,102 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>centro storico</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2022-04-29T10:05:46+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Proiezione del film di Alejandro Amenábar</t>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-28T06:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-05-29T06:44:31+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Immagine della locandina del film</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-05-24T07:35:24+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Piazza Torre</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Lettera a Franco</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="b">
         <v>0</v>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W22" t="n">
+        <v>41123</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2836,98 +2830,112 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Appuntamenti letterari al femminile</t>
+          <t>Proiezione del film di Alejandro Amenábar</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-28T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-05-29T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-24T07:35:24+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Lettera a Franco</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V23" t="b">
         <v>0</v>
       </c>
-      <c r="W23" t="n">
-        <v>41123</v>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2937,28 +2945,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>via  San Pietro, 7</t>
+          <t>Corso Canalgrande, 103</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-05-26T07:38:49+00:00</t>
+          <t>2022-05-05T08:41:26+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Concerto della rassegna Vox Mutinae 2022</t>
+          <t>Appuntamenti letterari al femminile</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-05-26T07:38:55+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2968,40 +2976,32 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov/@@images/d4a31c90-0423-433c-acbe-2cfbe2df77b8.jpeg</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Giorgi Manoshvili</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-05-26T07:39:15+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Auditorium Santa Scolastica, presso il Monastero di San Pietro</t>
+          <t>Chiostro di Palazzo Santa Margherita</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 18.00</t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ingresso gratuito</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Recital lirico dei vincitori del Concorso Internazionale di canto lirico intitolato a Nicolaj Ghiaurov</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3036,7 +3036,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3046,18 +3046,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>via  San Pietro, 7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>2022-05-26T07:38:49+00:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Concerto della rassegna Vox Mutinae 2022</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-26T07:38:55+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -3068,41 +3072,45 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov/@@images/d4a31c90-0423-433c-acbe-2cfbe2df77b8.jpeg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Giorgi Manoshvili</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-05-26T07:20:15+00:00</t>
+          <t>2022-05-26T07:39:15+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Auditorium Santa Scolastica, presso il Monastero di San Pietro</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> ore 18.00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+          <t xml:space="preserve"> ingresso gratuito</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Recital lirico dei vincitori del Concorso Internazionale di canto lirico intitolato a Nicolaj Ghiaurov</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3115,7 +3123,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3137,7 +3145,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3147,59 +3155,63 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-05-26T07:20:15+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3212,7 +3224,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3234,7 +3246,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3244,58 +3256,50 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3304,7 +3308,7 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3317,7 +3321,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3339,7 +3343,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Musica,Concerti</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3349,50 +3353,50 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>via San Pietro, 7</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
+          <t>2022-05-26T10:59:44+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-26T10:59:52+00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-05-28T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-05-28T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/spezieria-tra-fiori-e-musica/@@images/8d9cb68d-b782-44cf-9f54-ba911c69ac27.jpeg</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-05-26T11:12:17+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Spezieria del Monastero di S.Pietro</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> ore 17.00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3401,7 +3405,7 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Spezieria tra fiori e musica</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -3414,7 +3418,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/spezieria-tra-fiori-e-musica</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3436,7 +3440,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3446,71 +3450,67 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>piazza Matteotti, 17</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-05-25T09:39:41+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-05-29T08:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Centro per l'infanzia Mo.Mo</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ore 10.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>059 235320</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Un viaggio alla scoperta della musica</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3523,29 +3523,29 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>44,648090007085386</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10,925069996586558</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>POINT (10.925069996586558 44.648090007085386)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3555,67 +3555,59 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Diciottesima edizione</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso libero</t>
-        </is>
-      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -3628,7 +3620,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3650,130 +3642,116 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>piazza Matteotti, 17</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
+          <t>2022-05-25T09:39:41+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>museo@parcomontale.it</t>
-        </is>
-      </c>
+          <t>2022-05-25T09:43:08+00:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-05-29T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Centro per l'infanzia Mo.Mo</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> Ore 10.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+          <t>059 235320</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Un viaggio alla scoperta della musica</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>http://www.parcomontale.it/it</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="b">
         <v>0</v>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
+      <c r="W31" t="n">
+        <v>41123</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,648090007085386</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925069996586558</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925069996586558 44.648090007085386)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3783,63 +3761,67 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>2022-05-10T10:04:48+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Diciottesima edizione</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> Ingresso libero</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -3852,7 +3834,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3874,75 +3856,95 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.com/</t>
+          <t>http://www.parcomontale.it/it</t>
         </is>
       </c>
       <c r="V33" t="b">
@@ -3950,12 +3952,12 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>41121</t>
+          <t>41050</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -3977,7 +3979,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3987,112 +3989,98 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>info@emiliaromagnateatro.com</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>059/2163021</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>http://www.emiliaromagnateatro.com</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="b">
         <v>0</v>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>41123</v>
+      </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4102,77 +4090,65 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2020-12-29T15:05:00+00:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-05-31T06:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-05-31T06:44:31+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-05-24T07:41:04+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Paisan, Ciao</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>http://www.consorzioilmercato.com/</t>
         </is>
       </c>
       <c r="V35" t="b">
@@ -4185,29 +4161,29 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4217,114 +4193,112 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2020-09-17T12:45:54+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
+          <t>2014-09-30T12:50:00+00:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>info@teatrocomunalemodena.it</t>
+          <t>info@emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gratuito</t>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>059 2033010</t>
+          <t>059/2163021</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>http://www.emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="V36" t="b">
         <v>0</v>
       </c>
-      <c r="W36" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4334,98 +4308,112 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Paisan, Ciao</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V37" t="b">
         <v>0</v>
       </c>
-      <c r="W37" t="n">
-        <v>41123</v>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4445,7 +4433,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4460,23 +4448,23 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4490,7 +4478,11 @@
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gratuito</t>
+        </is>
+      </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -4516,7 +4508,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4538,7 +4530,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4548,59 +4540,63 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -4613,7 +4609,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4635,7 +4631,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4645,104 +4641,110 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Immagine di una precedente edizione del mercato</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>http://www.mercatieuropei.com</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V40" t="b">
         <v>0</v>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W40" t="n">
+        <v>41123</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4752,54 +4754,50 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
+          <t>2022-05-11T07:00:46+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -4808,7 +4806,7 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -4821,7 +4819,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4843,7 +4841,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4853,77 +4851,69 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Marco Pollini</t>
-        </is>
-      </c>
+          <t>2021-08-25T12:27:55+00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2021-08-25T12:28:08+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-04T06:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-04T06:44:31+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Immagine della locandina del film</t>
+          <t>Immagine di una precedente edizione del mercato</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-24T07:43:55+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>La grande guerra del Salento</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>http://www.mercatieuropei.com</t>
         </is>
       </c>
       <c r="V42" t="b">
@@ -4936,29 +4926,29 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4968,90 +4958,76 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
+          <t>2022-05-11T07:50:51+00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:51:19+00:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>059 2033166</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>https://www.fmav.org</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="b">
         <v>0</v>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W43" t="n">
+        <v>41123</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5073,7 +5049,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5083,98 +5059,112 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Marco Pollini</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-04T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-04T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-05-26T07:16:41+00:00</t>
+          <t>2022-05-24T07:43:55+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>La grande guerra del Salento</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V44" t="b">
         <v>0</v>
       </c>
-      <c r="W44" t="n">
-        <v>41123</v>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5184,72 +5174,90 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
+          <t>2021-09-09T10:12:02+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>https://www.fmav.org</t>
+        </is>
+      </c>
       <c r="V45" t="b">
         <v>0</v>
       </c>
-      <c r="W45" t="n">
-        <v>41123</v>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5271,7 +5279,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5281,96 +5289,98 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr"/>
+          <t>2022-05-26T07:16:41+00:00</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Complesso San Paolo</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="b">
         <v>0</v>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="n">
+        <v>41123</v>
+      </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5380,75 +5390,63 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
+          <t>2022-05-21T10:32:36+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
+          <t>2022-06-11T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2022-06-12T12:00:00+00:00</t>
-        </is>
-      </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Polisportiva Madonnina</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="b">
         <v>0</v>
       </c>
@@ -5457,7 +5455,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5479,7 +5477,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5489,50 +5487,50 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Piazza Roma</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5541,42 +5539,44 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V48" t="b">
         <v>0</v>
       </c>
-      <c r="W48" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5586,71 +5586,75 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Commedia brillante</t>
-        </is>
-      </c>
+          <t>2021-08-06T11:34:26+00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
+          <t>2022-02-08T10:09:23+00:00</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+        </is>
+      </c>
       <c r="V49" t="b">
         <v>0</v>
       </c>
@@ -5659,7 +5663,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5681,7 +5685,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5691,50 +5695,50 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
+          <t>2022-05-06T09:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Piazza Roma</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -5743,44 +5747,42 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="b">
         <v>0</v>
       </c>
-      <c r="W50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>41123</v>
+      </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5790,28 +5792,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t>Commedia brillante</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -5821,32 +5823,36 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-03-19T09:32:45+00:00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -5859,7 +5865,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5881,7 +5887,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5891,102 +5897,96 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Teatro Cittadella</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V52" t="b">
         <v>0</v>
       </c>
-      <c r="W52" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5996,58 +5996,54 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -6056,7 +6052,7 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -6069,7 +6065,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6091,7 +6087,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6101,83 +6097,71 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2022-03-19T09:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
+          <t>2022-03-19T09:28:51+00:00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="b">
         <v>0</v>
       </c>
@@ -6186,7 +6170,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6208,7 +6192,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6218,50 +6202,58 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr"/>
+          <t>2022-02-28T15:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -6270,44 +6262,42 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="b">
         <v>0</v>
       </c>
-      <c r="W55" t="inlineStr"/>
+      <c r="W55" t="n">
+        <v>41123</v>
+      </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6317,96 +6307,114 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2021-06-10T16:47:55+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>2022-05-06T10:18:45+00:00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.anticoinpiazzagrande.com/</t>
         </is>
       </c>
       <c r="V56" t="b">
         <v>0</v>
       </c>
-      <c r="W56" t="inlineStr"/>
+      <c r="W56" t="n">
+        <v>41123</v>
+      </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6416,99 +6424,89 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:24:06+00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V57" t="b">
         <v>0</v>
       </c>
-      <c r="W57" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -6546,23 +6544,23 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
+          <t>2022-05-10T08:26:10+00:00</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -6592,7 +6590,7 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -6614,7 +6612,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6624,89 +6622,99 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-10-15T22:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-10-16T21:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2022-05-10T08:27:35+00:00</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V59" t="b">
         <v>0</v>
       </c>
-      <c r="W59" t="inlineStr"/>
+      <c r="W59" t="n">
+        <v>41123</v>
+      </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -6744,23 +6752,23 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2022-11-19T23:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2022-11-20T22:55:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2022-05-10T08:28:15+00:00</t>
+          <t>2022-05-10T08:26:55+00:00</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
@@ -6790,20 +6798,218 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2022-10-15T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2022-10-16T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:27:35+00:00</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V61" t="b">
+        <v>0</v>
+      </c>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2022-11-19T23:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2022-11-20T22:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:28:15+00:00</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V62" t="b">
+        <v>0</v>
+      </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
           <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="Y62" t="inlineStr">
         <is>
           <t>44,65137034620577</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="Z62" t="inlineStr">
         <is>
           <t>10,921029194828652</t>
         </is>
       </c>
-      <c r="AA60" t="inlineStr">
+      <c r="AA62" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5164,7 +5164,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Spettacoli</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5174,90 +5174,80 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>ingresso da Strada S.Faustino, 172</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>2022-05-26T14:09:48+00:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Spettacolo di danza</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2022-05-26T14:09:58+00:00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-04T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-04T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-giro-del-mondo-in-90-minuti/@@images/c6bc9831-404e-402b-9e60-623bc0a2ba80.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-26T14:11:15+00:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Parco Ferrari</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> ore 20.00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+          <t xml:space="preserve"> ingresso libero</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>059 2033166</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Il giro del mondo in 90 minuti</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>https://www.fmav.org</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="b">
         <v>0</v>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W45" t="n">
+        <v>41123</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-giro-del-mondo-in-90-minuti</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5279,7 +5269,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5289,76 +5279,90 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2021-09-09T10:12:02+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-05-26T07:16:41+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>https://www.fmav.org</t>
+        </is>
+      </c>
       <c r="V46" t="b">
         <v>0</v>
       </c>
-      <c r="W46" t="n">
-        <v>41123</v>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5380,7 +5384,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5390,59 +5394,63 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-05-26T07:16:41+00:00</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -5455,7 +5463,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5477,7 +5485,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5487,50 +5495,50 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-21T10:32:36+00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
+          <t>2022-05-21T10:36:00+00:00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Piazza Matteotti</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5539,44 +5547,42 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="b">
         <v>0</v>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="n">
+        <v>41123</v>
+      </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5586,106 +5592,96 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Polisportiva Madonnina</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V49" t="b">
         <v>0</v>
       </c>
-      <c r="W49" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5695,63 +5691,75 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
+          <t>2021-08-06T11:34:26+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-02-08T10:09:23+00:00</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+        </is>
+      </c>
       <c r="V50" t="b">
         <v>0</v>
       </c>
@@ -5760,7 +5768,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5782,7 +5790,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5792,67 +5800,59 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Commedia brillante</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5887,7 +5887,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5897,96 +5897,102 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Commedia brillante</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+          <t>2022-03-19T09:32:45+00:00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Teatro Cittadella</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="b">
         <v>0</v>
       </c>
-      <c r="W52" t="inlineStr"/>
+      <c r="W52" t="n">
+        <v>41123</v>
+      </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5996,54 +6002,50 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -6052,42 +6054,44 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V53" t="b">
         <v>0</v>
       </c>
-      <c r="W53" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6097,67 +6101,63 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6202,67 +6202,67 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
+          <t>2022-03-19T09:28:51+00:00</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6297,7 +6297,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6307,83 +6307,71 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2022-02-25T14:15:33+00:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
+          <t>2022-02-28T15:13:23+00:00</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="b">
         <v>0</v>
       </c>
@@ -6392,7 +6380,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6414,7 +6402,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6424,89 +6412,107 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2021-06-10T16:47:55+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr"/>
+          <t>2022-05-06T10:18:45+00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.anticoinpiazzagrande.com/</t>
         </is>
       </c>
       <c r="V57" t="b">
         <v>0</v>
       </c>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>41123</v>
+      </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -6544,23 +6550,23 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
+          <t>2022-05-10T08:24:06+00:00</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -6590,7 +6596,7 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -6612,7 +6618,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6622,106 +6628,96 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V59" t="b">
         <v>0</v>
       </c>
-      <c r="W59" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6731,89 +6727,99 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V60" t="b">
         <v>0</v>
       </c>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="n">
+        <v>41123</v>
+      </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -6851,23 +6857,23 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2022-10-15T22:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2022-10-16T21:55:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2022-05-10T08:27:35+00:00</t>
+          <t>2022-05-10T08:26:55+00:00</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -6897,7 +6903,7 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -6950,23 +6956,23 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2022-11-19T23:00:00+00:00</t>
+          <t>2022-10-15T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2022-11-20T22:55:00+00:00</t>
+          <t>2022-10-16T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2022-05-10T08:28:15+00:00</t>
+          <t>2022-05-10T08:27:35+00:00</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -6996,20 +7002,119 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2022-11-19T23:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2022-11-20T22:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:28:15+00:00</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V63" t="b">
+        <v>0</v>
+      </c>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
           <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="Y63" t="inlineStr">
         <is>
           <t>44,65137034620577</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="Z63" t="inlineStr">
         <is>
           <t>10,921029194828652</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr">
+      <c r="AA63" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,83 +1035,83 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Altri eventi,Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Largo Porta Sant’Agostino, 337</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-03-09T12:21:19+00:00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>I giardini amici delle api, webinair gratuiti realizzati da Conapi e Centro Agricoltura Ambiente</t>
-        </is>
-      </c>
+          <t>2022-03-19T08:51:24+00:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-03-23T09:21:00+00:00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>2022-03-19T08:58:42+00:00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ga-esten@beniculturali.it</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-04-28T16:30:00+00:00</t>
+          <t>2022-05-06T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2022-05-26T17:30:00+00:00</t>
+          <t>2022-11-06T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/tutela-delle-api-e-di-altri-insetti-utili-nella-gestione-del-verde-ornamentale-incontri-online/@@images/bbf47b6d-7bdb-4991-b1b0-7a578ad1f864.jpeg</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Photo by Aaron Burden on Unsplash</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/tra-acqua-e-vento-un-modello-di-bernini-ospite-in-galleria-estense/@@images/6c7215e9-a330-4fd7-b565-c383e5da0d06.jpeg</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2022-04-20T07:57:50+00:00</t>
+          <t>2022-05-06T08:01:39+00:00</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Sulla pagina Facebook di Conapi</t>
+          <t>Galleria Estense</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 18.30</t>
+          <t xml:space="preserve"> da martedì a sabato 8.30 – 19.30  domenica e festivi 10.00 – 18.00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gratuito</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>059 4395711</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Tutela delle api e di altri insetti utili nella gestione del verde ornamentale - Incontri online</t>
+          <t>Tra acqua e vento. Un modello di Bernini ospite in Galleria Estense</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>https://it-it.facebook.com/conapiconsorzioapicoltori/</t>
+          <t>https://gallerie-estensi.beniculturali.it/</t>
         </is>
       </c>
       <c r="V6" t="b">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/tutela-delle-api-e-di-altri-insetti-utili-nella-gestione-del-verde-ornamentale-incontri-online</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/tra-acqua-e-vento-un-modello-di-bernini-ospite-in-galleria-estense</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1152,77 +1152,69 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Largo Porta Sant’Agostino, 337</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-03-19T08:51:24+00:00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>2022-05-03T07:47:18+00:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Esposizione interattiva</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-03-19T08:58:42+00:00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ga-esten@beniculturali.it</t>
-        </is>
-      </c>
+          <t>2022-05-03T07:47:41+00:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2022-05-06T07:00:00+00:00</t>
+          <t>2022-05-13T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2022-11-06T09:00:00+00:00</t>
+          <t>2022-09-20T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/tra-acqua-e-vento-un-modello-di-bernini-ospite-in-galleria-estense/@@images/6c7215e9-a330-4fd7-b565-c383e5da0d06.jpeg</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/illusion-niente-e-come-sembra/@@images/a90fcc28-9ba2-432e-b6a7-7e1aa65d6d93.jpeg</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Installazione "DELICATE BOUNDARIES di Chris Sugrue (US)</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2022-05-06T08:01:39+00:00</t>
+          <t>2022-05-13T14:22:43+00:00</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Galleria Estense</t>
+          <t>Nuovo Diurno (piazza Mazzini) e Laboratorio Aperto (viale Buon Pastore, 43)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> da martedì a sabato 8.30 – 19.30  domenica e festivi 10.00 – 18.00</t>
+          <t xml:space="preserve"> Inaugurazione venerdì 13 maggio e apertura al pubblico dalle ore 16 presso il Nuovo Diurno  Ex-Diurno, Piazza Mazzini: dal martedì alla domenica dalle 9 alle 20 Laboratorio aperto, viale Buon Pastore 43: dal lunedì al  venerdì, dalle 10 alle 13 e dalle 14 alle 18 </t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>059 4395711</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Tra acqua e vento. Un modello di Bernini ospite in Galleria Estense</t>
+          <t>Illusion: niente è come sembra</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>https://gallerie-estensi.beniculturali.it/</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="b">
         <v>0</v>
       </c>
@@ -1231,7 +1223,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/tra-acqua-e-vento-un-modello-di-bernini-ospite-in-galleria-estense</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/illusion-niente-e-come-sembra</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1261,56 +1253,56 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>corso Canalgrande, 103</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-05-03T07:47:18+00:00</t>
+          <t>2022-05-09T09:20:03+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Esposizione interattiva</t>
+          <t>Mostra delle tavole originali di Rocco Lombardi</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022-05-03T07:47:41+00:00</t>
+          <t>2022-05-09T09:20:10+00:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-05-13T07:00:00+00:00</t>
+          <t>2022-05-13T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2022-09-20T08:00:00+00:00</t>
+          <t>2022-06-25T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/illusion-niente-e-come-sembra/@@images/a90fcc28-9ba2-432e-b6a7-7e1aa65d6d93.jpeg</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Installazione "DELICATE BOUNDARIES di Chris Sugrue (US)</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/cera-una-taiga-cera-un-incendio/@@images/ee309d65-a044-4f9f-9654-b7cd4cf48471.jpeg</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2022-05-13T14:22:43+00:00</t>
+          <t>2022-05-09T09:21:01+00:00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Nuovo Diurno (piazza Mazzini) e Laboratorio Aperto (viale Buon Pastore, 43)</t>
+          <t>Biblioteca Delfini</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inaugurazione venerdì 13 maggio e apertura al pubblico dalle ore 16 presso il Nuovo Diurno  Ex-Diurno, Piazza Mazzini: dal martedì alla domenica dalle 9 alle 20 Laboratorio aperto, viale Buon Pastore 43: dal lunedì al  venerdì, dalle 10 alle 13 e dalle 14 alle 18 </t>
+          <t xml:space="preserve"> Venerdì 13 maggio, inaugurazione ore 18. Dal 14 maggio: lunedì 14:30-20:00, da martedì a sabato 9:30-20:00 </t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1319,7 +1311,7 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Illusion: niente è come sembra</t>
+          <t>C'era una taiga. C'era un incendio</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -1332,7 +1324,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/illusion-niente-e-come-sembra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/cera-una-taiga-cera-un-incendio</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1364,54 +1356,50 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>corso Canalgrande, 103</t>
+          <t>piazza Grande, 17</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-05-09T09:20:03+00:00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Mostra delle tavole originali di Rocco Lombardi</t>
-        </is>
-      </c>
+          <t>2022-05-14T08:53:22+00:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-05-09T09:20:10+00:00</t>
+          <t>2022-05-14T08:53:32+00:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-05-13T09:00:00+00:00</t>
+          <t>2022-05-14T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2022-06-25T10:00:00+00:00</t>
+          <t>2022-06-03T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/cera-una-taiga-cera-un-incendio/@@images/ee309d65-a044-4f9f-9654-b7cd4cf48471.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/lue-zona-di-liberta-lgbtiq/@@images/3cc471ca-e6d6-43a6-b1cd-10e277757659.jpeg</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2022-05-09T09:21:01+00:00</t>
+          <t>2022-05-14T08:54:11+00:00</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Biblioteca Delfini</t>
+          <t>Galleria Europa</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 13 maggio, inaugurazione ore 18. Dal 14 maggio: lunedì 14:30-20:00, da martedì a sabato 9:30-20:00 </t>
+          <t xml:space="preserve"> lunedì e giovedì 9.00-13.00 e 14.00-18.00 martedì, mercoledì, venerdì e sabato 9.00–13.00  </t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1420,7 +1408,7 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>C'era una taiga. C'era un incendio</t>
+          <t>L'UE zona di libertà LGBTIQ</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1433,7 +1421,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/cera-una-taiga-cera-un-incendio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/lue-zona-di-liberta-lgbtiq</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1465,50 +1453,50 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>piazza Grande, 17</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-05-14T08:53:22+00:00</t>
+          <t>2022-05-13T10:35:21+00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2022-05-14T08:53:32+00:00</t>
+          <t>2022-05-13T10:35:30+00:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-05-14T08:00:00+00:00</t>
+          <t>2022-05-14T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2022-06-03T09:00:00+00:00</t>
+          <t>2022-06-19T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/lue-zona-di-liberta-lgbtiq/@@images/3cc471ca-e6d6-43a6-b1cd-10e277757659.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dalle-cose-altri-miraggi-i-collage-di-gianni-valbonesi/@@images/2017dd44-6be2-4497-a46b-9005dcca2629.jpeg</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2022-05-14T08:54:11+00:00</t>
+          <t>2022-05-26T07:15:27+00:00</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Galleria Europa</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> lunedì e giovedì 9.00-13.00 e 14.00-18.00 martedì, mercoledì, venerdì e sabato 9.00–13.00  </t>
+          <t xml:space="preserve"> Il venerdì 16-20  il sabato e la domenica 10-13 e 16-20. Sabato 14 maggio, in occasione della Notte Europea dei Musei, e sabato 18 giugno, per la Festa della musica, l’apertura sarà prolungata fino alle 22.30</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1517,7 +1505,7 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
-          <t>L'UE zona di libertà LGBTIQ</t>
+          <t>Dalle cose altri miraggi - I collage di Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1530,7 +1518,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/lue-zona-di-liberta-lgbtiq</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dalle-cose-altri-miraggi-i-collage-di-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1562,63 +1550,83 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>via L.A. Vincenzi, 2 angolo viale A.Tassoni, 6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-05-13T10:35:21+00:00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>2022-05-19T08:37:40+00:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personale di Michele Ferri</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2022-05-13T10:35:30+00:00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>2022-05-19T08:38:52+00:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>info@accademia-adac.it</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-05-14T10:00:00+00:00</t>
+          <t>2022-05-20T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2022-06-19T11:00:00+00:00</t>
+          <t>2022-06-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dalle-cose-altri-miraggi-i-collage-di-gianni-valbonesi/@@images/2017dd44-6be2-4497-a46b-9005dcca2629.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/cacciacuore/@@images/c3becf44-09a6-448b-9405-846c99156b8c.jpeg</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2022-05-26T07:15:27+00:00</t>
+          <t>2022-05-19T08:38:52+00:00</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Adac - Accademia delle arti creative</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il venerdì 16-20  il sabato e la domenica 10-13 e 16-20. Sabato 14 maggio, in occasione della Notte Europea dei Musei, e sabato 18 giugno, per la Festa della musica, l’apertura sarà prolungata fino alle 22.30</t>
+          <t xml:space="preserve"> inaugurazione venerdì 20 maggio ore 19. Orari mostra: dal lunedì al venerdì ore 10-19  sabato ore 10-18.30 </t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ingresso libero</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>328 5366455</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Dalle cose altri miraggi - I collage di Gianni Valbonesi</t>
+          <t>Cacciacuore</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>https://accademia-adac.it</t>
+        </is>
+      </c>
       <c r="V11" t="b">
         <v>0</v>
       </c>
@@ -1627,7 +1635,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dalle-cose-altri-miraggi-i-collage-di-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/cacciacuore</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1649,7 +1657,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1659,81 +1667,65 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>via L.A. Vincenzi, 2 angolo viale A.Tassoni, 6</t>
+          <t>via Pio la Torre, 61</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-05-19T08:37:40+00:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Personale di Michele Ferri</t>
-        </is>
-      </c>
+          <t>2022-03-09T08:45:48+00:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-05-19T08:38:52+00:00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>info@accademia-adac.it</t>
-        </is>
-      </c>
+          <t>2022-03-09T08:46:01+00:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-05-20T08:00:00+00:00</t>
+          <t>2022-05-01T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2022-06-18T09:00:00+00:00</t>
+          <t>2022-05-29T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/cacciacuore/@@images/c3becf44-09a6-448b-9405-846c99156b8c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_le-bancarelle-mercatino-delle-pulci/@@images/a63ccccb-06ba-46bd-91d1-d91429409bf3.jpeg</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2022-05-19T08:38:52+00:00</t>
+          <t>2022-03-09T10:40:46+00:00</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Adac - Accademia delle arti creative</t>
+          <t>Polivalente 87 &amp; Gino Pini</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> inaugurazione venerdì 20 maggio ore 19. Orari mostra: dal lunedì al venerdì ore 10-19  sabato ore 10-18.30 </t>
+          <t xml:space="preserve"> Domenica dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ingresso libero</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>328 5366455</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Cacciacuore</t>
+          <t>Le bancarelle - Mercatino delle pulci</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>https://accademia-adac.it</t>
+          <t>https://www.facebook.com/littlemarketitalia/</t>
         </is>
       </c>
       <c r="V12" t="b">
@@ -1744,7 +1736,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/cacciacuore</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_le-bancarelle-mercatino-delle-pulci</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1766,7 +1758,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1776,50 +1768,50 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>via Pio la Torre, 61</t>
+          <t>via Torre, 65</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-03-09T08:45:48+00:00</t>
+          <t>2022-05-26T07:31:08+00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-03-09T08:46:01+00:00</t>
+          <t>2022-05-26T07:31:35+00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-05-01T07:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2022-05-29T08:00:00+00:00</t>
+          <t>2022-06-04T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_le-bancarelle-mercatino-delle-pulci/@@images/a63ccccb-06ba-46bd-91d1-d91429409bf3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/facing-you-personale-di-ersilia-leonini/@@images/86fe7255-e33a-401b-9ab1-c673614beb11.jpeg</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2022-03-09T10:40:46+00:00</t>
+          <t>2022-05-26T07:31:35+00:00</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Polivalente 87 &amp; Gino Pini</t>
+          <t>Artekyp</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domenica dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> tutti i giorni 10-12.30 e 16.30-19</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1828,15 +1820,11 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Le bancarelle - Mercatino delle pulci</t>
+          <t>"Facing you" - personale di Ersilia Leonini</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/littlemarketitalia/</t>
-        </is>
-      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="b">
         <v>0</v>
       </c>
@@ -1845,7 +1833,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_le-bancarelle-mercatino-delle-pulci</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/facing-you-personale-di-ersilia-leonini</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1877,50 +1865,50 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>via Torre, 65</t>
+          <t>via San Carlo, 7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-05-26T07:31:08+00:00</t>
+          <t>2022-05-26T07:55:17+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-05-26T07:31:35+00:00</t>
+          <t>2022-05-26T07:55:24+00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-26T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022-06-04T08:00:00+00:00</t>
+          <t>2022-07-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/facing-you-personale-di-ersilia-leonini/@@images/86fe7255-e33a-401b-9ab1-c673614beb11.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/punti-incrociati-moda-motori-design/@@images/4d58d6b3-9a64-4d3d-bd6d-b8f4bad3ad1f.jpeg</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2022-05-26T07:31:35+00:00</t>
+          <t>2022-05-26T07:55:24+00:00</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Artekyp</t>
+          <t>Chiesa di San Carlo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i giorni 10-12.30 e 16.30-19</t>
+          <t xml:space="preserve"> fino al 29 maggio ore 10-20. Dal 31 maggio al 10 luglio: dal martedì al venerdì ore 16-20  sabato e domenica ore 10-13 e 16-20</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1929,7 +1917,7 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
-          <t>"Facing you" - personale di Ersilia Leonini</t>
+          <t>Punti incrociati: moda, motori, design</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1942,7 +1930,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/facing-you-personale-di-ersilia-leonini</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/punti-incrociati-moda-motori-design</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1964,7 +1952,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1972,114 +1960,92 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>via degli Adelardi, 4</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2022-05-17T09:05:44+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Proiezione del film di Federica Biondi</t>
+          <t>Esibizioni, karting per i bambini, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-17T09:05:52+00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-05-26T06:00:00+00:00</t>
+          <t>2022-05-26T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022-05-26T06:44:31+00:00</t>
+          <t>2022-05-29T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-ballata-dei-gusci-infranti/@@images/347b3d2a-3685-4df2-8c74-673b8e42b1d0.jpeg</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2022-05-24T07:32:05+00:00</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Sala Truffaut</t>
-        </is>
-      </c>
+          <t>2022-05-26T08:03:12+00:00</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
-          <t>La ballata dei gusci infranti</t>
+          <t>Motor Valley Fest - Quarta edizione</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="b">
         <v>0</v>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W15" t="n">
+        <v>41123</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-ballata-dei-gusci-infranti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2089,118 +2055,112 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Viale Jacopo Barozzi, 31</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>info@planetariodimodena.it</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-27T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-05-27T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
+          <t>Immagine della locandina del film</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-05-24T07:37:25+00:00</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>059 224726</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>Il naso o la cospirazione degli anticonformisti</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>https://www.planetariodimodena.it</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V16" t="b">
         <v>0</v>
       </c>
-      <c r="W16" t="n">
-        <v>41123</v>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2210,50 +2170,58 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>via San Carlo, 7</t>
+          <t>centro storico</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-05-26T07:55:17+00:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>2022-04-29T10:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-05-26T07:55:24+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-05-26T07:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-07-10T08:00:00+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/punti-incrociati-moda-motori-design/@@images/4d58d6b3-9a64-4d3d-bd6d-b8f4bad3ad1f.jpeg</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2022-05-26T07:55:24+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Chiesa di San Carlo</t>
+          <t>Piazza Torre</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fino al 29 maggio ore 10-20. Dal 31 maggio al 10 luglio: dal martedì al venerdì ore 16-20  sabato e domenica ore 10-13 e 16-20</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -2262,7 +2230,7 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Punti incrociati: moda, motori, design</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2275,7 +2243,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/punti-incrociati-moda-motori-design</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2297,7 +2265,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato,Manifestazioni sportive,Iniziative per bambini</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2305,57 +2273,73 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Largo Garibaldi, 15</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:44+00:00</t>
+          <t>2022-05-26T10:41:07+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Esibizioni, karting per i bambini, incontri tematici, esposizioni di auto sono in programma dal 26 al 29 maggio</t>
+          <t>Rassegna degli spettacoli degli studenti degli istituti scolastici superiori di Modena</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-05-17T09:05:52+00:00</t>
+          <t>2022-05-26T10:43:09+00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-05-26T08:00:00+00:00</t>
+          <t>2022-05-25T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-05-29T09:00:00+00:00</t>
+          <t>2022-05-31T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/motor-valley-fest-quarta-edizione/@@images/b4ee995e-3238-4045-932b-c7b1819db8ce.jpeg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/teatro-di-classe/@@images/e2c8fdee-bd18-4665-a203-859f06d4c9ae.jpeg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Teatro Storchi</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-05-26T08:03:12+00:00</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
+          <t>2022-05-26T10:43:09+00:00</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Teatro Storchi</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vedi orari nel programma: motorvalley.it/motorvalleyfest</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prezzi dei biglietti € 8 </t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Motor Valley Fest - Quarta edizione</t>
+          <t>Teatro di classe</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2368,7 +2352,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/motor-valley-fest-quarta-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/teatro-di-classe</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2390,7 +2374,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2400,98 +2384,112 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:04+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
+          <t>Proiezione del film di Alejandro Amenábar</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-12T09:00:00+00:00</t>
+          <t>2022-05-28T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-06-30T10:00:00+00:00</t>
+          <t>2022-05-29T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-24T07:35:24+00:00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Piazzetta Pomposa</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
+          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Serate in Pomposa - 1° edizione</t>
+          <t>Lettera a Franco</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V19" t="b">
         <v>0</v>
       </c>
-      <c r="W19" t="n">
-        <v>41123</v>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2501,71 +2499,63 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Largo Garibaldi, 15</t>
+          <t>Corso Canalgrande, 103</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-05-26T10:41:07+00:00</t>
+          <t>2022-05-05T08:41:26+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rassegna degli spettacoli degli studenti degli istituti scolastici superiori di Modena</t>
+          <t>Appuntamenti letterari al femminile</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-05-26T10:43:09+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-25T10:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-05-31T11:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/teatro-di-classe/@@images/e2c8fdee-bd18-4665-a203-859f06d4c9ae.jpeg</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Teatro Storchi</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-26T10:43:09+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Teatro Storchi</t>
+          <t>Chiostro di Palazzo Santa Margherita</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Prezzi dei biglietti € 8 </t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Teatro di classe</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2578,7 +2568,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/teatro-di-classe</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2600,7 +2590,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2610,112 +2600,118 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Viale Jacopo Barozzi, 31</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2021-05-13T08:16:32+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>2021-05-13T08:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>info@planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-27T06:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-05-27T06:44:31+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Immagine della locandina del film</t>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-05-24T07:37:25+00:00</t>
+          <t>2022-05-17T08:44:09+00:00</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Civico Planetario</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>059 236288</t>
+          <t>059 224726</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Il naso o la cospirazione degli anticonformisti</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>https://www.planetariodimodena.it</t>
         </is>
       </c>
       <c r="V21" t="b">
         <v>0</v>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W21" t="n">
+        <v>41123</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2725,67 +2721,71 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>centro storico</t>
+          <t>via  San Pietro, 7</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
+          <t>2022-05-26T07:38:49+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
+          <t>Concerto della rassegna Vox Mutinae 2022</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-26T07:38:55+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov/@@images/d4a31c90-0423-433c-acbe-2cfbe2df77b8.jpeg</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Giorgi Manoshvili</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-26T07:39:15+00:00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Piazza Torre</t>
+          <t>Auditorium Santa Scolastica, presso il Monastero di San Pietro</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> ore 18.00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ingresso gratuito</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>Recital lirico dei vincitori del Concorso Internazionale di canto lirico intitolato a Nicolaj Ghiaurov</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2820,7 +2820,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2830,112 +2830,98 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Alejandro Amenábar</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-28T06:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-05-29T06:44:31+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-24T07:35:24+00:00</t>
+          <t>2022-05-26T07:20:15+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Lettera a Franco</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="b">
         <v>0</v>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W23" t="n">
+        <v>41123</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2945,54 +2931,50 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Appuntamenti letterari al femminile</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -3001,7 +2983,7 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -3014,7 +2996,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3036,7 +3018,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Altri eventi,Musica,Concerti</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3046,71 +3028,59 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>via  San Pietro, 7</t>
+          <t>via San Pietro, 7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-05-26T07:38:49+00:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Concerto della rassegna Vox Mutinae 2022</t>
-        </is>
-      </c>
+          <t>2022-05-26T10:59:44+00:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-05-26T07:38:55+00:00</t>
+          <t>2022-05-26T10:59:52+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-28T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-05-28T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov/@@images/d4a31c90-0423-433c-acbe-2cfbe2df77b8.jpeg</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Giorgi Manoshvili</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/spezieria-tra-fiori-e-musica/@@images/8d9cb68d-b782-44cf-9f54-ba911c69ac27.jpeg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-05-26T07:39:15+00:00</t>
+          <t>2022-05-26T11:12:17+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Auditorium Santa Scolastica, presso il Monastero di San Pietro</t>
+          <t>Spezieria del Monastero di S.Pietro</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 18.00</t>
+          <t xml:space="preserve"> ore 17.00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ingresso gratuito</t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Recital lirico dei vincitori del Concorso Internazionale di canto lirico intitolato a Nicolaj Ghiaurov</t>
+          <t>Spezieria tra fiori e musica</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3123,7 +3093,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/spezieria-tra-fiori-e-musica</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3145,7 +3115,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3155,63 +3125,67 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>2022-02-25T14:15:15+00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-05-26T07:20:15+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3224,7 +3198,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3246,7 +3220,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3256,50 +3230,50 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3308,7 +3282,7 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3321,7 +3295,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3343,7 +3317,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica,Concerti</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3353,59 +3327,71 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>via San Pietro, 7</t>
+          <t>piazza Matteotti, 17</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-05-26T10:59:44+00:00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>2022-05-25T09:39:41+00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-05-26T10:59:52+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-05-28T10:00:00+00:00</t>
+          <t>2022-05-29T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-05-28T11:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/spezieria-tra-fiori-e-musica/@@images/8d9cb68d-b782-44cf-9f54-ba911c69ac27.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-05-26T11:12:17+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Spezieria del Monastero di S.Pietro</t>
+          <t>Centro per l'infanzia Mo.Mo</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 17.00</t>
+          <t xml:space="preserve"> Ore 10.00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>059 235320</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Spezieria tra fiori e musica</t>
+          <t>Un viaggio alla scoperta della musica</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -3418,29 +3404,29 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/spezieria-tra-fiori-e-musica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,648090007085386</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925069996586558</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925069996586558 44.648090007085386)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3450,67 +3436,67 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-05-10T10:04:48+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Diciottesima edizione</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso libero</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3523,7 +3509,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3545,82 +3531,108 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>http://www.parcomontale.it/it</t>
+        </is>
+      </c>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="n">
-        <v>41123</v>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3642,7 +3654,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3652,71 +3664,63 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>piazza Matteotti, 17</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-05-25T09:39:41+00:00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-05-29T08:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Centro per l'infanzia Mo.Mo</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ore 10.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>059 235320</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Un viaggio alla scoperta della musica</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -3729,29 +3733,29 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>44,648090007085386</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10,925069996586558</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>POINT (10.925069996586558 44.648090007085386)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3761,80 +3765,78 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Diciottesima edizione</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2020-12-29T15:05:00+00:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso libero</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.com/</t>
+        </is>
+      </c>
       <c r="V32" t="b">
         <v>0</v>
       </c>
-      <c r="W32" t="n">
-        <v>41123</v>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3856,130 +3858,122 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
+          <t>2020-09-17T12:45:54+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
+          <t>2014-09-30T12:50:00+00:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>museo@parcomontale.it</t>
+          <t>info@emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+          <t>059/2163021</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>http://www.parcomontale.it/it</t>
+          <t>http://www.emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3989,98 +3983,112 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Paisan, Ciao</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V34" t="b">
         <v>0</v>
       </c>
-      <c r="W34" t="n">
-        <v>41123</v>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4090,78 +4098,92 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gratuito</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.com/</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W35" t="n">
+        <v>41123</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4183,7 +4205,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Altri eventi,Musica</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4193,112 +4215,98 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
+          <t>2022-05-20T10:02:04+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>info@emiliaromagnateatro.com</t>
-        </is>
-      </c>
+          <t>2022-05-20T10:02:34+00:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-05-12T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-30T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Piazzetta Pomposa</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>059/2163021</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Serate in Pomposa - 1° edizione</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>http://www.emiliaromagnateatro.com</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="b">
         <v>0</v>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>41123</v>
+      </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4308,112 +4316,98 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-05-31T06:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-05-31T06:44:31+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-24T07:41:04+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Paisan, Ciao</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="b">
         <v>0</v>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W37" t="n">
+        <v>41123</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4433,7 +4427,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4448,23 +4442,23 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4478,11 +4472,7 @@
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gratuito</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
@@ -4491,7 +4481,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -4508,7 +4498,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4530,7 +4520,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4540,63 +4530,59 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
+          <t>2022-05-11T07:00:46+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -4609,7 +4595,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4631,7 +4617,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4641,110 +4627,104 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
-        </is>
-      </c>
+          <t>2021-08-25T12:27:55+00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2021-08-25T12:28:08+00:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Immagine di una precedente edizione del mercato</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>http://www.mercatieuropei.com</t>
         </is>
       </c>
       <c r="V40" t="b">
         <v>0</v>
       </c>
-      <c r="W40" t="n">
-        <v>41123</v>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4754,50 +4734,54 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
+          <t>2022-05-11T07:50:51+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -4806,7 +4790,7 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -4819,7 +4803,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4841,7 +4825,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4851,69 +4835,77 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Marco Pollini</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-04T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-04T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Immagine di una precedente edizione del mercato</t>
+          <t>Immagine della locandina del film</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-24T07:43:55+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>La grande guerra del Salento</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>http://www.mercatieuropei.com</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V42" t="b">
@@ -4926,29 +4918,29 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Altri eventi,Spettacoli</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4958,63 +4950,67 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>ingresso da Strada S.Faustino, 172</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>2022-05-26T14:09:48+00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Spettacolo di danza</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-26T14:09:58+00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-04T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-06-04T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-giro-del-mondo-in-90-minuti/@@images/c6bc9831-404e-402b-9e60-623bc0a2ba80.jpeg</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-26T14:11:15+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Parco Ferrari</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> ore 20.00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ingresso libero</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Il giro del mondo in 90 minuti</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -5027,7 +5023,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-giro-del-mondo-in-90-minuti</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5049,7 +5045,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5059,77 +5055,77 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Marco Pollini</t>
-        </is>
-      </c>
+          <t>2021-09-09T10:12:02+00:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-04T06:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-06-04T06:44:31+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-05-24T07:43:55+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>059 236288</t>
+          <t>059 2033166</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>La grande guerra del Salento</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>https://www.fmav.org</t>
         </is>
       </c>
       <c r="V44" t="b">
@@ -5142,29 +5138,29 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Altri eventi,Spettacoli</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5174,67 +5170,63 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ingresso da Strada S.Faustino, 172</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-05-26T14:09:48+00:00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Spettacolo di danza</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-05-26T14:09:58+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-04T14:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-04T15:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-giro-del-mondo-in-90-minuti/@@images/c6bc9831-404e-402b-9e60-623bc0a2ba80.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-26T14:11:15+00:00</t>
+          <t>2022-05-26T07:16:41+00:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Parco Ferrari</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 20.00</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ingresso libero</t>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Il giro del mondo in 90 minuti</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -5247,7 +5239,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-giro-del-mondo-in-90-minuti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5269,7 +5261,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5279,90 +5271,72 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
+          <t>2022-05-21T10:32:36+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2022-05-21T10:32:42+00:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
-        </is>
-      </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>059 2033166</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>https://www.fmav.org</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="b">
         <v>0</v>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W46" t="n">
+        <v>41123</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5384,7 +5358,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5394,98 +5368,96 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-05-26T07:16:41+00:00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Complesso San Paolo</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V47" t="b">
         <v>0</v>
       </c>
-      <c r="W47" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5495,63 +5467,75 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
+          <t>2021-08-06T11:34:26+00:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-02-08T10:09:23+00:00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+        </is>
+      </c>
       <c r="V48" t="b">
         <v>0</v>
       </c>
@@ -5560,7 +5544,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5582,7 +5566,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5592,50 +5576,50 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+          <t>2022-05-06T09:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Piazza Roma</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -5644,44 +5628,42 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="b">
         <v>0</v>
       </c>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>41123</v>
+      </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5691,75 +5673,71 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>2022-03-19T09:15:00+00:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Commedia brillante</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
+          <t>2022-03-19T09:32:45+00:00</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Polisportiva Madonnina</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="b">
         <v>0</v>
       </c>
@@ -5768,7 +5746,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5790,7 +5768,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5800,50 +5778,50 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Piazza Roma</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -5852,42 +5830,44 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V51" t="b">
         <v>0</v>
       </c>
-      <c r="W51" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5897,28 +5877,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Commedia brillante</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5928,36 +5908,32 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -5970,7 +5946,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -5992,7 +5968,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6002,96 +5978,102 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
+          <t>2022-03-19T09:28:51+00:00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Teatro Cittadella</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="b">
         <v>0</v>
       </c>
-      <c r="W53" t="inlineStr"/>
+      <c r="W53" t="n">
+        <v>41123</v>
+      </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6101,54 +6083,58 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-02-28T15:13:23+00:00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -6157,7 +6143,7 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -6170,7 +6156,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6192,7 +6178,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6202,71 +6188,83 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2021-06-10T16:47:55+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
+          <t>2022-05-06T10:18:45+00:00</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>https://www.anticoinpiazzagrande.com/</t>
+        </is>
+      </c>
       <c r="V55" t="b">
         <v>0</v>
       </c>
@@ -6275,7 +6273,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6297,7 +6295,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6307,58 +6305,50 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:24:06+00:00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -6367,42 +6357,44 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V56" t="b">
         <v>0</v>
       </c>
-      <c r="W56" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6412,114 +6404,96 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V57" t="b">
         <v>0</v>
       </c>
-      <c r="W57" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6529,89 +6503,99 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V58" t="b">
         <v>0</v>
       </c>
-      <c r="W58" t="inlineStr"/>
+      <c r="W58" t="n">
+        <v>41123</v>
+      </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -6649,23 +6633,23 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
+          <t>2022-05-10T08:26:55+00:00</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -6695,7 +6679,7 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -6717,7 +6701,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6727,99 +6711,89 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-10-15T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-10-16T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:27:35+00:00</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V60" t="b">
         <v>0</v>
       </c>
-      <c r="W60" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -6857,23 +6831,23 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-11-19T23:00:00+00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-11-20T22:55:00+00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
+          <t>2022-05-10T08:28:15+00:00</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -6903,7 +6877,7 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -6917,204 +6891,6 @@
         </is>
       </c>
       <c r="AA61" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2022-10-15T22:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2022-10-16T21:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:27:35+00:00</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V62" t="b">
-        <v>0</v>
-      </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2022-11-19T23:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2022-11-20T22:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:28:15+00:00</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V63" t="b">
-        <v>0</v>
-      </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -4950,7 +4950,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ingresso da Strada S.Faustino, 172</t>
+          <t>ingresso da Strada S.Faustino, 182</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4987,7 +4987,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-26T14:11:15+00:00</t>
+          <t>2022-05-27T06:18:12+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1898,7 +1898,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2022-05-26T07:55:24+00:00</t>
+          <t>2022-05-27T14:17:16+00:00</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3230,50 +3230,54 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Via F. Selmi, 67</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>2022-05-27T13:32:13+00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Esposizione a tema a cura degli studenti della classe 3G dell'IIS A.Venturi di Modena</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-27T13:32:23+00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-06-05T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere/@@images/8d3225be-145b-4570-8501-7c691ae317e4.jpeg</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-05-27T14:11:04+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Complesso San Paolo, Cortile del Leccio</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> sabato e feriali ore 9.00-19.00  domenica e festivi ore 9.00-13.00 </t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3282,7 +3286,7 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>“Le Ferite” per i 50 anni di Medici Senza Frontiere</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3295,7 +3299,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3317,7 +3321,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3327,71 +3331,63 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>piazza Matteotti, 17</t>
+          <t>Via F. Selmi, 67</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-05-25T09:39:41+00:00</t>
+          <t>2022-05-27T13:32:13+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
+          <t>Presentazione del libro ed esposizione a tema a cura degli studenti della classe 3G dell'IIS A.Venturi di Modena</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-05-27T13:32:23+00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-05-29T08:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere/@@images/c8a46615-786c-4007-9ec5-18ab3716c26a.jpeg</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-05-27T14:10:34+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Centro per l'infanzia Mo.Mo</t>
+          <t>Complesso San Paolo, Cortile del Leccio</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ore 10.00</t>
+          <t xml:space="preserve"> ore 16.30</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>059 235320</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Un viaggio alla scoperta della musica</t>
+          <t>“Le Ferite” per i 50 anni di Medici Senza Frontiere</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -3404,29 +3400,29 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>44,648090007085386</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10,925069996586558</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>POINT (10.925069996586558 44.648090007085386)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3436,67 +3432,59 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Diciottesima edizione</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso libero</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3509,7 +3497,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3531,130 +3519,116 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>piazza Matteotti, 17</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
+          <t>2022-05-25T09:39:41+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>museo@parcomontale.it</t>
-        </is>
-      </c>
+          <t>2022-05-25T09:43:08+00:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-05-29T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Parco archeologico della Terramara di Montale</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Centro per l'infanzia Mo.Mo</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> Ore 10.00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+          <t>059 235320</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Un viaggio alla scoperta della musica</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>http://www.parcomontale.it/it</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
+      <c r="W30" t="n">
+        <v>41123</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,648090007085386</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925069996586558</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925069996586558 44.648090007085386)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3664,63 +3638,67 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>2022-05-10T10:04:48+00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Diciottesima edizione</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> Ingresso libero</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -3733,7 +3711,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3755,75 +3733,95 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.com/</t>
+          <t>http://www.parcomontale.it/it</t>
         </is>
       </c>
       <c r="V32" t="b">
@@ -3831,12 +3829,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>41121</t>
+          <t>41050</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3858,7 +3856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3868,112 +3866,98 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>info@emiliaromagnateatro.com</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>059/2163021</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>http://www.emiliaromagnateatro.com</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="n">
+        <v>41123</v>
+      </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3983,77 +3967,65 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2020-12-29T15:05:00+00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-05-31T06:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-05-31T06:44:31+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-05-24T07:41:04+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Paisan, Ciao</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>http://www.consorzioilmercato.com/</t>
         </is>
       </c>
       <c r="V34" t="b">
@@ -4066,29 +4038,29 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4098,114 +4070,112 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2020-09-17T12:45:54+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
+          <t>2014-09-30T12:50:00+00:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>info@teatrocomunalemodena.it</t>
+          <t>info@emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gratuito</t>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>059 2033010</t>
+          <t>059/2163021</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>https://teatrocomunalemodena.it/</t>
+          <t>http://www.emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4215,98 +4185,112 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:04+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-05-12T09:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-06-30T10:00:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Piazzetta Pomposa</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Serate in Pomposa - 1° edizione</t>
+          <t>Paisan, Ciao</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V36" t="b">
         <v>0</v>
       </c>
-      <c r="W36" t="n">
-        <v>41123</v>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4316,67 +4300,83 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
+          <t xml:space="preserve"> gratuito</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V37" t="b">
         <v>0</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4407,7 +4407,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Altri eventi,Musica</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4417,79 +4417,67 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2022-05-20T10:02:04+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-20T10:02:34+00:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-05-12T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-30T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Piazzetta Pomposa</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Serate in Pomposa - 1° edizione</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="b">
         <v>0</v>
       </c>
@@ -4498,7 +4486,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4520,7 +4508,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4530,59 +4518,63 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
+          <t>2022-03-23T16:26:44+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -4595,7 +4587,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4617,7 +4609,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4627,104 +4619,110 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Immagine di una precedente edizione del mercato</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>http://www.mercatieuropei.com</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V40" t="b">
         <v>0</v>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W40" t="n">
+        <v>41123</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4734,54 +4732,50 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
+          <t>2022-05-11T07:00:46+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -4790,7 +4784,7 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -4803,7 +4797,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4825,7 +4819,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4835,77 +4829,69 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Proiezione del film di Marco Pollini</t>
-        </is>
-      </c>
+          <t>2021-08-25T12:27:55+00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2021-08-25T12:28:08+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-04T06:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-04T06:44:31+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Immagine della locandina del film</t>
+          <t>Immagine di una precedente edizione del mercato</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-24T07:43:55+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>La grande guerra del Salento</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>http://www.mercatieuropei.com</t>
         </is>
       </c>
       <c r="V42" t="b">
@@ -4918,29 +4904,29 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Altri eventi,Spettacoli</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4950,67 +4936,63 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ingresso da Strada S.Faustino, 182</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-05-26T14:09:48+00:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Spettacolo di danza</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:50:51+00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-05-26T14:09:58+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-04T14:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-04T15:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-giro-del-mondo-in-90-minuti/@@images/c6bc9831-404e-402b-9e60-623bc0a2ba80.jpeg</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-27T06:18:12+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Parco Ferrari</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 20.00</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ingresso libero</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Il giro del mondo in 90 minuti</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -5023,7 +5005,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-giro-del-mondo-in-90-minuti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5045,7 +5027,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5055,77 +5037,77 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Marco Pollini</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-04T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-04T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-24T07:43:55+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>059 2033166</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>La grande guerra del Salento</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>https://www.fmav.org</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V44" t="b">
@@ -5138,29 +5120,29 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi,Spettacoli</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5170,63 +5152,67 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>ingresso da Strada S.Faustino, 182</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>2022-05-26T14:09:48+00:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Spettacolo di danza</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-26T14:09:58+00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-04T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-04T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-giro-del-mondo-in-90-minuti/@@images/c6bc9831-404e-402b-9e60-623bc0a2ba80.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-26T07:16:41+00:00</t>
+          <t>2022-05-27T06:18:12+00:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Parco Ferrari</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> ore 20.00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+          <t xml:space="preserve"> ingresso libero</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Il giro del mondo in 90 minuti</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -5239,7 +5225,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-giro-del-mondo-in-90-minuti</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5261,7 +5247,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5271,72 +5257,90 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
+          <t>2021-09-09T10:12:02+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>https://www.fmav.org</t>
+        </is>
+      </c>
       <c r="V46" t="b">
         <v>0</v>
       </c>
-      <c r="W46" t="n">
-        <v>41123</v>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5358,7 +5362,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5368,96 +5372,98 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
+          <t>2022-05-26T07:16:41+00:00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Complesso San Paolo</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="b">
         <v>0</v>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>41123</v>
+      </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5467,75 +5473,63 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
+          <t>2022-05-21T10:32:36+00:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
+          <t>2022-06-11T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2022-06-12T12:00:00+00:00</t>
-        </is>
-      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Polisportiva Madonnina</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="b">
         <v>0</v>
       </c>
@@ -5544,7 +5538,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5566,7 +5560,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5576,50 +5570,50 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Piazza Roma</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -5628,42 +5622,44 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V49" t="b">
         <v>0</v>
       </c>
-      <c r="W49" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5673,71 +5669,75 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Commedia brillante</t>
-        </is>
-      </c>
+          <t>2021-08-06T11:34:26+00:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
+          <t>2022-02-08T10:09:23+00:00</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
+        </is>
+      </c>
       <c r="V50" t="b">
         <v>0</v>
       </c>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5768,7 +5768,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5778,50 +5778,50 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-05-06T09:12:13+00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
+          <t>2022-05-06T09:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Piazza Roma</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -5830,44 +5830,42 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="b">
         <v>0</v>
       </c>
-      <c r="W51" t="inlineStr"/>
+      <c r="W51" t="n">
+        <v>41123</v>
+      </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5877,28 +5875,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t>Commedia brillante</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5908,32 +5906,36 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-03-19T09:32:45+00:00</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -5946,7 +5948,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -5968,7 +5970,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5978,102 +5980,96 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Teatro Cittadella</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V53" t="b">
         <v>0</v>
       </c>
-      <c r="W53" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6083,58 +6079,54 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
+          <t>2022-03-31T08:57:09+00:00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -6143,7 +6135,7 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -6156,7 +6148,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6178,7 +6170,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6188,83 +6180,71 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2022-03-19T09:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
+          <t>2022-03-19T09:28:51+00:00</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="b">
         <v>0</v>
       </c>
@@ -6273,7 +6253,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6295,7 +6275,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6305,50 +6285,58 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>2022-02-28T15:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -6357,44 +6345,42 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="b">
         <v>0</v>
       </c>
-      <c r="W56" t="inlineStr"/>
+      <c r="W56" t="n">
+        <v>41123</v>
+      </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6404,96 +6390,114 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2021-06-10T16:47:55+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr"/>
+          <t>2022-05-06T10:18:45+00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.anticoinpiazzagrande.com/</t>
         </is>
       </c>
       <c r="V57" t="b">
         <v>0</v>
       </c>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>41123</v>
+      </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6503,99 +6507,89 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:24:06+00:00</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V58" t="b">
         <v>0</v>
       </c>
-      <c r="W58" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -6633,23 +6627,23 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
+          <t>2022-05-10T08:26:10+00:00</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -6679,7 +6673,7 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -6701,7 +6695,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6711,89 +6705,99 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2022-10-15T22:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2022-10-16T21:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2022-05-10T08:27:35+00:00</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V60" t="b">
         <v>0</v>
       </c>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="n">
+        <v>41123</v>
+      </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
@@ -6831,23 +6835,23 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2022-11-19T23:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2022-11-20T22:55:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2022-05-10T08:28:15+00:00</t>
+          <t>2022-05-10T08:26:55+00:00</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -6877,20 +6881,218 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2022-10-15T22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2022-10-16T21:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:27:35+00:00</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V62" t="b">
+        <v>0</v>
+      </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>44,65137034620577</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>10,921029194828652</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mercati</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2022-11-19T23:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2022-11-20T22:55:00+00:00</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2022-05-10T08:28:15+00:00</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Mercato straordinario degli ambulanti</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
+      <c r="V63" t="b">
+        <v>0</v>
+      </c>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
           <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="Y63" t="inlineStr">
         <is>
           <t>44,65137034620577</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="Z63" t="inlineStr">
         <is>
           <t>10,921029194828652</t>
         </is>
       </c>
-      <c r="AA61" t="inlineStr">
+      <c r="AA63" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proiezione del film di Andrey Khrzhanovskiy </t>
+          <t>Proiezione del film di Alejandro Amenábar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2076,17 +2076,17 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-05-27T06:00:00+00:00</t>
+          <t>2022-05-28T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022-05-27T06:44:31+00:00</t>
+          <t>2022-05-29T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti/@@images/1e06dde4-4919-49ed-bb42-b3fbed89c34f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2022-05-24T07:37:25+00:00</t>
+          <t>2022-05-24T07:35:24+00:00</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Il naso o la cospirazione degli anticonformisti</t>
+          <t>Lettera a Franco</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_il-naso-o-la-cospirazione-degli-anticonformisti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2160,7 +2160,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2170,58 +2170,54 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>centro storico</t>
+          <t>Corso Canalgrande, 103</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-04-29T10:05:46+00:00</t>
+          <t>2022-05-05T08:41:26+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
+          <t>Appuntamenti letterari al femminile</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-05-01T09:00:00+00:00</t>
+          <t>2022-05-07T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-07-17T10:00:00+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2022-04-29T10:06:04+00:00</t>
+          <t>2022-05-05T09:23:17+00:00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Piazza Torre</t>
+          <t>Chiostro di Palazzo Santa Margherita</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
+          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -2230,7 +2226,7 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, aperture serali</t>
+          <t>Scrittrici inChiostro</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2243,7 +2239,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2265,7 +2261,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2275,75 +2271,87 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Largo Garibaldi, 15</t>
+          <t>Viale Jacopo Barozzi, 31</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-05-26T10:41:07+00:00</t>
+          <t>2021-05-13T08:16:32+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rassegna degli spettacoli degli studenti degli istituti scolastici superiori di Modena</t>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-05-26T10:43:09+00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>2021-05-13T08:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>info@planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-05-25T10:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-05-31T11:00:00+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/teatro-di-classe/@@images/e2c8fdee-bd18-4665-a203-859f06d4c9ae.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Teatro Storchi</t>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-05-26T10:43:09+00:00</t>
+          <t>2022-05-17T08:44:09+00:00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Teatro Storchi</t>
+          <t>Civico Planetario</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Prezzi dei biglietti € 8 </t>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>059 224726</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Teatro di classe</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>https://www.planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="V18" t="b">
         <v>0</v>
       </c>
@@ -2352,29 +2360,29 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/teatro-di-classe</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2384,112 +2392,106 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>via  San Pietro, 7</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2022-05-26T07:38:49+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Proiezione del film di Alejandro Amenábar</t>
+          <t>Concerto della rassegna Vox Mutinae 2022</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-26T07:38:55+00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-28T06:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-05-29T06:44:31+00:00</t>
+          <t>2022-05-28T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/lettera-a-franco/@@images/6ebf8ebc-3cd9-4679-8c2f-a39d252bcdeb.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov/@@images/d4a31c90-0423-433c-acbe-2cfbe2df77b8.jpeg</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Immagine della locandina del film</t>
+          <t>Giorgi Manoshvili</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-24T07:35:24+00:00</t>
+          <t>2022-05-26T07:39:15+00:00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Auditorium Santa Scolastica, presso il Monastero di San Pietro</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato ore 21.15  domenica ore 18.15 e 20.45</t>
+          <t xml:space="preserve"> ore 18.00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ingresso gratuito</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Lettera a Franco</t>
+          <t>Recital lirico dei vincitori del Concorso Internazionale di canto lirico intitolato a Nicolaj Ghiaurov</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="b">
         <v>0</v>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W19" t="n">
+        <v>41123</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/lettera-a-franco</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2499,63 +2501,63 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Appuntamenti letterari al femminile</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:24:22+00:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-17T07:25:56+00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-28T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-06-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-26T07:20:15+00:00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2568,7 +2570,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2590,7 +2592,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2600,87 +2602,71 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Viale Jacopo Barozzi, 31</t>
+          <t>centro storico</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
+          <t>2022-04-29T10:05:46+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+          <t>Visite straordinarie, dalle 19 alle 22, il venerdì, sabato e domenica, dal 1 maggio al 17 luglio.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>info@planetariodimodena.it</t>
-        </is>
-      </c>
+          <t>2022-04-29T10:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-01T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-07-17T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/torre-ghirlandina-aperture-serali/@@images/bfdf71f9-ed36-4565-8549-0084dd664317.jpeg</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-04-29T10:06:04+00:00</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Piazza Torre</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> Dal 1 maggio al 17 luglio: tutti i venerdì, sabato e domenica dalle 19 alle 22 </t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>059 224726</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>Torre Ghirlandina, aperture serali</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>https://www.planetariodimodena.it</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="b">
         <v>0</v>
       </c>
@@ -2689,29 +2675,29 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/torre-ghirlandina-aperture-serali</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2721,71 +2707,59 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>via  San Pietro, 7</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-05-26T07:38:49+00:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Concerto della rassegna Vox Mutinae 2022</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-05-26T07:38:55+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov/@@images/d4a31c90-0423-433c-acbe-2cfbe2df77b8.jpeg</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Giorgi Manoshvili</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-05-26T07:39:15+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Auditorium Santa Scolastica, presso il Monastero di San Pietro</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 18.00</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ingresso gratuito</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Recital lirico dei vincitori del Concorso Internazionale di canto lirico intitolato a Nicolaj Ghiaurov</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2798,7 +2772,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2820,7 +2794,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi,Musica,Concerti</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2830,63 +2804,59 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>via San Pietro, 7</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2022-05-26T10:59:44+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-26T10:59:52+00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-28T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-28T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/spezieria-tra-fiori-e-musica/@@images/8d9cb68d-b782-44cf-9f54-ba911c69ac27.jpeg</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-26T07:20:15+00:00</t>
+          <t>2022-05-26T11:12:17+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Spezieria del Monastero di S.Pietro</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> ore 17.00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Spezieria tra fiori e musica</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2899,7 +2869,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/spezieria-tra-fiori-e-musica</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2921,7 +2891,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2931,50 +2901,58 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>2022-02-25T14:15:15+00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-05-28T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-02-28T15:10:52+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -2983,7 +2961,7 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Dai Comacini ai Maestri Campionesi</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -2996,7 +2974,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3018,7 +2996,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica,Concerti</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3028,50 +3006,54 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>via San Pietro, 7</t>
+          <t>Via F. Selmi, 67</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-05-26T10:59:44+00:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>2022-05-27T13:32:13+00:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Esposizione a tema a cura degli studenti della classe 3G dell'IIS A.Venturi di Modena</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-05-26T10:59:52+00:00</t>
+          <t>2022-05-27T13:32:23+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-05-28T10:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-05-28T11:00:00+00:00</t>
+          <t>2022-06-05T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/spezieria-tra-fiori-e-musica/@@images/8d9cb68d-b782-44cf-9f54-ba911c69ac27.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere/@@images/8d3225be-145b-4570-8501-7c691ae317e4.jpeg</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-05-26T11:12:17+00:00</t>
+          <t>2022-05-27T14:11:04+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Spezieria del Monastero di S.Pietro</t>
+          <t>Complesso San Paolo, Cortile del Leccio</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 17.00</t>
+          <t xml:space="preserve"> sabato e feriali ore 9.00-19.00  domenica e festivi ore 9.00-13.00 </t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3080,7 +3062,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Spezieria tra fiori e musica</t>
+          <t>“Le Ferite” per i 50 anni di Medici Senza Frontiere</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3093,7 +3075,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/spezieria-tra-fiori-e-musica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3115,7 +3097,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3125,22 +3107,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Via F. Selmi, 67</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2022-05-27T13:32:13+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t>Presentazione del libro ed esposizione a tema a cura degli studenti della classe 3G dell'IIS A.Venturi di Modena</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-05-27T13:32:23+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -3156,27 +3138,23 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere/@@images/c8a46615-786c-4007-9ec5-18ab3716c26a.jpeg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-27T14:10:34+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Complesso San Paolo, Cortile del Leccio</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 16.30</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3185,7 +3163,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>“Le Ferite” per i 50 anni di Medici Senza Frontiere</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3198,7 +3176,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3220,7 +3198,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3230,54 +3208,50 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Via F. Selmi, 67</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-05-27T13:32:13+00:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Esposizione a tema a cura degli studenti della classe 3G dell'IIS A.Venturi di Modena</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-05-27T13:32:23+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-03-19T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-06-05T14:00:00+00:00</t>
+          <t>2022-05-28T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere/@@images/8d3225be-145b-4570-8501-7c691ae317e4.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-05-27T14:11:04+00:00</t>
+          <t>2022-03-23T16:27:28+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Complesso San Paolo, Cortile del Leccio</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato e feriali ore 9.00-19.00  domenica e festivi ore 9.00-13.00 </t>
+          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3286,7 +3260,7 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>“Le Ferite” per i 50 anni di Medici Senza Frontiere</t>
+          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -3299,7 +3273,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3321,7 +3295,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3331,63 +3305,71 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Via F. Selmi, 67</t>
+          <t>piazza Matteotti, 17</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-05-27T13:32:13+00:00</t>
+          <t>2022-05-25T09:39:41+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Presentazione del libro ed esposizione a tema a cura degli studenti della classe 3G dell'IIS A.Venturi di Modena</t>
+          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-05-27T13:32:23+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-29T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere/@@images/c8a46615-786c-4007-9ec5-18ab3716c26a.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-05-27T14:10:34+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Complesso San Paolo, Cortile del Leccio</t>
+          <t>Centro per l'infanzia Mo.Mo</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.30</t>
+          <t xml:space="preserve"> Ore 10.00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>059 235320</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>“Le Ferite” per i 50 anni di Medici Senza Frontiere</t>
+          <t>Un viaggio alla scoperta della musica</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -3400,29 +3382,29 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,648090007085386</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925069996586558</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925069996586558 44.648090007085386)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3432,59 +3414,67 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>2022-05-10T10:04:48+00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Diciottesima edizione</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso libero</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3497,7 +3487,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3519,116 +3509,130 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>piazza Matteotti, 17</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-05-25T09:39:41+00:00</t>
+          <t>2021-04-26T15:03:43+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-05-29T08:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Centro per l'infanzia Mo.Mo</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ore 10.00</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>059 235320</t>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Un viaggio alla scoperta della musica</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>http://www.parcomontale.it/it</t>
+        </is>
+      </c>
       <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="W30" t="n">
-        <v>41123</v>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>44,648090007085386</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10,925069996586558</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>POINT (10.925069996586558 44.648090007085386)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3638,67 +3642,63 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Largo S.Francesco</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-05-10T10:04:48+00:00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Diciottesima edizione</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-05-10T10:08:30+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2022-05-29T11:00:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-05-10T10:13:42+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Chiesa di San Francesco</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingresso libero</t>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Concerto "Rosa mistica"</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3733,108 +3733,94 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Montale Rangone</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
+          <t>Largo Garibaldi, 15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021-04-26T15:03:43+00:00</t>
+          <t>2022-05-26T10:41:07+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+          <t>Rassegna degli spettacoli degli studenti degli istituti scolastici superiori di Modena</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-04-26T15:06:06+00:00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>museo@parcomontale.it</t>
-        </is>
-      </c>
+          <t>2022-05-26T10:43:09+00:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-04-03T14:00:00+00:00</t>
+          <t>2022-05-25T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2022-06-19T15:00:00+00:00</t>
+          <t>2022-05-31T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/teatro-di-classe/@@images/e2c8fdee-bd18-4665-a203-859f06d4c9ae.jpeg</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Teatro Storchi</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-03-28T14:43:35+00:00</t>
+          <t>2022-05-26T10:43:09+00:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Teatro Storchi</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+          <t xml:space="preserve"> Prezzi dei biglietti € 8 </t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Parco archeologico della Terramara di Montale</t>
+          <t>Teatro di classe</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>http://www.parcomontale.it/it</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="b">
         <v>0</v>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>41050</t>
-        </is>
+      <c r="W32" t="n">
+        <v>41123</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/teatro-di-classe</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -3856,7 +3842,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3866,76 +3852,78 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
+          <t>2020-12-29T15:02:32+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
+          <t>2020-12-29T15:05:00+00:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-05-29T15:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2022-05-29T16:00:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-05-23T10:13:30+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 10.00</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.com/</t>
+        </is>
+      </c>
       <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="W33" t="n">
-        <v>41123</v>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -3957,7 +3945,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Altri eventi,Mercati</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3967,100 +3955,112 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ingresso da viale Berengario</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-12-29T15:02:32+00:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>2020-09-17T12:45:54+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2020-12-29T15:05:00+00:00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>2014-09-30T12:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>info@emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-01-03T14:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2022-12-26T14:59:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2021-12-28T10:39:07+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>059/2163021</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Mercato settimanale del lunedì</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.com/</t>
+          <t>http://www.emiliaromagnateatro.com</t>
         </is>
       </c>
       <c r="V34" t="b">
         <v>0</v>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4070,112 +4070,112 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Viale Caduti in Guerra, 196</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-09-17T12:45:54+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2014-09-30T12:50:00+00:00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>info@emiliaromagnateatro.com</t>
-        </is>
-      </c>
+          <t>2021-04-28T06:30:52+00:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-05-30T22:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-03-15T11:11:12+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Teatro Tempio</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
-        </is>
-      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>059/2163021</t>
+          <t>059 236288</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Kassandra</t>
+          <t>Paisan, Ciao</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>http://www.emiliaromagnateatro.com</t>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
         </is>
       </c>
       <c r="V35" t="b">
         <v>0</v>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>44,64381951149482</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10,93139345085676</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>POINT (10.93139345085676 44.64381951149482)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Musica,Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4185,112 +4185,114 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2021-10-04T15:31:48+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
+          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-05-31T06:00:00+00:00</t>
+          <t>2022-05-31T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2022-05-31T06:44:31+00:00</t>
+          <t>2022-05-31T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-05-24T07:41:04+00:00</t>
+          <t>2022-03-22T10:17:19+00:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gratuito</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>059 236288</t>
+          <t>059 2033010</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Paisan, Ciao</t>
+          <t>DolceAmaro</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+          <t>https://teatrocomunalemodena.it/</t>
         </is>
       </c>
       <c r="V36" t="b">
         <v>0</v>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W36" t="n">
+        <v>41123</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/paisan-ciao</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Musica,Spettacoli,Teatro</t>
+          <t>Altri eventi,Musica</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4300,83 +4302,67 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
+          <t>2022-05-20T10:02:04+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spettacolo conclusivo dei corsi di Alta Formazione per cantanti lirici </t>
+          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-20T10:02:34+00:00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-05-31T15:00:00+00:00</t>
+          <t>2022-05-12T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2022-05-31T16:00:00+00:00</t>
+          <t>2022-06-30T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dolceamaro/@@images/2429e532-09b0-41e8-9f85-aa4a21287d10.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-03-22T10:17:19+00:00</t>
+          <t>2022-05-20T10:02:34+00:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Piazzetta Pomposa</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gratuito</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>DolceAmaro</t>
+          <t>Serate in Pomposa - 1° edizione</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="b">
         <v>0</v>
       </c>
@@ -4385,7 +4371,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dolceamaro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4407,7 +4393,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4417,63 +4403,63 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:04+00:00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Rassegna musicale nella suggestiva piazzetta della Pomposa</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-05-12T09:00:00+00:00</t>
+          <t>2022-06-01T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2022-06-30T10:00:00+00:00</t>
+          <t>2022-06-01T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/serate-in-pomposa-1deg-edizione/@@images/90c7f1e5-b97b-4472-866b-68e21ff4b305.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-05-20T10:02:34+00:00</t>
+          <t>2022-05-23T10:16:24+00:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Piazzetta Pomposa</t>
+          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tutti i mercoledì e giovedì, dalle ore 18.30</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Serate in Pomposa - 1° edizione</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -4486,7 +4472,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/serate-in-pomposa-1deg-edizione</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4508,7 +4494,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Spettacoli,Concerti,Musica</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4518,21 +4504,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Corso Canalgrande, 85</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>2021-10-04T15:31:48+00:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>2021-10-04T15:31:55+00:00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>info@teatrocomunalemodena.it</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>2022-06-01T15:00:00+00:00</t>
@@ -4545,40 +4539,44 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche/@@images/8e5a5fa0-1d05-41e2-9bd5-115da3e3c5ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-05-23T10:16:24+00:00</t>
+          <t>2022-05-04T10:45:34+00:00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Roma davanti all'Accademia Militare</t>
+          <t>Teatro comunale Pavarotti-Freni</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Euro 12 a partecipante</t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>059 2033010</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate tematiche</t>
+          <t>Vinicio Capossela</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>https://teatrocomunalemodena.it/</t>
+        </is>
+      </c>
       <c r="V39" t="b">
         <v>0</v>
       </c>
@@ -4587,7 +4585,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy5_of_free-walking-tour-visite-guidate-tematiche</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4609,7 +4607,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spettacoli,Concerti,Musica</t>
+          <t>Iniziative per bambini,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4619,79 +4617,63 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 85</t>
+          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:48+00:00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Rassegna "L'altro suono festival" del Teatro comunale Pavarotti-Freni</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:00:46+00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-04T15:31:55+00:00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>info@teatrocomunalemodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-11T07:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-06-01T15:00:00+00:00</t>
+          <t>2022-06-02T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2022-06-01T16:00:00+00:00</t>
+          <t>2022-06-02T07:00:00+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/vinicio-capossela/@@images/9059bf61-ac70-4134-8ced-4386f5e54ad3.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-05-04T10:45:34+00:00</t>
+          <t>2022-05-11T07:01:08+00:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Teatro comunale Pavarotti-Freni</t>
+          <t>Autodromo di Modena</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.00</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>059 2033010</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Vinicio Capossela</t>
+          <t>Go Kart, go!</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>https://teatrocomunalemodena.it/</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="b">
         <v>0</v>
       </c>
@@ -4700,7 +4682,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/vinicio-capossela</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4722,7 +4704,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Iniziative per bambini,Manifestazioni sportive</t>
+          <t>Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4732,50 +4714,54 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Strada Pomposiana n. 255/A - Loc. Marzaglia</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:00:46+00:00</t>
+          <t>2021-08-25T12:27:55+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2021-08-25T12:28:08+00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-06-02T06:00:00+00:00</t>
+          <t>2022-06-02T12:00:00+00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2022-06-02T07:00:00+00:00</t>
+          <t>2022-06-05T13:00:00+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/go-kart-go/@@images/ae9c72c5-09fb-4387-a0c6-e72a157b01d6.jpeg</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Immagine di una precedente edizione del mercato</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-05-11T07:01:08+00:00</t>
+          <t>2022-05-21T08:42:42+00:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Autodromo di Modena</t>
+          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13 e dalle 14 alle 18</t>
+          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -4784,42 +4770,48 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Go Kart, go!</t>
+          <t>Mercato europeo</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>http://www.mercatieuropei.com</t>
+        </is>
+      </c>
       <c r="V41" t="b">
         <v>0</v>
       </c>
-      <c r="W41" t="n">
-        <v>41123</v>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/go-kart-go</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,647524762696584</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925428060260353</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925428060260353 44.647524762696584)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Altri eventi,Manifestazioni sportive</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4829,54 +4821,54 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Piazza Matteotti</t>
+          <t>Zona tribune</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-08-25T12:27:55+00:00</t>
+          <t>2022-05-11T07:50:51+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-08-25T12:28:08+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-06-02T12:00:00+00:00</t>
+          <t>2022-06-03T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2022-06-05T13:00:00+00:00</t>
+          <t>2022-06-03T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-europeo/@@images/95eee6fe-2dc5-49a1-8611-3f5329c0af16.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Immagine di una precedente edizione del mercato</t>
+          <t>Immagine presa dal sito della Run 5.30 Modena</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-05-21T08:42:42+00:00</t>
+          <t>2022-05-11T07:51:19+00:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Piazza Matteotti, Via Emilia Centro, Largo Porta Bologna</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle 9.00 alle 23.00</t>
+          <t xml:space="preserve"> ore 5.30</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -4885,48 +4877,42 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Mercato europeo</t>
+          <t>Run 5.30</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>http://www.mercatieuropei.com</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="b">
         <v>0</v>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W42" t="n">
+        <v>41123</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-europeo</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>44,647524762696584</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10,925428060260353</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>POINT (10.925428060260353 44.647524762696584)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Altri eventi,Manifestazioni sportive</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4936,98 +4922,112 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Zona tribune</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-05-11T07:50:51+00:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>2021-04-28T06:30:25+00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Proiezione del film di Marco Pollini</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-06-03T07:00:00+00:00</t>
+          <t>2022-06-04T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2022-06-03T08:00:00+00:00</t>
+          <t>2022-06-04T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/run-5.30/@@images/24b6a680-9979-4ba1-8fe1-9af5096da63e.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Immagine presa dal sito della Run 5.30 Modena</t>
+          <t>Immagine della locandina del film</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2022-05-11T07:51:19+00:00</t>
+          <t>2022-05-24T07:43:55+00:00</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Parco Novi Sad</t>
+          <t>Sala Truffaut</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 5.30</t>
+          <t xml:space="preserve"> ore 21.15</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>059 236288</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Run 5.30</t>
+          <t>La grande guerra del Salento</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
+        </is>
+      </c>
       <c r="V43" t="b">
         <v>0</v>
       </c>
-      <c r="W43" t="n">
-        <v>41123</v>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/run-5.30</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,6456499931615</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921599972490952</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921599972490952 44.6456499931615)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Altri eventi,Spettacoli</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5037,112 +5037,102 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>via degli Adelardi, 4</t>
+          <t>ingresso da Strada S.Faustino, 182</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:25+00:00</t>
+          <t>2022-05-26T14:09:48+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Proiezione del film di Marco Pollini</t>
+          <t>Spettacolo di danza</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-04-28T06:30:52+00:00</t>
+          <t>2022-05-26T14:09:58+00:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-06-04T06:00:00+00:00</t>
+          <t>2022-06-04T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2022-06-04T06:44:31+00:00</t>
+          <t>2022-06-04T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-grande-guerra-del-salento/@@images/b18d66e7-4b46-4875-9d8e-b70050efe202.jpeg</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Immagine della locandina del film</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-giro-del-mondo-in-90-minuti/@@images/c6bc9831-404e-402b-9e60-623bc0a2ba80.jpeg</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-05-24T07:43:55+00:00</t>
+          <t>2022-05-27T06:18:12+00:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Sala Truffaut</t>
+          <t>Parco Ferrari</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21.15</t>
+          <t xml:space="preserve"> ore 20.00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ingresso libero</t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>059 236288</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>La grande guerra del Salento</t>
+          <t>Il giro del mondo in 90 minuti</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>https://www.circuitocinema.mo.it/sala-truffaut/</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="b">
         <v>0</v>
       </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W44" t="n">
+        <v>41123</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-grande-guerra-del-salento</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-giro-del-mondo-in-90-minuti</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>44,6456499931615</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10,921599972490952</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>POINT (10.921599972490952 44.6456499931615)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Altri eventi,Spettacoli</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5152,80 +5142,90 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ingresso da Strada S.Faustino, 182</t>
+          <t>Corso Cavour, angolo corso Canalgrnde</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-05-26T14:09:48+00:00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Spettacolo di danza</t>
-        </is>
-      </c>
+          <t>2021-09-09T10:12:02+00:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-05-26T14:09:58+00:00</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>2021-09-09T10:12:26+00:00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>info@fmav.org - biglietteria@fmav.org</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-06-04T14:00:00+00:00</t>
+          <t>2022-06-08T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2022-06-04T15:00:00+00:00</t>
+          <t>2022-09-18T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-giro-del-mondo-in-90-minuti/@@images/c6bc9831-404e-402b-9e60-623bc0a2ba80.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-05-27T06:18:12+00:00</t>
+          <t>2022-05-21T09:18:35+00:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Parco Ferrari</t>
+          <t>FMAV - Palazzina dei Giardini</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 20.00</t>
+          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ingresso libero</t>
+          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>059 2033166</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Il giro del mondo in 90 minuti</t>
+          <t>Candice Breitz: Never Ending Stories</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>https://www.fmav.org</t>
+        </is>
+      </c>
       <c r="V45" t="b">
         <v>0</v>
       </c>
-      <c r="W45" t="n">
-        <v>41123</v>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-giro-del-mondo-in-90-minuti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5247,7 +5247,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5257,90 +5257,76 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Corso Cavour, angolo corso Canalgrnde</t>
+          <t>via Selmi, 63</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:02+00:00</t>
+          <t>2022-05-17T07:24:22+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-09-09T10:12:26+00:00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>info@fmav.org - biglietteria@fmav.org</t>
-        </is>
-      </c>
+          <t>2022-05-17T07:25:56+00:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-06-08T10:00:00+00:00</t>
+          <t>2022-06-10T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2022-09-18T11:00:00+00:00</t>
+          <t>2022-06-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/candice-breitz-never-ending-stories/@@images/d5ebf4a4-66cb-44cb-9e8c-79f9fcfc72ea.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-05-21T09:18:35+00:00</t>
+          <t>2022-05-26T07:16:41+00:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>FMAV - Palazzina dei Giardini</t>
+          <t>Complesso San Paolo</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal mercoledì alla domenica dalle 15 alle 19 </t>
+          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingresso 6 € / riduzioni 4 € (Circuito Vivaticket) Ingresso libero: ogni mercoledì </t>
+          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>059 2033166</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Candice Breitz: Never Ending Stories</t>
+          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>https://www.fmav.org</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="b">
         <v>0</v>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>41121</t>
-        </is>
+      <c r="W46" t="n">
+        <v>41123</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/candice-breitz-never-ending-stories</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5362,7 +5348,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5372,63 +5358,59 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
+          <t>2022-05-21T10:32:36+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-21T10:32:42+00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-06-10T07:00:00+00:00</t>
+          <t>2022-06-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2022-06-10T08:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/c62a264a-bdfb-469d-85eb-8d034a4afbbc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-05-26T07:16:41+00:00</t>
+          <t>2022-05-21T10:36:00+00:00</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Piazza Matteotti</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 17 alle 18.30</t>
+          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
-        </is>
-      </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Nocinopoli - La città del nocino</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -5441,7 +5423,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5463,7 +5445,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Altri eventi,Fiere, Esposizioni e Mostre Mercato</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5473,50 +5455,50 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:36+00:00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-05-21T10:32:42+00:00</t>
+          <t>2021-10-09T08:00:00+00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-06-11T10:00:00+00:00</t>
+          <t>2022-06-11T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/nocinopoli-la-citta-del-nocino/@@images/0c419aa8-b36d-411f-ae54-b60ae09f6bd7.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-05-21T10:36:00+00:00</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Piazza Matteotti</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:39:39+00:00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato dalle ore 11 alle 21  domenica dalle ore 10.30 alle 21</t>
+          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -5525,42 +5507,44 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Nocinopoli - La città del nocino</t>
+          <t>Fatto in Italia</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V48" t="b">
         <v>0</v>
       </c>
-      <c r="W48" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/nocinopoli-la-citta-del-nocino</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Mercati,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5570,96 +5554,106 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>via Don Pasquino Fiorenzi, 134</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Mercato di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2021-08-06T11:34:26+00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-09T08:00:00+00:00</t>
+          <t>2021-08-06T11:36:33+00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-06-11T22:00:00+00:00</t>
+          <t>2022-06-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2022-06-12T21:55:00+00:00</t>
+          <t>2022-06-12T12:00:00+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_fatto-in-italia/@@images/b8f32f6a-f0bd-4736-bb21-b49871c73eec.jpeg</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>logo del mercatino</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-04-07T09:39:39+00:00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+          <t>2022-02-08T10:09:23+00:00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Polisportiva Madonnina</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle 7.00 alle 14.30</t>
+          <t xml:space="preserve"> dalle ore 9 alle 13</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>340 2607164 Luisa</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Fatto in Italia</t>
+          <t>Mercatino della Polisportiva Madonnina</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
         </is>
       </c>
       <c r="V49" t="b">
         <v>0</v>
       </c>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>41123</v>
+      </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_fatto-in-italia</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mercati,Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5669,75 +5663,63 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>via Don Pasquino Fiorenzi, 134</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2021-08-06T11:34:26+00:00</t>
+          <t>2022-05-06T09:12:13+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-08-06T11:36:33+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-06-12T11:00:00+00:00</t>
+          <t>2022-06-16T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-06-12T12:00:00+00:00</t>
+          <t>2022-06-16T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina/@@images/7fbd75c5-a620-4574-9c40-f012be16941a.jpeg</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>logo del mercatino</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-02-08T10:09:23+00:00</t>
+          <t>2022-05-06T09:12:25+00:00</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Polisportiva Madonnina</t>
+          <t>Piazza Roma</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9 alle 13</t>
+          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>340 2607164 Luisa</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Mercatino della Polisportiva Madonnina</t>
+          <t>Rosse e non solo di sera</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/mercatinopolisportivamadonnina/</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="b">
         <v>0</v>
       </c>
@@ -5746,7 +5728,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_mercatino-della-polisportiva-madonnina</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5768,7 +5750,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Altri eventi</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5778,59 +5760,67 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:13+00:00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>2022-03-19T09:15:00+00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Commedia brillante</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-06-16T09:00:00+00:00</t>
+          <t>2022-06-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-06-16T10:00:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/rosse-e-non-solo-di-sera/@@images/9d3d995c-a7e0-4621-9ce7-58d692875e1c.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-05-06T09:12:25+00:00</t>
+          <t>2022-03-19T09:32:45+00:00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Piazza Roma</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalle ore 18.30 alle 24.00</t>
+          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Rosse e non solo di sera</t>
+          <t>Il Penitenziere</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -5843,7 +5833,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/rosse-e-non-solo-di-sera</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5865,7 +5855,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5875,102 +5865,96 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Commedia brillante</t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2010-11-03T10:00:00+00:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-06-17T08:00:00+00:00</t>
+          <t>2022-06-18T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-19T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/il-penitenziere/@@images/0f3e995d-acc4-4d2c-b85c-a01d54e19020.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-03-19T09:32:45+00:00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Teatro Cittadella</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Venerdì 17 e Sabato 18 giugno ore 21 - Domenica 19 giugno ore 17 </t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Il Penitenziere</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.it/</t>
+        </is>
+      </c>
       <c r="V52" t="b">
         <v>0</v>
       </c>
-      <c r="W52" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/il-penitenziere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Visite guidate,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5980,50 +5964,54 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Canaletto Sud, 17/A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
+          <t>2022-03-31T08:53:45+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
+          <t>2022-03-31T08:55:39+00:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-06-18T22:00:00+00:00</t>
+          <t>2022-06-19T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-06-19T21:55:00+00:00</t>
+          <t>2022-06-19T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti/@@images/856dda7b-b783-4f0a-b0a3-a4e50c9ea91b.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-05-10T08:23:02+00:00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
+          <t>2022-03-31T08:57:09+00:00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -6032,44 +6020,42 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Quale percussione? - Museolaboratorio</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="b">
         <v>0</v>
       </c>
-      <c r="W53" t="inlineStr"/>
+      <c r="W53" t="n">
+        <v>41123</v>
+      </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy15_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Visite guidate,Iniziative per bambini</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6079,63 +6065,67 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Via Canaletto Sud, 17/A</t>
+          <t>Piazza della Cittadella, 11</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-03-31T08:53:45+00:00</t>
+          <t>2022-03-19T09:15:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Visita guidata al museolaboratorio per adulti e bambini dai 3 anni in su</t>
+          <t>Spettacolo teatrale</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-03-31T08:55:39+00:00</t>
+          <t>2022-03-19T09:19:36+00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-06-19T08:00:00+00:00</t>
+          <t>2022-06-25T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-06-19T09:00:00+00:00</t>
+          <t>2022-06-25T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio/@@images/d596fabd-4e8d-410e-b649-5ff01fc72d71.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2022-03-31T08:57:09+00:00</t>
+          <t>2022-03-19T09:28:51+00:00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Museolaboratorio Quale percussione? presso Condominio ErreNord</t>
+          <t>Teatro Cittadella</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La visita si svolge nei seguenti orari a scelta: dalle 15 alle 16.30 oppure dalle 17 alle 18.30  </t>
+          <t xml:space="preserve"> ore 21</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Quale percussione? - Museolaboratorio</t>
+          <t>L'uomo dal fiore in bocca</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -6148,7 +6138,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_quale-percussione-museolaboratorio</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6170,7 +6160,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spettacoli,Teatro</t>
+          <t>Visite guidate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6180,67 +6170,67 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Piazza della Cittadella, 11</t>
+          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-03-19T09:15:00+00:00</t>
+          <t>2022-02-25T14:15:15+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale</t>
+          <t>Torre Ghirlandina, visite guidate a tema</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2022-03-19T09:19:36+00:00</t>
+          <t>2022-02-25T14:15:33+00:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-06-25T08:00:00+00:00</t>
+          <t>2022-06-25T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-06-25T09:00:00+00:00</t>
+          <t>2022-06-25T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/luomo-dal-fiore-in-bocca/@@images/45e6dab9-6388-4246-9a70-62f43619a8ea.jpeg</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Torre Ghirlandina</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2022-03-19T09:28:51+00:00</t>
+          <t>2022-02-28T15:13:23+00:00</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Teatro Cittadella</t>
+          <t>Torre Ghirlandina</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 21</t>
+          <t xml:space="preserve"> ore 19.00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ingresso unico € 10,00 Prenotazioni al 338.2434005 oppure e-mail a: compagnia.andreaferrari@gmail.com</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
-          <t>L'uomo dal fiore in bocca</t>
+          <t>La pendenza della Ghirlandina tra passato e presente</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -6253,7 +6243,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/luomo-dal-fiore-in-bocca</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6275,7 +6265,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6285,71 +6275,83 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Centro storico</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
+          <t>2021-06-10T16:47:55+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
+          <t xml:space="preserve">Manifestazione di antiquariato </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>2021-06-10T16:48:45+00:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>anticoinpiazzagrande@gmail.com</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-06-25T13:00:00+00:00</t>
+          <t>2022-06-25T16:00:00+00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-06-25T14:00:00+00:00</t>
+          <t>2022-06-26T17:00:00+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente/@@images/146dc964-6d6d-40d4-9297-562ff9a981d1.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-02-28T15:13:23+00:00</t>
+          <t>2022-05-06T10:18:45+00:00</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>340 6059686 oppure 338 2098995</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>La pendenza della Ghirlandina tra passato e presente</t>
+          <t>L'antico in Piazza Grande</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>https://www.anticoinpiazzagrande.com/</t>
+        </is>
+      </c>
       <c r="V56" t="b">
         <v>0</v>
       </c>
@@ -6358,7 +6360,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/la-pendenza-della-ghirlandina-tra-passato-e-presente</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6380,7 +6382,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6390,107 +6392,89 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Centro storico</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2021-06-10T16:47:55+00:00</t>
+          <t>2019-12-10T09:34:45+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestazione di antiquariato </t>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-06-10T16:48:45+00:00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>anticoinpiazzagrande@gmail.com</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-06-25T16:00:00+00:00</t>
+          <t>2022-07-16T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-06-26T17:00:00+00:00</t>
+          <t>2022-07-17T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy9_of_lantico-in-piazza-grande/@@images/8020db9a-8111-42d3-8b00-6e0ed882ce5e.jpeg</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Immagine presa dal sito della manifestazione L'antico in Piazza Grande</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-05-06T10:18:45+00:00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Piazza Grande, Corso Duomo, Piazza Torre, Piazza XX Settembre</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:24:06+00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 9.00 alle 19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>340 6059686 oppure 338 2098995</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr">
         <is>
-          <t>L'antico in Piazza Grande</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>https://www.anticoinpiazzagrande.com/</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V57" t="b">
         <v>0</v>
       </c>
-      <c r="W57" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy9_of_lantico-in-piazza-grande</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -6528,23 +6512,23 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-07-16T22:00:00+00:00</t>
+          <t>2022-08-20T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-07-17T21:55:00+00:00</t>
+          <t>2022-08-21T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti/@@images/4c8dcfd3-0d26-4d2d-b808-8ca772fa748f.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2022-05-10T08:24:06+00:00</t>
+          <t>2022-05-10T08:26:10+00:00</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -6574,7 +6558,7 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy16_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -6596,7 +6580,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mercati</t>
+          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6606,96 +6590,106 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
+          <t>Via Sant'Eufemia e Via Carteria</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
+          <t>2022-04-07T09:03:31+00:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>2022-04-07T09:06:38+00:00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>traborghiecontrade@libero.it</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-08-20T22:00:00+00:00</t>
+          <t>2022-09-17T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-08-21T21:55:00+00:00</t>
+          <t>2022-09-18T09:00:00+00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti/@@images/0dc1bec3-7921-4d86-90bb-66d72dad6173.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:10+00:00</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
+          <t>2022-04-07T09:10:43+00:00</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
+          <t xml:space="preserve"> ore 9.00-19.00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>333/9103351</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Mercato straordinario degli ambulanti</t>
+          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>http://www.consorzioilmercato.it/</t>
+          <t>https://www.facebook.com/TraBorghieContrade</t>
         </is>
       </c>
       <c r="V59" t="b">
         <v>0</v>
       </c>
-      <c r="W59" t="inlineStr"/>
+      <c r="W59" t="n">
+        <v>41123</v>
+      </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy17_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>44,65137034620577</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10,921029194828652</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fiere, Esposizioni e Mostre Mercato,Mercati</t>
+          <t>Mercati</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6705,99 +6699,89 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Via Sant'Eufemia e Via Carteria</t>
+          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-04-07T09:03:31+00:00</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>2019-12-10T09:34:45+00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-04-07T09:06:38+00:00</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>traborghiecontrade@libero.it</t>
-        </is>
-      </c>
+          <t>2010-11-03T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2022-09-17T08:00:00+00:00</t>
+          <t>2022-09-17T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2022-09-18T09:00:00+00:00</t>
+          <t>2022-09-18T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade/@@images/2a3356d9-21c8-424c-b3e6-b8a8a93a1725.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2022-04-07T09:10:43+00:00</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Centro storico - Borgo Sant'Eufemia e Contrada Carteria</t>
-        </is>
-      </c>
+          <t>2022-05-10T08:26:55+00:00</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 9.00-19.00</t>
+          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>333/9103351</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Mercatino artigianato artistico "Tra borghi e contrade"</t>
+          <t>Mercato straordinario degli ambulanti</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/TraBorghieContrade</t>
+          <t>http://www.consorzioilmercato.it/</t>
         </is>
       </c>
       <c r="V60" t="b">
         <v>0</v>
       </c>
-      <c r="W60" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy2_of_mercatino-artigianato-artistico-tra-borghi-e-contrade</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,65137034620577</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,921029194828652</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>
       </c>
     </row>
@@ -6835,23 +6819,23 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2022-09-17T22:00:00+00:00</t>
+          <t>2022-10-15T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2022-09-18T21:55:00+00:00</t>
+          <t>2022-10-16T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti/@@images/45738906-5f84-43cd-9f29-05f592db26cc.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2022-05-10T08:26:55+00:00</t>
+          <t>2022-05-10T08:27:35+00:00</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -6881,7 +6865,7 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy18_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -6934,23 +6918,23 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2022-10-15T22:00:00+00:00</t>
+          <t>2022-11-19T23:00:00+00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2022-10-16T21:55:00+00:00</t>
+          <t>2022-11-20T22:55:00+00:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti/@@images/3d77bfdf-b2a2-4126-b1e5-4ed073129898.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2022-05-10T08:27:35+00:00</t>
+          <t>2022-05-10T08:28:15+00:00</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -6980,7 +6964,7 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy19_of_mercato-straordinario-degli-ambulanti</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -6994,105 +6978,6 @@
         </is>
       </c>
       <c r="AA62" t="inlineStr">
-        <is>
-          <t>POINT (10.921029194828652 44.65137034620577)</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Mercati</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>parco Novi Sad (ex - Piazza d'Armi)</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2019-12-10T09:34:45+00:00</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Bancarelle di ambulanti che propongono prodotti sia alimentari che extralimentari</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2010-11-03T10:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2022-11-19T23:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2022-11-20T22:55:00+00:00</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti/@@images/585b45ab-f03a-4650-91cb-e9f754e22d94.jpeg</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2022-05-10T08:28:15+00:00</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dalle ore 8.00 alle 14.00</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Mercato straordinario degli ambulanti</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>http://www.consorzioilmercato.it/</t>
-        </is>
-      </c>
-      <c r="V63" t="b">
-        <v>0</v>
-      </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy20_of_mercato-straordinario-degli-ambulanti</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>44,65137034620577</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>10,921029194828652</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
         <is>
           <t>POINT (10.921029194828652 44.65137034620577)</t>
         </is>

--- a/docs/eventi/eventi_modena.xlsx
+++ b/docs/eventi/eventi_modena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2160,7 +2160,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2170,54 +2170,50 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Corso Canalgrande, 103</t>
+          <t>via Emilia Centro angolo Piazza Matteotti</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-05-05T08:41:26+00:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Appuntamenti letterari al femminile</t>
-        </is>
-      </c>
+          <t>2022-05-13T10:01:30+00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-13T10:03:13+00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-05-07T07:00:00+00:00</t>
+          <t>2022-05-28T09:00:00+00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-06-05T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/scrittrici-inchiostro/@@images/318772ef-8170-4984-9e11-f2516c109708.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2022-05-05T09:23:17+00:00</t>
+          <t>2022-05-13T10:03:32+00:00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Chiostro di Palazzo Santa Margherita</t>
+          <t>Chiesa S.Giovanni Battista</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> i sabati di maggio alle ore 18</t>
+          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -2226,7 +2222,7 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Scrittrici inChiostro</t>
+          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2239,7 +2235,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/scrittrici-inchiostro</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2261,7 +2257,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
+          <t>Mostre</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2271,87 +2267,67 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Viale Jacopo Barozzi, 31</t>
+          <t>Via F. Selmi, 67</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:32+00:00</t>
+          <t>2022-05-27T13:32:13+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
+          <t>Esposizione a tema a cura degli studenti della classe 3G dell'IIS A.Venturi di Modena</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-05-13T08:16:59+00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>info@planetariodimodena.it</t>
-        </is>
-      </c>
+          <t>2022-05-27T13:32:23+00:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-05-22T07:00:00+00:00</t>
+          <t>2022-05-28T13:00:00+00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022-05-29T09:11:35+00:00</t>
+          <t>2022-06-05T14:00:00+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Immagine del pianeta Terra - da unsplash.com</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere/@@images/8d3225be-145b-4570-8501-7c691ae317e4.jpeg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2022-05-17T08:44:09+00:00</t>
+          <t>2022-05-27T14:11:04+00:00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Civico Planetario</t>
+          <t>Complesso San Paolo, Cortile del Leccio</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
+          <t xml:space="preserve"> sabato e feriali ore 9.00-19.00  domenica e festivi ore 9.00-13.00 </t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>059 224726</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Le iniziative al Planetario</t>
+          <t>“Le Ferite” per i 50 anni di Medici Senza Frontiere</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>https://www.planetariodimodena.it</t>
-        </is>
-      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="b">
         <v>0</v>
       </c>
@@ -2360,29 +2336,29 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>44,64907001920466</t>
+          <t>44,64582</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10,917829960080724</t>
+          <t>10,92572</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>POINT (10.917829960080724 44.64907001920466)</t>
+          <t>POINT (10.92572 44.64582)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Concerti,Musica</t>
+          <t>Conferenze, Seminari, Incontri e Lezioni,Altri eventi,Iniziative per bambini</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2392,75 +2368,87 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>via  San Pietro, 7</t>
+          <t>Viale Jacopo Barozzi, 31</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-05-26T07:38:49+00:00</t>
+          <t>2021-05-13T08:16:32+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Concerto della rassegna Vox Mutinae 2022</t>
+          <t>Conferenze, eventi per famiglie, serate speciali e visite guidate</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-05-26T07:38:55+00:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>2021-05-13T08:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>info@planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-22T07:00:00+00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022-05-28T08:00:00+00:00</t>
+          <t>2022-05-29T09:11:35+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov/@@images/d4a31c90-0423-433c-acbe-2cfbe2df77b8.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy7_of_le-iniziative-al-planetario/@@images/bce50dab-bfa1-40ef-9085-04f7bab6d51d.jpeg</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Giorgi Manoshvili</t>
+          <t>Immagine del pianeta Terra - da unsplash.com</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2022-05-26T07:39:15+00:00</t>
+          <t>2022-05-17T08:44:09+00:00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Auditorium Santa Scolastica, presso il Monastero di San Pietro</t>
+          <t>Civico Planetario</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 18.00</t>
+          <t xml:space="preserve"> domenica 22 e domenica 29 maggio ore 15  giovedì 26 maggio ore 21  sabato 28 maggio ore 21</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ingresso gratuito</t>
+          <t xml:space="preserve"> a pagamento  vedi costo del biglietto nel programma o sul sito del Planetario: www.planetariodimodena.it </t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>059 224726</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Recital lirico dei vincitori del Concorso Internazionale di canto lirico intitolato a Nicolaj Ghiaurov</t>
+          <t>Le iniziative al Planetario</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://www.planetariodimodena.it</t>
+        </is>
+      </c>
       <c r="V19" t="b">
         <v>0</v>
       </c>
@@ -2469,29 +2457,29 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/recital-lirico-dei-vincitori-del-concorso-internazionale-di-canto-lirico-intitolato-a-nicolaj-ghiaurov</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy7_of_le-iniziative-al-planetario</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64907001920466</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,917829960080724</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.917829960080724 44.64907001920466)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Altri eventi,Iniziative per bambini</t>
+          <t>Iniziative per bambini</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2501,63 +2489,71 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>via Selmi, 63</t>
+          <t>piazza Matteotti, 17</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-05-17T07:24:22+00:00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>2022-05-25T09:39:41+00:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-05-17T07:25:56+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-05-28T07:00:00+00:00</t>
+          <t>2022-05-29T08:00:00+00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2022-06-11T08:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi/@@images/faf8f0b5-e078-4310-9f19-8f71719228e5.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2022-05-26T07:20:15+00:00</t>
+          <t>2022-05-25T09:43:08+00:00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Complesso San Paolo</t>
+          <t>Centro per l'infanzia Mo.Mo</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato 28 maggio e sabato 11 giugno dalle ore 10 alle 12.30</t>
+          <t xml:space="preserve"> Ore 10.00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iscrizione su prenotazione, è richiesto un contributo di 3€ a partecipante.  </t>
+          <t xml:space="preserve"> Inizia gratuita su prenotazione</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>059 235320</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Laboratori artistici in occasione della mostra dedicata a Gianni Valbonesi</t>
+          <t>Un viaggio alla scoperta della musica</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2570,22 +2566,22 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_laboratori-artistici-in-occasione-della-mostra-dedicata-a-gianni-valbonesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,648090007085386</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,925069996586558</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.925069996586558 44.648090007085386)</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2693,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Concerti,Musica</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2707,59 +2703,67 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>via Emilia Centro angolo Piazza Matteotti</t>
+          <t>Largo S.Francesco</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-05-13T10:01:30+00:00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>2022-05-10T10:04:48+00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Diciottesima edizione</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:13+00:00</t>
+          <t>2022-05-10T10:08:30+00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-05-28T09:00:00+00:00</t>
+          <t>2022-05-29T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2022-06-05T10:00:00+00:00</t>
+          <t>2022-05-29T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua/@@images/fecdcb1a-b768-40a7-8809-d18fd2116bab.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/concerto-rosa-mistica/@@images/5d666bc9-d035-4acb-9903-21fd8e9003bf.jpeg</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-05-13T10:03:32+00:00</t>
+          <t>2022-05-10T10:13:42+00:00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Chiesa S.Giovanni Battista</t>
+          <t>Chiesa di San Francesco</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dal lunedì al venerdì ore 10-18  sabato e domenica ore 10-19</t>
+          <t xml:space="preserve"> ore 16.00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingresso libero</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Mostra di ricamo e merletto "Da ieri a oggi.....la tradizione continua"</t>
+          <t>Concerto "Rosa mistica"</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2772,7 +2776,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/mostra-di-ricamo-e-merletto-da-ieri-a-oggi-la-tradizione-continua</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/concerto-rosa-mistica</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2794,82 +2798,108 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Altri eventi,Musica,Concerti</t>
+          <t>Altri eventi,Iniziative per bambini,Visite guidate</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Montale Rangone</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>via San Pietro, 7</t>
+          <t>Via Vandelli (Statale 12 – Nuova Estense)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-05-26T10:59:44+00:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>2021-04-26T15:03:43+00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Riapertura al pubblico tutte le domeniche e festivi dal 3 aprile al 19 giugno 2022</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-05-26T10:59:52+00:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>2021-04-26T15:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>museo@parcomontale.it</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-05-28T10:00:00+00:00</t>
+          <t>2022-04-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2022-05-28T11:00:00+00:00</t>
+          <t>2022-06-19T15:00:00+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/spezieria-tra-fiori-e-musica/@@images/8d9cb68d-b782-44cf-9f54-ba911c69ac27.jpeg</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/parco-archeologico-della-terramara-di-montale/@@images/f7d0a110-c97e-4787-b356-c6a2116576e3.jpeg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Parco archeologico della Terramara di Montale</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2022-05-26T11:12:17+00:00</t>
+          <t>2022-03-28T14:43:35+00:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Spezieria del Monastero di S.Pietro</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 17.00</t>
+          <t xml:space="preserve"> Il Parco è aperto dal 3 aprile al 19 giugno, tutte le domeniche e nei giorni festivi di lunedì 18 aprile, lunedì 25 aprile e giovedì 2 giugno</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 euro intero, ridotto 5 euro dai 6 ai 13 anni,  gratuito fino a 5 anni e dai 65 anni  riduzione del 50% ai possessori della fidelity card del Parco</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Per informazioni e prenotazioni: tel. 335 8136948 dalle 9 alle 13 oppure 059 532020 negli orari di apertura del Parco</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Spezieria tra fiori e musica</t>
+          <t>Parco archeologico della Terramara di Montale</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>http://www.parcomontale.it/it</t>
+        </is>
+      </c>
       <c r="V23" t="b">
         <v>0</v>
       </c>
-      <c r="W23" t="n">
-        <v>41123</v>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/spezieria-tra-fiori-e-musica</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/parco-archeologico-della-terramara-di-montale</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2901,67 +2931,63 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ritrovo presso la biglietteria della Torre, piazza Torre</t>
+          <t>Piazza Grande</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:15+00:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina, visite guidate a tema</t>
-        </is>
-      </c>
+          <t>2022-03-23T16:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-02-25T14:15:33+00:00</t>
+          <t>2022-03-23T16:26:51+00:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-29T15:00:00+00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-05-29T16:00:00+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/dai-comacini-ai-maestri-campionesi/@@images/d5218bc2-dc59-43df-b1a3-4f32b072e82f.jpeg</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Torre Ghirlandina</t>
-        </is>
-      </c>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche/@@images/bbb27001-b4a3-4ea4-8c8f-b2ea069af5e6.jpeg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2022-02-28T15:10:52+00:00</t>
+          <t>2022-05-23T10:13:30+00:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Torre Ghirlandina</t>
+          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 19.00</t>
+          <t xml:space="preserve"> ore 10.00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euro 12 a partecipante</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Dai Comacini ai Maestri Campionesi</t>
+          <t>Free Walking Tour - Visite guidate tematiche</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -2974,7 +3000,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/dai-comacini-ai-maestri-campionesi</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/copy4_of_free-walking-tour-visite-guidate-tematiche</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -2996,7 +3022,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mostre</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3006,63 +3032,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Via F. Selmi, 67</t>
+          <t>Largo Garibaldi, 15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-05-27T13:32:13+00:00</t>
+          <t>2022-05-26T10:41:07+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Esposizione a tema a cura degli studenti della classe 3G dell'IIS A.Venturi di Modena</t>
+          <t>Rassegna degli spettacoli degli studenti degli istituti scolastici superiori di Modena</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-05-27T13:32:23+00:00</t>
+          <t>2022-05-26T10:43:09+00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-05-25T10:00:00+00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2022-06-05T14:00:00+00:00</t>
+          <t>2022-05-31T11:00:00+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere/@@images/8d3225be-145b-4570-8501-7c691ae317e4.jpeg</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/teatro-di-classe/@@images/e2c8fdee-bd18-4665-a203-859f06d4c9ae.jpeg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Teatro Storchi</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2022-05-27T14:11:04+00:00</t>
+          <t>2022-05-26T10:43:09+00:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Complesso San Paolo, Cortile del Leccio</t>
+          <t>Teatro Storchi</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sabato e feriali ore 9.00-19.00  domenica e festivi ore 9.00-13.00 </t>
+          <t xml:space="preserve"> ore 21.00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prezzi dei biglietti € 8 </t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>“Le Ferite” per i 50 anni di Medici Senza Frontiere</t>
+          <t>Teatro di classe</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3075,7 +3109,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/teatro-di-classe</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3097,7 +3131,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Conferenze, Seminari, Incontri e Lezioni</t>
+          <t>Altri eventi,Mercati</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3107,54 +3141,50 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Via F. Selmi, 67</t>
+          <t>Ingresso da viale Berengario</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-05-27T13:32:13+00:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Presentazione del libro ed esposizione a tema a cura degli studenti della classe 3G dell'IIS A.Venturi di Modena</t>
-        </is>
-      </c>
+          <t>2020-12-29T15:02:32+00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-05-27T13:32:23+00:00</t>
+          <t>2020-12-29T15:05:00+00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-05-28T13:00:00+00:00</t>
+          <t>2022-01-03T14:00:00+00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2022-05-28T14:00:00+00:00</t>
+          <t>2022-12-26T14:59:00+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/copy_of_201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere/@@images/c8a46615-786c-4007-9ec5-18ab3716c26a.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/mercato-settimanale-del-lunedi-1/@@images/44cdb524-15a5-405b-89af-f9e36f3adeb6.jpeg</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2022-05-27T14:10:34+00:00</t>
+          <t>2021-12-28T10:39:07+00:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Complesso San Paolo, Cortile del Leccio</t>
+          <t>Parco Novi Sad</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ore 16.30</t>
+          <t xml:space="preserve"> il lunedì dalle ore 8 alle 14</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3163,20 +3193,26 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>“Le Ferite” per i 50 anni di Medici Senza Frontiere</t>
+          <t>Mercato settimanale del lunedì</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>http://www.consorzioilmercato.com/</t>
+        </is>
+      </c>
       <c r="V26" t="b">
         <v>0</v>
       </c>
-      <c r="W26" t="n">
-        <v>41123</v>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>41121</t>
+        </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/copy_of_201cle-ferite201d-per-i-50-anni-di-medici-senza-frontiere</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/mercato-settimanale-del-lunedi-1</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3198,7 +3234,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Visite guidate</t>
+          <t>Spettacoli,Teatro</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3208,94 +3244,112 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Piazza Grande</t>
+          <t>Viale Caduti in Guerra, 196</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:44+00:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>2020-09-17T12:45:54+00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Gli spettacoli di ERT al Teatro Tempio</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-03-23T16:26:51+00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>2014-09-30T12:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>info@emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-03-19T16:00:00+00:00</t>
+          <t>2022-05-30T22:00:00+00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2022-05-28T16:00:00+00:00</t>
+          <t>2022-06-12T21:55:00+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena/@@images/26b88750-ac47-44ab-bc5c-66df7933f860.jpeg</t>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/kassandra/@@images/29f75f21-a9f0-45e8-8056-8023ce88a666.jpeg</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2022-03-23T16:27:28+00:00</t>
+          <t>2022-03-15T11:11:12+00:00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Ritrovo e partenza: Piazza Grande, Pietra Ringadora</t>
+          <t>Teatro Tempio</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tutti i sabati dal 19 marzo al 28 maggio alle ore 15.30</t>
+          <t xml:space="preserve"> 31 maggio e 1 giugno, 3 giugno e dal 7 al 10 giugno ore 20.30  2, 4, 5, 11 e 12 giugno ore 19.00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A pagamento, vedi nel testo le info per l'acquisto dei biglietti.</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>059/2163021</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Free Walking Tour - Visite guidate del centro storico di Modena</t>
+          <t>Kassandra</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>http://www.emiliaromagnateatro.com</t>
+        </is>
+      </c>
       <c r="V27" t="b">
         <v>0</v>
       </c>
-      <c r="W27" t="n">
-        <v>41123</v>
-      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/novita/eventi/2022/free-walking-tour-visite-guidate-del-centro-storico-di-modena</t>
+          <t>https://www.comune.modena.it/novita/eventi/2022/kassandra</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>44,64582</t>
+          <t>44,64381951149482</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10,92572</t>
+          <t>10,93139345085676</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>POINT (10.92572 44.64582)</t>
+          <t>POINT (10.93139345085676 44.64381951149482)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Iniziative per bambini</t>
+          <t>Altri eventi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3305,106 +3359,112 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>piazza Matteotti, 17</t>
+          <t>via degli Adelardi, 4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-05-25T09:39:41+00:00</t>
+          <t>2021-04-28T06:30:25+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Spettacolo teatrale per bambini e bambine da 3 a 6 anni</t>
+          <t>Proiezione del film di Francesco Conversano e Nene Grignaffini</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2021-04-28T06:30:52+00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-05-29T08:00:00+00:00</t>
+          <t>2022-05-31T06:00:00+00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2022-05-29T10:00:00+00:00</t>
+          <t>2022-05-31T06:44:31+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.comune.modena.it/api/novita/eventi/2022/un-viaggio-alla-scoperta-della-musica/@@images/c4306e19-428c-42cb-bc32-698e6ea5dd39.jpeg</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>https://www.comune.modena.it/api/novita/eventi/2022/paisan-ciao/@@images/00f14156-0e06-4604-8c79-4aa96ada1a7a.jpeg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Immagine della locandina del film</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-05-25T09:43:08+00:00</t>
+          <t>2022-05-24T07:41:04+00:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
  